--- a/docs/proposed_trades.xlsx
+++ b/docs/proposed_trades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\mlbchat\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157AE87B-DDDE-487D-86BE-42ED3604F3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54B0C81-2255-4019-9AC8-02BF58313F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="8115" windowWidth="26535" windowHeight="7395" xr2:uid="{F042A249-47C6-4134-B927-1CE0688B40C2}"/>
+    <workbookView xWindow="750" yWindow="525" windowWidth="26535" windowHeight="14985" xr2:uid="{F042A249-47C6-4134-B927-1CE0688B40C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1932" uniqueCount="281">
   <si>
     <t>Player</t>
   </si>
@@ -292,6 +292,591 @@
   </si>
   <si>
     <t>Jorge Soler</t>
+  </si>
+  <si>
+    <t>Ryan Noda</t>
+  </si>
+  <si>
+    <t>James McArthur</t>
+  </si>
+  <si>
+    <t>Michael Kopech</t>
+  </si>
+  <si>
+    <t>Jeff McNeil</t>
+  </si>
+  <si>
+    <t>David Peterson</t>
+  </si>
+  <si>
+    <t>Mark Vientos</t>
+  </si>
+  <si>
+    <t>Sean Manaea</t>
+  </si>
+  <si>
+    <t>Cincinnati Reds</t>
+  </si>
+  <si>
+    <t>Shane Baz, Junior Sanchez</t>
+  </si>
+  <si>
+    <t>Ezequiel Duran, Jack Leiter</t>
+  </si>
+  <si>
+    <t>Miguel Vargas, Ryan Pepiot</t>
+  </si>
+  <si>
+    <t>Luis Campusano, Eguy Rosario</t>
+  </si>
+  <si>
+    <t>Brooks Lee, Simeon Woods</t>
+  </si>
+  <si>
+    <t>Christian Encarnacion, Lyon Richardson</t>
+  </si>
+  <si>
+    <t>Jordan Diaz, Ken Waldichuk</t>
+  </si>
+  <si>
+    <t>Garrett Mitchell, Robert Gasset</t>
+  </si>
+  <si>
+    <t>Toronto Blue Jays</t>
+  </si>
+  <si>
+    <t>Whit Merrifield</t>
+  </si>
+  <si>
+    <t>Aaron Nola</t>
+  </si>
+  <si>
+    <t>Taijuan Walker</t>
+  </si>
+  <si>
+    <t>Nick Castellanos</t>
+  </si>
+  <si>
+    <t>Alec Bohm</t>
+  </si>
+  <si>
+    <t>Colorado Rockies</t>
+  </si>
+  <si>
+    <t>Matt Strahm</t>
+  </si>
+  <si>
+    <t>Mick Abel</t>
+  </si>
+  <si>
+    <t>Jeimer Candelaria</t>
+  </si>
+  <si>
+    <t>Clarke Schmidt, Oswald Peraza</t>
+  </si>
+  <si>
+    <t>Hunter Brown</t>
+  </si>
+  <si>
+    <t>Manuel Margot</t>
+  </si>
+  <si>
+    <t>Ian Happ</t>
+  </si>
+  <si>
+    <t>Jameson Taillon</t>
+  </si>
+  <si>
+    <t>Drew Pomeranz</t>
+  </si>
+  <si>
+    <t>Justin Turner</t>
+  </si>
+  <si>
+    <t>Boston Red Sox</t>
+  </si>
+  <si>
+    <t>Los Angeles Angels</t>
+  </si>
+  <si>
+    <t>Coby Mayo, Darrell Hernaiz</t>
+  </si>
+  <si>
+    <t>Mick Abel, Griff McGarry</t>
+  </si>
+  <si>
+    <t>Casey Schmitt, Landen Roupp</t>
+  </si>
+  <si>
+    <t>Emerson Hancock, Tyler Locklear</t>
+  </si>
+  <si>
+    <t>Brock Porter, Thomas Saggese</t>
+  </si>
+  <si>
+    <t>Jake Eder, Yiddi Cape</t>
+  </si>
+  <si>
+    <t>Blaze Jordan, Brayan Buelvas, Niko Kavadas</t>
+  </si>
+  <si>
+    <t>Andrew Pineda</t>
+  </si>
+  <si>
+    <t>Ryan Pressly</t>
+  </si>
+  <si>
+    <t>Seiya Suzuki</t>
+  </si>
+  <si>
+    <t>Luis Robert</t>
+  </si>
+  <si>
+    <t>Mitch Keller</t>
+  </si>
+  <si>
+    <t>Tanner Scott</t>
+  </si>
+  <si>
+    <t>Jake Fraley</t>
+  </si>
+  <si>
+    <t>Hunter Green</t>
+  </si>
+  <si>
+    <t>Tyler Stephenson</t>
+  </si>
+  <si>
+    <t>Graham Ashcraft</t>
+  </si>
+  <si>
+    <t>Nick Lodolo</t>
+  </si>
+  <si>
+    <t>Los Agneles Dodgers</t>
+  </si>
+  <si>
+    <t>Cole Wilcox</t>
+  </si>
+  <si>
+    <t>Gavin Stone, Miguel Vargas</t>
+  </si>
+  <si>
+    <t>Jack Suwinski</t>
+  </si>
+  <si>
+    <t>Rich Hill</t>
+  </si>
+  <si>
+    <t>Carlos Santana</t>
+  </si>
+  <si>
+    <t>Oswald Peraza</t>
+  </si>
+  <si>
+    <t>Hunter Brown, Drew Gilbert</t>
+  </si>
+  <si>
+    <t>Max Fewtrell</t>
+  </si>
+  <si>
+    <t>Emerson Hancock, Felnin Celesten</t>
+  </si>
+  <si>
+    <t>Bryan Reynolds</t>
+  </si>
+  <si>
+    <t>Bobby Miller, Miguel Vargas</t>
+  </si>
+  <si>
+    <t>AJ Smith-Shawyer, Vaughn Grissom</t>
+  </si>
+  <si>
+    <t>Tanpa Bay Rays</t>
+  </si>
+  <si>
+    <t>Shane Bieber</t>
+  </si>
+  <si>
+    <t>Vladimir Guerrero</t>
+  </si>
+  <si>
+    <t>Max Muncy</t>
+  </si>
+  <si>
+    <t>Michael Grove</t>
+  </si>
+  <si>
+    <t>Miguel Rojas</t>
+  </si>
+  <si>
+    <t>Tony Gonsolin</t>
+  </si>
+  <si>
+    <t>Michael Conforto</t>
+  </si>
+  <si>
+    <t>Shane Baz</t>
+  </si>
+  <si>
+    <t>Simon Woods Richardson</t>
+  </si>
+  <si>
+    <t>Emerson Hancock</t>
+  </si>
+  <si>
+    <t>Brett Baty</t>
+  </si>
+  <si>
+    <t>Jackson Merrill</t>
+  </si>
+  <si>
+    <t>Miguel Andujar</t>
+  </si>
+  <si>
+    <t>Patrick Bailey</t>
+  </si>
+  <si>
+    <t>Marco Luciano</t>
+  </si>
+  <si>
+    <t>Randy Arozarena</t>
+  </si>
+  <si>
+    <t>Eduardo Rodriguez</t>
+  </si>
+  <si>
+    <t>Jake Cronenworth</t>
+  </si>
+  <si>
+    <t>Arizona Diamondbacks</t>
+  </si>
+  <si>
+    <t>Merrill Kelly</t>
+  </si>
+  <si>
+    <t>Eugenio Suarez</t>
+  </si>
+  <si>
+    <t>Lourdes Gurriel</t>
+  </si>
+  <si>
+    <t>Brandon Pfaadt</t>
+  </si>
+  <si>
+    <t>CJ Cron</t>
+  </si>
+  <si>
+    <t>Daniel Bard</t>
+  </si>
+  <si>
+    <t>Kyle Freeland</t>
+  </si>
+  <si>
+    <t>Kris Bryant</t>
+  </si>
+  <si>
+    <t>Ryan McMahon</t>
+  </si>
+  <si>
+    <t>Vladimir Guererro</t>
+  </si>
+  <si>
+    <t>Josh Winckowski</t>
+  </si>
+  <si>
+    <t>Garrett Whitlock</t>
+  </si>
+  <si>
+    <t>Tanner Houck</t>
+  </si>
+  <si>
+    <t>Rob Refsnyder</t>
+  </si>
+  <si>
+    <t>Jarren Duran</t>
+  </si>
+  <si>
+    <t>Masataka Yoshida</t>
+  </si>
+  <si>
+    <t>Roman Anthony</t>
+  </si>
+  <si>
+    <t>Trevor Story</t>
+  </si>
+  <si>
+    <t>Josh Winckowski, Rob Refsnyder</t>
+  </si>
+  <si>
+    <t>Josh Winckowski, Jarren Duran</t>
+  </si>
+  <si>
+    <t>Kyle Bradish</t>
+  </si>
+  <si>
+    <t>Anthony Santander</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Cedric Mullins</t>
+  </si>
+  <si>
+    <t>Tyler O'Neill</t>
+  </si>
+  <si>
+    <t>Dean Kremer</t>
+  </si>
+  <si>
+    <t>Tyler Wells</t>
+  </si>
+  <si>
+    <t>Charlie Morton</t>
+  </si>
+  <si>
+    <t>Luis Arraez</t>
+  </si>
+  <si>
+    <t>Brendan Donovan</t>
+  </si>
+  <si>
+    <t>Oswlad Perez</t>
+  </si>
+  <si>
+    <t>Clarke Schmidt</t>
+  </si>
+  <si>
+    <t>Everson Peirera</t>
+  </si>
+  <si>
+    <t>Jazz Chisholm</t>
+  </si>
+  <si>
+    <t>Lucas Erceg</t>
+  </si>
+  <si>
+    <t>Joey Wendle</t>
+  </si>
+  <si>
+    <t>Alek Manoah</t>
+  </si>
+  <si>
+    <t>Daulton Varsho</t>
+  </si>
+  <si>
+    <t>Jose Berreos</t>
+  </si>
+  <si>
+    <t>Brandon Lowe</t>
+  </si>
+  <si>
+    <t>Josh Lowe</t>
+  </si>
+  <si>
+    <t>Drew Rasmussen</t>
+  </si>
+  <si>
+    <t>Curtis Mead</t>
+  </si>
+  <si>
+    <t>Taylor Walls</t>
+  </si>
+  <si>
+    <t>Bailey Ober, Matt Wallner</t>
+  </si>
+  <si>
+    <t>Christian Pache</t>
+  </si>
+  <si>
+    <t>Junior Caminero, Taylor Walls</t>
+  </si>
+  <si>
+    <t>Tyler Soderstrom, Zack Gelof</t>
+  </si>
+  <si>
+    <t>Juan Soto</t>
+  </si>
+  <si>
+    <t>Lucas Giolito</t>
+  </si>
+  <si>
+    <t>Eloy Jimenez</t>
+  </si>
+  <si>
+    <t>Liam Hendricks</t>
+  </si>
+  <si>
+    <t>Michael Lorenson</t>
+  </si>
+  <si>
+    <t>Keynan Middleton</t>
+  </si>
+  <si>
+    <t>Byron Buxton</t>
+  </si>
+  <si>
+    <t>Joe Ryan</t>
+  </si>
+  <si>
+    <t>Trevor Larnach</t>
+  </si>
+  <si>
+    <t>Scott Barlow</t>
+  </si>
+  <si>
+    <t>Hunter Dozier</t>
+  </si>
+  <si>
+    <t>Jordan Hicks</t>
+  </si>
+  <si>
+    <t>Michael Wacha</t>
+  </si>
+  <si>
+    <t>Seth Lugo</t>
+  </si>
+  <si>
+    <t>Mark Canha</t>
+  </si>
+  <si>
+    <t>Salvador Perez</t>
+  </si>
+  <si>
+    <t>Matt Vierling</t>
+  </si>
+  <si>
+    <t>Javier Belez</t>
+  </si>
+  <si>
+    <t>Javier Belez, Matt Vierling</t>
+  </si>
+  <si>
+    <t>MJ Melendez</t>
+  </si>
+  <si>
+    <t>Matt Brash</t>
+  </si>
+  <si>
+    <t>Dylan Moore, Bryce Miller</t>
+  </si>
+  <si>
+    <t>Luis Castillo</t>
+  </si>
+  <si>
+    <t>Eury Perez, Jake Burger</t>
+  </si>
+  <si>
+    <t>Jorge Polanco, Emerson Hancock</t>
+  </si>
+  <si>
+    <t>Esteury Ruiz</t>
+  </si>
+  <si>
+    <t>Jorge Polanco</t>
+  </si>
+  <si>
+    <t>Oneil Cruz</t>
+  </si>
+  <si>
+    <t>Bryce Miller</t>
+  </si>
+  <si>
+    <t>CJ Abrams</t>
+  </si>
+  <si>
+    <t>Matt McLain</t>
+  </si>
+  <si>
+    <t>Matt Brash, Bryce Miller</t>
+  </si>
+  <si>
+    <t>Jazz Chisholm, Edward Cabrera</t>
+  </si>
+  <si>
+    <t>Brendan Rogers, Ryan Rolison</t>
+  </si>
+  <si>
+    <t>Taylor Ward</t>
+  </si>
+  <si>
+    <t>Shane Baz, Taj Bradley</t>
+  </si>
+  <si>
+    <t>Mike Trout</t>
+  </si>
+  <si>
+    <t>Grayson Rodriguez, Jackson Holliday</t>
+  </si>
+  <si>
+    <t>Hunter Renfroe</t>
+  </si>
+  <si>
+    <t>Andrew Nardi</t>
+  </si>
+  <si>
+    <t>Luis Rengifo</t>
+  </si>
+  <si>
+    <t>Tanner Bibee, Gavin Williams</t>
+  </si>
+  <si>
+    <t>Jo Adell</t>
+  </si>
+  <si>
+    <t>Reid Detmers</t>
+  </si>
+  <si>
+    <t>Trevor May</t>
+  </si>
+  <si>
+    <t>Shea Langeliers</t>
+  </si>
+  <si>
+    <t>Sean Murphy</t>
+  </si>
+  <si>
+    <t>KeBryan Hayes</t>
+  </si>
+  <si>
+    <t>MacKenzie Gore</t>
+  </si>
+  <si>
+    <t>Nathan Eovaldi</t>
+  </si>
+  <si>
+    <t>Jon Gray</t>
+  </si>
+  <si>
+    <t>Dane Dunning</t>
+  </si>
+  <si>
+    <t>Ezequiel Duran</t>
+  </si>
+  <si>
+    <t>Josh Smith</t>
+  </si>
+  <si>
+    <t>Josh Sborz</t>
+  </si>
+  <si>
+    <t>Bryson Stott</t>
+  </si>
+  <si>
+    <t>Jackson Chourio</t>
+  </si>
+  <si>
+    <t>Luis Campusano</t>
+  </si>
+  <si>
+    <t>Jake Myers</t>
+  </si>
+  <si>
+    <t>Luis Guillorme</t>
+  </si>
+  <si>
+    <t>Mauricio Dubon</t>
   </si>
 </sst>
 </file>
@@ -659,11 +1244,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE40E7F-D733-4BF4-9C71-3154C0A12103}">
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:K374"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A62" sqref="A62"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,7 +1261,7 @@
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="20.85546875" customWidth="1"/>
     <col min="8" max="8" width="9.85546875" customWidth="1"/>
-    <col min="9" max="9" width="29.42578125" customWidth="1"/>
+    <col min="9" max="9" width="40" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2079,6 +2664,6446 @@
         <v>24</v>
       </c>
     </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B62" t="s">
+        <v>47</v>
+      </c>
+      <c r="C62" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" t="s">
+        <v>71</v>
+      </c>
+      <c r="G62" t="s">
+        <v>41</v>
+      </c>
+      <c r="I62" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B63" t="s">
+        <v>47</v>
+      </c>
+      <c r="C63" t="s">
+        <v>20</v>
+      </c>
+      <c r="D63" t="s">
+        <v>71</v>
+      </c>
+      <c r="G63" t="s">
+        <v>60</v>
+      </c>
+      <c r="I63" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B64" t="s">
+        <v>47</v>
+      </c>
+      <c r="C64" t="s">
+        <v>20</v>
+      </c>
+      <c r="D64" t="s">
+        <v>71</v>
+      </c>
+      <c r="G64" t="s">
+        <v>35</v>
+      </c>
+      <c r="I64" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B65" t="s">
+        <v>47</v>
+      </c>
+      <c r="C65" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65" t="s">
+        <v>71</v>
+      </c>
+      <c r="E65" t="s">
+        <v>72</v>
+      </c>
+      <c r="G65" t="s">
+        <v>77</v>
+      </c>
+      <c r="I65" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B66" t="s">
+        <v>47</v>
+      </c>
+      <c r="C66" t="s">
+        <v>20</v>
+      </c>
+      <c r="D66" t="s">
+        <v>71</v>
+      </c>
+      <c r="E66" t="s">
+        <v>72</v>
+      </c>
+      <c r="G66" t="s">
+        <v>44</v>
+      </c>
+      <c r="I66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B67" t="s">
+        <v>47</v>
+      </c>
+      <c r="C67" t="s">
+        <v>20</v>
+      </c>
+      <c r="D67" t="s">
+        <v>71</v>
+      </c>
+      <c r="E67" t="s">
+        <v>89</v>
+      </c>
+      <c r="G67" t="s">
+        <v>22</v>
+      </c>
+      <c r="I67" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B68" t="s">
+        <v>47</v>
+      </c>
+      <c r="C68" t="s">
+        <v>20</v>
+      </c>
+      <c r="D68" t="s">
+        <v>71</v>
+      </c>
+      <c r="E68" t="s">
+        <v>89</v>
+      </c>
+      <c r="G68" t="s">
+        <v>38</v>
+      </c>
+      <c r="I68" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B69" t="s">
+        <v>47</v>
+      </c>
+      <c r="C69" t="s">
+        <v>20</v>
+      </c>
+      <c r="D69" t="s">
+        <v>71</v>
+      </c>
+      <c r="E69" t="s">
+        <v>90</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="I69" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B70" t="s">
+        <v>47</v>
+      </c>
+      <c r="C70" t="s">
+        <v>20</v>
+      </c>
+      <c r="D70" t="s">
+        <v>71</v>
+      </c>
+      <c r="E70" t="s">
+        <v>90</v>
+      </c>
+      <c r="G70" t="s">
+        <v>93</v>
+      </c>
+      <c r="I70" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B71" t="s">
+        <v>47</v>
+      </c>
+      <c r="C71" t="s">
+        <v>20</v>
+      </c>
+      <c r="D71" t="s">
+        <v>71</v>
+      </c>
+      <c r="E71" t="s">
+        <v>91</v>
+      </c>
+      <c r="G71" t="s">
+        <v>41</v>
+      </c>
+      <c r="I71" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B72" t="s">
+        <v>47</v>
+      </c>
+      <c r="C72" t="s">
+        <v>20</v>
+      </c>
+      <c r="D72" t="s">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>91</v>
+      </c>
+      <c r="G72" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B73" t="s">
+        <v>47</v>
+      </c>
+      <c r="C73" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" t="s">
+        <v>71</v>
+      </c>
+      <c r="E73" t="s">
+        <v>92</v>
+      </c>
+      <c r="G73" t="s">
+        <v>29</v>
+      </c>
+      <c r="I73" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B74" t="s">
+        <v>47</v>
+      </c>
+      <c r="C74" t="s">
+        <v>20</v>
+      </c>
+      <c r="D74" t="s">
+        <v>71</v>
+      </c>
+      <c r="E74" t="s">
+        <v>92</v>
+      </c>
+      <c r="G74" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B75" t="s">
+        <v>47</v>
+      </c>
+      <c r="C75" t="s">
+        <v>20</v>
+      </c>
+      <c r="D75" t="s">
+        <v>13</v>
+      </c>
+      <c r="G75" t="s">
+        <v>58</v>
+      </c>
+      <c r="I75" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B76" t="s">
+        <v>47</v>
+      </c>
+      <c r="C76" t="s">
+        <v>20</v>
+      </c>
+      <c r="D76" t="s">
+        <v>13</v>
+      </c>
+      <c r="G76" t="s">
+        <v>3</v>
+      </c>
+      <c r="I76" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B77" t="s">
+        <v>47</v>
+      </c>
+      <c r="C77" t="s">
+        <v>20</v>
+      </c>
+      <c r="D77" t="s">
+        <v>13</v>
+      </c>
+      <c r="G77" t="s">
+        <v>57</v>
+      </c>
+      <c r="I77" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B78" t="s">
+        <v>47</v>
+      </c>
+      <c r="C78" t="s">
+        <v>20</v>
+      </c>
+      <c r="D78" t="s">
+        <v>13</v>
+      </c>
+      <c r="G78" t="s">
+        <v>102</v>
+      </c>
+      <c r="I78" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B79" t="s">
+        <v>47</v>
+      </c>
+      <c r="C79" t="s">
+        <v>20</v>
+      </c>
+      <c r="D79" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" t="s">
+        <v>104</v>
+      </c>
+      <c r="G79" t="s">
+        <v>64</v>
+      </c>
+      <c r="I79" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B80" t="s">
+        <v>47</v>
+      </c>
+      <c r="C80" t="s">
+        <v>20</v>
+      </c>
+      <c r="D80" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" t="s">
+        <v>104</v>
+      </c>
+      <c r="G80" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B81" t="s">
+        <v>47</v>
+      </c>
+      <c r="C81" t="s">
+        <v>20</v>
+      </c>
+      <c r="D81" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81" t="s">
+        <v>105</v>
+      </c>
+      <c r="G81" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B82" t="s">
+        <v>47</v>
+      </c>
+      <c r="C82" t="s">
+        <v>20</v>
+      </c>
+      <c r="D82" t="s">
+        <v>13</v>
+      </c>
+      <c r="E82" t="s">
+        <v>105</v>
+      </c>
+      <c r="G82" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B83" t="s">
+        <v>47</v>
+      </c>
+      <c r="C83" t="s">
+        <v>20</v>
+      </c>
+      <c r="D83" t="s">
+        <v>13</v>
+      </c>
+      <c r="E83" t="s">
+        <v>105</v>
+      </c>
+      <c r="G83" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B84" t="s">
+        <v>47</v>
+      </c>
+      <c r="C84" t="s">
+        <v>20</v>
+      </c>
+      <c r="D84" t="s">
+        <v>13</v>
+      </c>
+      <c r="E84" t="s">
+        <v>106</v>
+      </c>
+      <c r="G84" t="s">
+        <v>65</v>
+      </c>
+      <c r="I84" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B85" t="s">
+        <v>47</v>
+      </c>
+      <c r="C85" t="s">
+        <v>20</v>
+      </c>
+      <c r="D85" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" t="s">
+        <v>106</v>
+      </c>
+      <c r="G85" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B86" t="s">
+        <v>47</v>
+      </c>
+      <c r="C86" t="s">
+        <v>20</v>
+      </c>
+      <c r="D86" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86" t="s">
+        <v>106</v>
+      </c>
+      <c r="G86" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B87" t="s">
+        <v>47</v>
+      </c>
+      <c r="C87" t="s">
+        <v>20</v>
+      </c>
+      <c r="D87" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" t="s">
+        <v>107</v>
+      </c>
+      <c r="G87" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B88" t="s">
+        <v>47</v>
+      </c>
+      <c r="C88" t="s">
+        <v>20</v>
+      </c>
+      <c r="D88" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" t="s">
+        <v>107</v>
+      </c>
+      <c r="G88" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B89" t="s">
+        <v>47</v>
+      </c>
+      <c r="C89" t="s">
+        <v>20</v>
+      </c>
+      <c r="D89" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89" t="s">
+        <v>107</v>
+      </c>
+      <c r="G89" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B90" t="s">
+        <v>47</v>
+      </c>
+      <c r="C90" t="s">
+        <v>20</v>
+      </c>
+      <c r="D90" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90" t="s">
+        <v>109</v>
+      </c>
+      <c r="G90" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B91" t="s">
+        <v>47</v>
+      </c>
+      <c r="C91" t="s">
+        <v>20</v>
+      </c>
+      <c r="D91" t="s">
+        <v>13</v>
+      </c>
+      <c r="E91" t="s">
+        <v>109</v>
+      </c>
+      <c r="G91" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B92" t="s">
+        <v>47</v>
+      </c>
+      <c r="C92" t="s">
+        <v>20</v>
+      </c>
+      <c r="D92" t="s">
+        <v>13</v>
+      </c>
+      <c r="E92" t="s">
+        <v>109</v>
+      </c>
+      <c r="G92" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B93" t="s">
+        <v>47</v>
+      </c>
+      <c r="C93" t="s">
+        <v>20</v>
+      </c>
+      <c r="D93" t="s">
+        <v>13</v>
+      </c>
+      <c r="E93" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B94" t="s">
+        <v>47</v>
+      </c>
+      <c r="C94" t="s">
+        <v>20</v>
+      </c>
+      <c r="D94" t="s">
+        <v>13</v>
+      </c>
+      <c r="E94" t="s">
+        <v>109</v>
+      </c>
+      <c r="G94" t="s">
+        <v>58</v>
+      </c>
+      <c r="I94" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B95" t="s">
+        <v>47</v>
+      </c>
+      <c r="C95" t="s">
+        <v>20</v>
+      </c>
+      <c r="D95" t="s">
+        <v>13</v>
+      </c>
+      <c r="E95" t="s">
+        <v>107</v>
+      </c>
+      <c r="G95" t="s">
+        <v>3</v>
+      </c>
+      <c r="I95" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B96" t="s">
+        <v>47</v>
+      </c>
+      <c r="C96" t="s">
+        <v>20</v>
+      </c>
+      <c r="D96" t="s">
+        <v>57</v>
+      </c>
+      <c r="G96" t="s">
+        <v>58</v>
+      </c>
+      <c r="I96" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B97" t="s">
+        <v>47</v>
+      </c>
+      <c r="C97" t="s">
+        <v>20</v>
+      </c>
+      <c r="D97" t="s">
+        <v>57</v>
+      </c>
+      <c r="G97" t="s">
+        <v>3</v>
+      </c>
+      <c r="I97" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B98" t="s">
+        <v>47</v>
+      </c>
+      <c r="C98" t="s">
+        <v>20</v>
+      </c>
+      <c r="D98" t="s">
+        <v>57</v>
+      </c>
+      <c r="G98" t="s">
+        <v>77</v>
+      </c>
+      <c r="I98" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B99" t="s">
+        <v>47</v>
+      </c>
+      <c r="C99" t="s">
+        <v>20</v>
+      </c>
+      <c r="D99" t="s">
+        <v>57</v>
+      </c>
+      <c r="E99" t="s">
+        <v>115</v>
+      </c>
+      <c r="G99" t="s">
+        <v>24</v>
+      </c>
+      <c r="I99" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B100" t="s">
+        <v>47</v>
+      </c>
+      <c r="C100" t="s">
+        <v>20</v>
+      </c>
+      <c r="D100" t="s">
+        <v>57</v>
+      </c>
+      <c r="E100" t="s">
+        <v>115</v>
+      </c>
+      <c r="G100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I100" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B101" t="s">
+        <v>47</v>
+      </c>
+      <c r="C101" t="s">
+        <v>20</v>
+      </c>
+      <c r="D101" t="s">
+        <v>57</v>
+      </c>
+      <c r="E101" t="s">
+        <v>115</v>
+      </c>
+      <c r="G101" t="s">
+        <v>14</v>
+      </c>
+      <c r="I101" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B102" t="s">
+        <v>47</v>
+      </c>
+      <c r="C102" t="s">
+        <v>20</v>
+      </c>
+      <c r="D102" t="s">
+        <v>57</v>
+      </c>
+      <c r="E102" t="s">
+        <v>116</v>
+      </c>
+      <c r="G102" t="s">
+        <v>13</v>
+      </c>
+      <c r="I102" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B103" t="s">
+        <v>47</v>
+      </c>
+      <c r="C103" t="s">
+        <v>20</v>
+      </c>
+      <c r="D103" t="s">
+        <v>57</v>
+      </c>
+      <c r="E103" t="s">
+        <v>116</v>
+      </c>
+      <c r="G103" t="s">
+        <v>44</v>
+      </c>
+      <c r="I103" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B104" t="s">
+        <v>47</v>
+      </c>
+      <c r="C104" t="s">
+        <v>20</v>
+      </c>
+      <c r="D104" t="s">
+        <v>57</v>
+      </c>
+      <c r="E104" t="s">
+        <v>116</v>
+      </c>
+      <c r="G104" t="s">
+        <v>56</v>
+      </c>
+      <c r="I104" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B105" t="s">
+        <v>47</v>
+      </c>
+      <c r="C105" t="s">
+        <v>20</v>
+      </c>
+      <c r="D105" t="s">
+        <v>57</v>
+      </c>
+      <c r="E105" t="s">
+        <v>117</v>
+      </c>
+      <c r="G105" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B106" t="s">
+        <v>47</v>
+      </c>
+      <c r="C106" t="s">
+        <v>20</v>
+      </c>
+      <c r="D106" t="s">
+        <v>57</v>
+      </c>
+      <c r="E106" t="s">
+        <v>117</v>
+      </c>
+      <c r="G106" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B107" t="s">
+        <v>47</v>
+      </c>
+      <c r="C107" t="s">
+        <v>20</v>
+      </c>
+      <c r="D107" t="s">
+        <v>57</v>
+      </c>
+      <c r="E107" t="s">
+        <v>117</v>
+      </c>
+      <c r="G107" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B108" t="s">
+        <v>47</v>
+      </c>
+      <c r="C108" t="s">
+        <v>20</v>
+      </c>
+      <c r="D108" t="s">
+        <v>57</v>
+      </c>
+      <c r="E108" t="s">
+        <v>118</v>
+      </c>
+      <c r="G108" t="s">
+        <v>119</v>
+      </c>
+      <c r="I108" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B109" t="s">
+        <v>47</v>
+      </c>
+      <c r="C109" t="s">
+        <v>20</v>
+      </c>
+      <c r="D109" t="s">
+        <v>57</v>
+      </c>
+      <c r="E109" t="s">
+        <v>118</v>
+      </c>
+      <c r="G109" t="s">
+        <v>65</v>
+      </c>
+      <c r="I109" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B110" t="s">
+        <v>47</v>
+      </c>
+      <c r="C110" t="s">
+        <v>20</v>
+      </c>
+      <c r="D110" t="s">
+        <v>57</v>
+      </c>
+      <c r="E110" t="s">
+        <v>118</v>
+      </c>
+      <c r="G110" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B111" t="s">
+        <v>47</v>
+      </c>
+      <c r="C111" t="s">
+        <v>20</v>
+      </c>
+      <c r="D111" t="s">
+        <v>57</v>
+      </c>
+      <c r="E111" t="s">
+        <v>129</v>
+      </c>
+      <c r="G111" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B112" t="s">
+        <v>47</v>
+      </c>
+      <c r="C112" t="s">
+        <v>20</v>
+      </c>
+      <c r="D112" t="s">
+        <v>57</v>
+      </c>
+      <c r="E112" t="s">
+        <v>129</v>
+      </c>
+      <c r="G112" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B113" t="s">
+        <v>47</v>
+      </c>
+      <c r="C113" t="s">
+        <v>20</v>
+      </c>
+      <c r="D113" t="s">
+        <v>57</v>
+      </c>
+      <c r="E113" t="s">
+        <v>130</v>
+      </c>
+      <c r="G113" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B114" t="s">
+        <v>47</v>
+      </c>
+      <c r="C114" t="s">
+        <v>20</v>
+      </c>
+      <c r="D114" t="s">
+        <v>57</v>
+      </c>
+      <c r="E114" t="s">
+        <v>130</v>
+      </c>
+      <c r="G114" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B115" t="s">
+        <v>47</v>
+      </c>
+      <c r="C115" t="s">
+        <v>20</v>
+      </c>
+      <c r="D115" t="s">
+        <v>29</v>
+      </c>
+      <c r="G115" t="s">
+        <v>71</v>
+      </c>
+      <c r="I115" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B116" t="s">
+        <v>47</v>
+      </c>
+      <c r="C116" t="s">
+        <v>20</v>
+      </c>
+      <c r="D116" t="s">
+        <v>29</v>
+      </c>
+      <c r="G116" t="s">
+        <v>58</v>
+      </c>
+      <c r="I116" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B117" t="s">
+        <v>47</v>
+      </c>
+      <c r="C117" t="s">
+        <v>20</v>
+      </c>
+      <c r="D117" t="s">
+        <v>29</v>
+      </c>
+      <c r="G117" t="s">
+        <v>3</v>
+      </c>
+      <c r="I117" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B118" t="s">
+        <v>47</v>
+      </c>
+      <c r="C118" t="s">
+        <v>20</v>
+      </c>
+      <c r="D118" t="s">
+        <v>93</v>
+      </c>
+      <c r="G118" t="s">
+        <v>35</v>
+      </c>
+      <c r="I118" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B119" t="s">
+        <v>47</v>
+      </c>
+      <c r="C119" t="s">
+        <v>20</v>
+      </c>
+      <c r="D119" t="s">
+        <v>93</v>
+      </c>
+      <c r="G119" t="s">
+        <v>58</v>
+      </c>
+      <c r="I119" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B120" t="s">
+        <v>47</v>
+      </c>
+      <c r="C120" t="s">
+        <v>20</v>
+      </c>
+      <c r="D120" t="s">
+        <v>93</v>
+      </c>
+      <c r="G120" t="s">
+        <v>56</v>
+      </c>
+      <c r="I120" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B121" t="s">
+        <v>47</v>
+      </c>
+      <c r="C121" t="s">
+        <v>20</v>
+      </c>
+      <c r="D121" t="s">
+        <v>93</v>
+      </c>
+      <c r="E121" t="s">
+        <v>134</v>
+      </c>
+      <c r="G121" t="s">
+        <v>77</v>
+      </c>
+      <c r="I121" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B122" t="s">
+        <v>47</v>
+      </c>
+      <c r="C122" t="s">
+        <v>20</v>
+      </c>
+      <c r="D122" t="s">
+        <v>93</v>
+      </c>
+      <c r="E122" t="s">
+        <v>134</v>
+      </c>
+      <c r="G122" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B123" t="s">
+        <v>47</v>
+      </c>
+      <c r="C123" t="s">
+        <v>20</v>
+      </c>
+      <c r="D123" t="s">
+        <v>93</v>
+      </c>
+      <c r="E123" t="s">
+        <v>135</v>
+      </c>
+      <c r="G123" t="s">
+        <v>139</v>
+      </c>
+      <c r="I123" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B124" t="s">
+        <v>47</v>
+      </c>
+      <c r="C124" t="s">
+        <v>20</v>
+      </c>
+      <c r="D124" t="s">
+        <v>93</v>
+      </c>
+      <c r="E124" t="s">
+        <v>135</v>
+      </c>
+      <c r="G124" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B125" t="s">
+        <v>47</v>
+      </c>
+      <c r="C125" t="s">
+        <v>20</v>
+      </c>
+      <c r="D125" t="s">
+        <v>93</v>
+      </c>
+      <c r="E125" t="s">
+        <v>136</v>
+      </c>
+      <c r="G125" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B126" t="s">
+        <v>47</v>
+      </c>
+      <c r="C126" t="s">
+        <v>20</v>
+      </c>
+      <c r="D126" t="s">
+        <v>93</v>
+      </c>
+      <c r="E126" t="s">
+        <v>136</v>
+      </c>
+      <c r="G126" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B127" t="s">
+        <v>47</v>
+      </c>
+      <c r="C127" t="s">
+        <v>20</v>
+      </c>
+      <c r="D127" t="s">
+        <v>93</v>
+      </c>
+      <c r="E127" t="s">
+        <v>137</v>
+      </c>
+      <c r="G127" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B128" t="s">
+        <v>47</v>
+      </c>
+      <c r="C128" t="s">
+        <v>20</v>
+      </c>
+      <c r="D128" t="s">
+        <v>93</v>
+      </c>
+      <c r="E128" t="s">
+        <v>137</v>
+      </c>
+      <c r="G128" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B129" t="s">
+        <v>47</v>
+      </c>
+      <c r="C129" t="s">
+        <v>20</v>
+      </c>
+      <c r="D129" t="s">
+        <v>93</v>
+      </c>
+      <c r="E129" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B130" t="s">
+        <v>47</v>
+      </c>
+      <c r="C130" t="s">
+        <v>20</v>
+      </c>
+      <c r="D130" t="s">
+        <v>58</v>
+      </c>
+      <c r="E130" t="s">
+        <v>51</v>
+      </c>
+      <c r="G130" t="s">
+        <v>64</v>
+      </c>
+      <c r="I130" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B131" t="s">
+        <v>47</v>
+      </c>
+      <c r="C131" t="s">
+        <v>20</v>
+      </c>
+      <c r="D131" t="s">
+        <v>58</v>
+      </c>
+      <c r="E131" t="s">
+        <v>51</v>
+      </c>
+      <c r="G131" t="s">
+        <v>13</v>
+      </c>
+      <c r="I131" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B132" t="s">
+        <v>47</v>
+      </c>
+      <c r="C132" t="s">
+        <v>20</v>
+      </c>
+      <c r="D132" t="s">
+        <v>58</v>
+      </c>
+      <c r="E132" t="s">
+        <v>51</v>
+      </c>
+      <c r="G132" t="s">
+        <v>65</v>
+      </c>
+      <c r="I132" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B133" t="s">
+        <v>47</v>
+      </c>
+      <c r="C133" t="s">
+        <v>20</v>
+      </c>
+      <c r="D133" t="s">
+        <v>58</v>
+      </c>
+      <c r="E133" t="s">
+        <v>142</v>
+      </c>
+      <c r="G133" t="s">
+        <v>38</v>
+      </c>
+      <c r="I133" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B134" t="s">
+        <v>47</v>
+      </c>
+      <c r="C134" t="s">
+        <v>20</v>
+      </c>
+      <c r="D134" t="s">
+        <v>58</v>
+      </c>
+      <c r="E134" t="s">
+        <v>142</v>
+      </c>
+      <c r="G134" t="s">
+        <v>14</v>
+      </c>
+      <c r="I134" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B135" t="s">
+        <v>47</v>
+      </c>
+      <c r="C135" t="s">
+        <v>20</v>
+      </c>
+      <c r="D135" t="s">
+        <v>58</v>
+      </c>
+      <c r="E135" t="s">
+        <v>143</v>
+      </c>
+      <c r="G135" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B136" t="s">
+        <v>47</v>
+      </c>
+      <c r="C136" t="s">
+        <v>20</v>
+      </c>
+      <c r="D136" t="s">
+        <v>58</v>
+      </c>
+      <c r="E136" t="s">
+        <v>143</v>
+      </c>
+      <c r="G136" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B137" t="s">
+        <v>47</v>
+      </c>
+      <c r="C137" t="s">
+        <v>20</v>
+      </c>
+      <c r="D137" t="s">
+        <v>58</v>
+      </c>
+      <c r="E137" t="s">
+        <v>144</v>
+      </c>
+      <c r="G137" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B138" t="s">
+        <v>47</v>
+      </c>
+      <c r="C138" t="s">
+        <v>20</v>
+      </c>
+      <c r="D138" t="s">
+        <v>58</v>
+      </c>
+      <c r="E138" t="s">
+        <v>144</v>
+      </c>
+      <c r="G138" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B139" t="s">
+        <v>47</v>
+      </c>
+      <c r="C139" t="s">
+        <v>20</v>
+      </c>
+      <c r="D139" t="s">
+        <v>58</v>
+      </c>
+      <c r="E139" t="s">
+        <v>149</v>
+      </c>
+      <c r="G139" t="s">
+        <v>22</v>
+      </c>
+      <c r="I139" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B140" t="s">
+        <v>47</v>
+      </c>
+      <c r="C140" t="s">
+        <v>20</v>
+      </c>
+      <c r="D140" t="s">
+        <v>58</v>
+      </c>
+      <c r="E140" t="s">
+        <v>149</v>
+      </c>
+      <c r="G140" t="s">
+        <v>31</v>
+      </c>
+      <c r="I140" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B141" t="s">
+        <v>47</v>
+      </c>
+      <c r="C141" t="s">
+        <v>20</v>
+      </c>
+      <c r="D141" t="s">
+        <v>22</v>
+      </c>
+      <c r="E141" t="s">
+        <v>96</v>
+      </c>
+      <c r="G141" t="s">
+        <v>79</v>
+      </c>
+      <c r="I141" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B142" t="s">
+        <v>47</v>
+      </c>
+      <c r="C142" t="s">
+        <v>20</v>
+      </c>
+      <c r="D142" t="s">
+        <v>22</v>
+      </c>
+      <c r="G142" t="s">
+        <v>102</v>
+      </c>
+      <c r="I142" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B143" t="s">
+        <v>47</v>
+      </c>
+      <c r="C143" t="s">
+        <v>20</v>
+      </c>
+      <c r="D143" t="s">
+        <v>22</v>
+      </c>
+      <c r="G143" t="s">
+        <v>58</v>
+      </c>
+      <c r="I143" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B144" t="s">
+        <v>47</v>
+      </c>
+      <c r="C144" t="s">
+        <v>20</v>
+      </c>
+      <c r="D144" t="s">
+        <v>22</v>
+      </c>
+      <c r="G144" t="s">
+        <v>3</v>
+      </c>
+      <c r="I144" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B145" t="s">
+        <v>47</v>
+      </c>
+      <c r="C145" t="s">
+        <v>20</v>
+      </c>
+      <c r="D145" t="s">
+        <v>22</v>
+      </c>
+      <c r="E145" t="s">
+        <v>155</v>
+      </c>
+      <c r="G145" t="s">
+        <v>77</v>
+      </c>
+      <c r="I145" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B146" t="s">
+        <v>47</v>
+      </c>
+      <c r="C146" t="s">
+        <v>20</v>
+      </c>
+      <c r="D146" t="s">
+        <v>22</v>
+      </c>
+      <c r="E146" t="s">
+        <v>155</v>
+      </c>
+      <c r="G146" t="s">
+        <v>45</v>
+      </c>
+      <c r="I146" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B147" t="s">
+        <v>47</v>
+      </c>
+      <c r="C147" t="s">
+        <v>20</v>
+      </c>
+      <c r="D147" t="s">
+        <v>22</v>
+      </c>
+      <c r="E147" t="s">
+        <v>155</v>
+      </c>
+      <c r="G147" t="s">
+        <v>14</v>
+      </c>
+      <c r="I147" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B148" t="s">
+        <v>47</v>
+      </c>
+      <c r="C148" t="s">
+        <v>20</v>
+      </c>
+      <c r="D148" t="s">
+        <v>22</v>
+      </c>
+      <c r="E148" t="s">
+        <v>156</v>
+      </c>
+      <c r="G148" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B149" t="s">
+        <v>47</v>
+      </c>
+      <c r="C149" t="s">
+        <v>20</v>
+      </c>
+      <c r="D149" t="s">
+        <v>22</v>
+      </c>
+      <c r="E149" t="s">
+        <v>156</v>
+      </c>
+      <c r="G149" t="s">
+        <v>58</v>
+      </c>
+      <c r="I149" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B150" t="s">
+        <v>47</v>
+      </c>
+      <c r="C150" t="s">
+        <v>20</v>
+      </c>
+      <c r="D150" t="s">
+        <v>22</v>
+      </c>
+      <c r="E150" t="s">
+        <v>157</v>
+      </c>
+      <c r="G150" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B151" t="s">
+        <v>47</v>
+      </c>
+      <c r="C151" t="s">
+        <v>20</v>
+      </c>
+      <c r="D151" t="s">
+        <v>22</v>
+      </c>
+      <c r="E151" t="s">
+        <v>157</v>
+      </c>
+      <c r="G151" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B152" t="s">
+        <v>47</v>
+      </c>
+      <c r="C152" t="s">
+        <v>20</v>
+      </c>
+      <c r="D152" t="s">
+        <v>22</v>
+      </c>
+      <c r="E152" t="s">
+        <v>158</v>
+      </c>
+      <c r="G152" t="s">
+        <v>71</v>
+      </c>
+      <c r="I152" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B153" t="s">
+        <v>47</v>
+      </c>
+      <c r="C153" t="s">
+        <v>20</v>
+      </c>
+      <c r="D153" t="s">
+        <v>22</v>
+      </c>
+      <c r="E153" t="s">
+        <v>158</v>
+      </c>
+      <c r="G153" t="s">
+        <v>13</v>
+      </c>
+      <c r="I153" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B154" t="s">
+        <v>47</v>
+      </c>
+      <c r="C154" t="s">
+        <v>20</v>
+      </c>
+      <c r="D154" t="s">
+        <v>22</v>
+      </c>
+      <c r="E154" t="s">
+        <v>158</v>
+      </c>
+      <c r="G154" t="s">
+        <v>38</v>
+      </c>
+      <c r="I154" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B155" t="s">
+        <v>47</v>
+      </c>
+      <c r="C155" t="s">
+        <v>20</v>
+      </c>
+      <c r="D155" t="s">
+        <v>22</v>
+      </c>
+      <c r="E155" t="s">
+        <v>159</v>
+      </c>
+      <c r="G155" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B156" t="s">
+        <v>47</v>
+      </c>
+      <c r="C156" t="s">
+        <v>20</v>
+      </c>
+      <c r="D156" t="s">
+        <v>22</v>
+      </c>
+      <c r="E156" t="s">
+        <v>159</v>
+      </c>
+      <c r="G156" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B157" t="s">
+        <v>47</v>
+      </c>
+      <c r="C157" t="s">
+        <v>20</v>
+      </c>
+      <c r="D157" t="s">
+        <v>67</v>
+      </c>
+      <c r="G157" t="s">
+        <v>3</v>
+      </c>
+      <c r="I157" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B158" t="s">
+        <v>47</v>
+      </c>
+      <c r="C158" t="s">
+        <v>20</v>
+      </c>
+      <c r="D158" t="s">
+        <v>67</v>
+      </c>
+      <c r="E158" t="s">
+        <v>167</v>
+      </c>
+      <c r="G158" t="s">
+        <v>58</v>
+      </c>
+      <c r="I158" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B159" t="s">
+        <v>47</v>
+      </c>
+      <c r="C159" t="s">
+        <v>20</v>
+      </c>
+      <c r="D159" t="s">
+        <v>67</v>
+      </c>
+      <c r="E159" t="s">
+        <v>166</v>
+      </c>
+      <c r="G159" t="s">
+        <v>57</v>
+      </c>
+      <c r="I159" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B160" t="s">
+        <v>47</v>
+      </c>
+      <c r="C160" t="s">
+        <v>20</v>
+      </c>
+      <c r="D160" t="s">
+        <v>38</v>
+      </c>
+      <c r="G160" t="s">
+        <v>71</v>
+      </c>
+      <c r="I160" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B161" t="s">
+        <v>47</v>
+      </c>
+      <c r="C161" t="s">
+        <v>20</v>
+      </c>
+      <c r="D161" t="s">
+        <v>38</v>
+      </c>
+      <c r="G161" t="s">
+        <v>77</v>
+      </c>
+      <c r="I161" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B162" t="s">
+        <v>47</v>
+      </c>
+      <c r="C162" t="s">
+        <v>20</v>
+      </c>
+      <c r="D162" t="s">
+        <v>38</v>
+      </c>
+      <c r="G162" t="s">
+        <v>46</v>
+      </c>
+      <c r="I162" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B163" t="s">
+        <v>47</v>
+      </c>
+      <c r="C163" t="s">
+        <v>20</v>
+      </c>
+      <c r="D163" t="s">
+        <v>38</v>
+      </c>
+      <c r="E163" t="s">
+        <v>170</v>
+      </c>
+      <c r="G163" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B164" t="s">
+        <v>47</v>
+      </c>
+      <c r="C164" t="s">
+        <v>20</v>
+      </c>
+      <c r="D164" t="s">
+        <v>38</v>
+      </c>
+      <c r="E164" t="s">
+        <v>170</v>
+      </c>
+      <c r="G164" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B165" t="s">
+        <v>47</v>
+      </c>
+      <c r="C165" t="s">
+        <v>20</v>
+      </c>
+      <c r="D165" t="s">
+        <v>38</v>
+      </c>
+      <c r="E165" t="s">
+        <v>50</v>
+      </c>
+      <c r="G165" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B166" t="s">
+        <v>47</v>
+      </c>
+      <c r="C166" t="s">
+        <v>20</v>
+      </c>
+      <c r="D166" t="s">
+        <v>38</v>
+      </c>
+      <c r="E166" t="s">
+        <v>50</v>
+      </c>
+      <c r="G166" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B167" t="s">
+        <v>47</v>
+      </c>
+      <c r="C167" t="s">
+        <v>20</v>
+      </c>
+      <c r="D167" t="s">
+        <v>171</v>
+      </c>
+      <c r="G167" t="s">
+        <v>56</v>
+      </c>
+      <c r="I167" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B168" t="s">
+        <v>47</v>
+      </c>
+      <c r="C168" t="s">
+        <v>20</v>
+      </c>
+      <c r="D168" t="s">
+        <v>171</v>
+      </c>
+      <c r="G168" t="s">
+        <v>58</v>
+      </c>
+      <c r="I168" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B169" t="s">
+        <v>47</v>
+      </c>
+      <c r="C169" t="s">
+        <v>20</v>
+      </c>
+      <c r="D169" t="s">
+        <v>171</v>
+      </c>
+      <c r="G169" t="s">
+        <v>3</v>
+      </c>
+      <c r="I169" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B170" t="s">
+        <v>47</v>
+      </c>
+      <c r="C170" t="s">
+        <v>20</v>
+      </c>
+      <c r="D170" t="s">
+        <v>171</v>
+      </c>
+      <c r="E170" t="s">
+        <v>172</v>
+      </c>
+      <c r="G170" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B171" t="s">
+        <v>47</v>
+      </c>
+      <c r="C171" t="s">
+        <v>20</v>
+      </c>
+      <c r="D171" t="s">
+        <v>171</v>
+      </c>
+      <c r="E171" t="s">
+        <v>172</v>
+      </c>
+      <c r="G171" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B172" t="s">
+        <v>47</v>
+      </c>
+      <c r="C172" t="s">
+        <v>20</v>
+      </c>
+      <c r="D172" t="s">
+        <v>171</v>
+      </c>
+      <c r="E172" t="s">
+        <v>172</v>
+      </c>
+      <c r="G172" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B173" t="s">
+        <v>47</v>
+      </c>
+      <c r="C173" t="s">
+        <v>20</v>
+      </c>
+      <c r="D173" t="s">
+        <v>171</v>
+      </c>
+      <c r="E173" t="s">
+        <v>173</v>
+      </c>
+      <c r="G173" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B174" t="s">
+        <v>47</v>
+      </c>
+      <c r="C174" t="s">
+        <v>20</v>
+      </c>
+      <c r="D174" t="s">
+        <v>171</v>
+      </c>
+      <c r="E174" t="s">
+        <v>173</v>
+      </c>
+      <c r="G174" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B175" t="s">
+        <v>47</v>
+      </c>
+      <c r="C175" t="s">
+        <v>20</v>
+      </c>
+      <c r="D175" t="s">
+        <v>171</v>
+      </c>
+      <c r="E175" t="s">
+        <v>173</v>
+      </c>
+      <c r="G175" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B176" t="s">
+        <v>47</v>
+      </c>
+      <c r="C176" t="s">
+        <v>20</v>
+      </c>
+      <c r="D176" t="s">
+        <v>171</v>
+      </c>
+      <c r="E176" t="s">
+        <v>174</v>
+      </c>
+      <c r="G176" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B177" t="s">
+        <v>47</v>
+      </c>
+      <c r="C177" t="s">
+        <v>20</v>
+      </c>
+      <c r="D177" t="s">
+        <v>171</v>
+      </c>
+      <c r="E177" t="s">
+        <v>174</v>
+      </c>
+      <c r="G177" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B178" t="s">
+        <v>47</v>
+      </c>
+      <c r="C178" t="s">
+        <v>20</v>
+      </c>
+      <c r="D178" t="s">
+        <v>171</v>
+      </c>
+      <c r="E178" t="s">
+        <v>174</v>
+      </c>
+      <c r="G178" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B179" t="s">
+        <v>47</v>
+      </c>
+      <c r="C179" t="s">
+        <v>20</v>
+      </c>
+      <c r="D179" t="s">
+        <v>171</v>
+      </c>
+      <c r="E179" t="s">
+        <v>175</v>
+      </c>
+      <c r="G179" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B180" t="s">
+        <v>47</v>
+      </c>
+      <c r="C180" t="s">
+        <v>20</v>
+      </c>
+      <c r="D180" t="s">
+        <v>171</v>
+      </c>
+      <c r="E180" t="s">
+        <v>175</v>
+      </c>
+      <c r="G180" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B181" t="s">
+        <v>47</v>
+      </c>
+      <c r="C181" t="s">
+        <v>20</v>
+      </c>
+      <c r="D181" t="s">
+        <v>108</v>
+      </c>
+      <c r="E181" t="s">
+        <v>176</v>
+      </c>
+      <c r="G181" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B182" t="s">
+        <v>47</v>
+      </c>
+      <c r="C182" t="s">
+        <v>20</v>
+      </c>
+      <c r="D182" t="s">
+        <v>108</v>
+      </c>
+      <c r="E182" t="s">
+        <v>176</v>
+      </c>
+      <c r="G182" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B183" t="s">
+        <v>47</v>
+      </c>
+      <c r="C183" t="s">
+        <v>20</v>
+      </c>
+      <c r="D183" t="s">
+        <v>108</v>
+      </c>
+      <c r="E183" t="s">
+        <v>54</v>
+      </c>
+      <c r="G183" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B184" t="s">
+        <v>47</v>
+      </c>
+      <c r="C184" t="s">
+        <v>20</v>
+      </c>
+      <c r="D184" t="s">
+        <v>108</v>
+      </c>
+      <c r="E184" t="s">
+        <v>54</v>
+      </c>
+      <c r="G184" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B185" t="s">
+        <v>47</v>
+      </c>
+      <c r="C185" t="s">
+        <v>20</v>
+      </c>
+      <c r="D185" t="s">
+        <v>108</v>
+      </c>
+      <c r="E185" t="s">
+        <v>177</v>
+      </c>
+      <c r="G185" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B186" t="s">
+        <v>47</v>
+      </c>
+      <c r="C186" t="s">
+        <v>20</v>
+      </c>
+      <c r="D186" t="s">
+        <v>108</v>
+      </c>
+      <c r="E186" t="s">
+        <v>177</v>
+      </c>
+      <c r="G186" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B187" t="s">
+        <v>47</v>
+      </c>
+      <c r="C187" t="s">
+        <v>20</v>
+      </c>
+      <c r="D187" t="s">
+        <v>108</v>
+      </c>
+      <c r="E187" t="s">
+        <v>178</v>
+      </c>
+      <c r="G187" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B188" t="s">
+        <v>47</v>
+      </c>
+      <c r="C188" t="s">
+        <v>20</v>
+      </c>
+      <c r="D188" t="s">
+        <v>108</v>
+      </c>
+      <c r="E188" t="s">
+        <v>178</v>
+      </c>
+      <c r="G188" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B189" t="s">
+        <v>47</v>
+      </c>
+      <c r="C189" t="s">
+        <v>20</v>
+      </c>
+      <c r="D189" t="s">
+        <v>108</v>
+      </c>
+      <c r="E189" t="s">
+        <v>179</v>
+      </c>
+      <c r="G189" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B190" t="s">
+        <v>47</v>
+      </c>
+      <c r="C190" t="s">
+        <v>20</v>
+      </c>
+      <c r="D190" t="s">
+        <v>108</v>
+      </c>
+      <c r="E190" t="s">
+        <v>179</v>
+      </c>
+      <c r="G190" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B191" t="s">
+        <v>47</v>
+      </c>
+      <c r="C191" t="s">
+        <v>20</v>
+      </c>
+      <c r="D191" t="s">
+        <v>108</v>
+      </c>
+      <c r="E191" t="s">
+        <v>180</v>
+      </c>
+      <c r="G191" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B192" t="s">
+        <v>47</v>
+      </c>
+      <c r="C192" t="s">
+        <v>20</v>
+      </c>
+      <c r="D192" t="s">
+        <v>108</v>
+      </c>
+      <c r="E192" t="s">
+        <v>180</v>
+      </c>
+      <c r="G192" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A193" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B193" t="s">
+        <v>47</v>
+      </c>
+      <c r="C193" t="s">
+        <v>20</v>
+      </c>
+      <c r="D193" t="s">
+        <v>119</v>
+      </c>
+      <c r="G193" t="s">
+        <v>79</v>
+      </c>
+      <c r="I193" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A194" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B194" t="s">
+        <v>47</v>
+      </c>
+      <c r="C194" t="s">
+        <v>20</v>
+      </c>
+      <c r="D194" t="s">
+        <v>119</v>
+      </c>
+      <c r="G194" t="s">
+        <v>58</v>
+      </c>
+      <c r="I194" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A195" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B195" t="s">
+        <v>47</v>
+      </c>
+      <c r="C195" t="s">
+        <v>20</v>
+      </c>
+      <c r="D195" t="s">
+        <v>119</v>
+      </c>
+      <c r="G195" t="s">
+        <v>102</v>
+      </c>
+      <c r="I195" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A196" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B196" t="s">
+        <v>47</v>
+      </c>
+      <c r="C196" t="s">
+        <v>20</v>
+      </c>
+      <c r="D196" t="s">
+        <v>119</v>
+      </c>
+      <c r="G196" t="s">
+        <v>3</v>
+      </c>
+      <c r="I196" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A197" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B197" t="s">
+        <v>47</v>
+      </c>
+      <c r="C197" t="s">
+        <v>20</v>
+      </c>
+      <c r="D197" t="s">
+        <v>119</v>
+      </c>
+      <c r="E197" t="s">
+        <v>182</v>
+      </c>
+      <c r="G197" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A198" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B198" t="s">
+        <v>47</v>
+      </c>
+      <c r="C198" t="s">
+        <v>20</v>
+      </c>
+      <c r="D198" t="s">
+        <v>119</v>
+      </c>
+      <c r="E198" t="s">
+        <v>182</v>
+      </c>
+      <c r="G198" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A199" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B199" t="s">
+        <v>47</v>
+      </c>
+      <c r="C199" t="s">
+        <v>20</v>
+      </c>
+      <c r="D199" t="s">
+        <v>119</v>
+      </c>
+      <c r="E199" t="s">
+        <v>183</v>
+      </c>
+      <c r="G199" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A200" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B200" t="s">
+        <v>47</v>
+      </c>
+      <c r="C200" t="s">
+        <v>20</v>
+      </c>
+      <c r="D200" t="s">
+        <v>119</v>
+      </c>
+      <c r="E200" t="s">
+        <v>183</v>
+      </c>
+      <c r="G200" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A201" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B201" t="s">
+        <v>47</v>
+      </c>
+      <c r="C201" t="s">
+        <v>20</v>
+      </c>
+      <c r="D201" t="s">
+        <v>119</v>
+      </c>
+      <c r="E201" t="s">
+        <v>184</v>
+      </c>
+      <c r="G201" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A202" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B202" t="s">
+        <v>47</v>
+      </c>
+      <c r="C202" t="s">
+        <v>20</v>
+      </c>
+      <c r="D202" t="s">
+        <v>119</v>
+      </c>
+      <c r="E202" t="s">
+        <v>184</v>
+      </c>
+      <c r="G202" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A203" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B203" t="s">
+        <v>47</v>
+      </c>
+      <c r="C203" t="s">
+        <v>20</v>
+      </c>
+      <c r="D203" t="s">
+        <v>119</v>
+      </c>
+      <c r="E203" t="s">
+        <v>185</v>
+      </c>
+      <c r="G203" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A204" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B204" t="s">
+        <v>47</v>
+      </c>
+      <c r="C204" t="s">
+        <v>20</v>
+      </c>
+      <c r="D204" t="s">
+        <v>119</v>
+      </c>
+      <c r="E204" t="s">
+        <v>185</v>
+      </c>
+      <c r="G204" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A205" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B205" t="s">
+        <v>47</v>
+      </c>
+      <c r="C205" t="s">
+        <v>20</v>
+      </c>
+      <c r="D205" t="s">
+        <v>119</v>
+      </c>
+      <c r="E205" t="s">
+        <v>186</v>
+      </c>
+      <c r="G205" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A206" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B206" t="s">
+        <v>47</v>
+      </c>
+      <c r="C206" t="s">
+        <v>20</v>
+      </c>
+      <c r="D206" t="s">
+        <v>119</v>
+      </c>
+      <c r="E206" t="s">
+        <v>186</v>
+      </c>
+      <c r="G206" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A207" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B207" t="s">
+        <v>47</v>
+      </c>
+      <c r="C207" t="s">
+        <v>20</v>
+      </c>
+      <c r="D207" t="s">
+        <v>119</v>
+      </c>
+      <c r="E207" t="s">
+        <v>187</v>
+      </c>
+      <c r="G207" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A208" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B208" t="s">
+        <v>47</v>
+      </c>
+      <c r="C208" t="s">
+        <v>20</v>
+      </c>
+      <c r="D208" t="s">
+        <v>119</v>
+      </c>
+      <c r="E208" t="s">
+        <v>187</v>
+      </c>
+      <c r="G208" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A209" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B209" t="s">
+        <v>47</v>
+      </c>
+      <c r="C209" t="s">
+        <v>20</v>
+      </c>
+      <c r="D209" t="s">
+        <v>119</v>
+      </c>
+      <c r="E209" t="s">
+        <v>188</v>
+      </c>
+      <c r="G209" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A210" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B210" t="s">
+        <v>47</v>
+      </c>
+      <c r="C210" t="s">
+        <v>20</v>
+      </c>
+      <c r="D210" t="s">
+        <v>119</v>
+      </c>
+      <c r="E210" t="s">
+        <v>188</v>
+      </c>
+      <c r="G210" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A211" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B211" t="s">
+        <v>47</v>
+      </c>
+      <c r="C211" t="s">
+        <v>20</v>
+      </c>
+      <c r="D211" t="s">
+        <v>119</v>
+      </c>
+      <c r="E211" t="s">
+        <v>189</v>
+      </c>
+      <c r="G211" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A212" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B212" t="s">
+        <v>47</v>
+      </c>
+      <c r="C212" t="s">
+        <v>20</v>
+      </c>
+      <c r="D212" t="s">
+        <v>119</v>
+      </c>
+      <c r="E212" t="s">
+        <v>189</v>
+      </c>
+      <c r="G212" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A213" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B213" t="s">
+        <v>47</v>
+      </c>
+      <c r="C213" t="s">
+        <v>20</v>
+      </c>
+      <c r="D213" t="s">
+        <v>119</v>
+      </c>
+      <c r="E213" t="s">
+        <v>190</v>
+      </c>
+      <c r="G213" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A214" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B214" t="s">
+        <v>47</v>
+      </c>
+      <c r="C214" t="s">
+        <v>20</v>
+      </c>
+      <c r="D214" t="s">
+        <v>119</v>
+      </c>
+      <c r="E214" t="s">
+        <v>191</v>
+      </c>
+      <c r="G214" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A215" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B215" t="s">
+        <v>47</v>
+      </c>
+      <c r="C215" t="s">
+        <v>20</v>
+      </c>
+      <c r="D215" t="s">
+        <v>24</v>
+      </c>
+      <c r="G215" t="s">
+        <v>41</v>
+      </c>
+      <c r="I215" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A216" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B216" t="s">
+        <v>47</v>
+      </c>
+      <c r="C216" t="s">
+        <v>20</v>
+      </c>
+      <c r="D216" t="s">
+        <v>24</v>
+      </c>
+      <c r="E216" t="s">
+        <v>193</v>
+      </c>
+      <c r="G216" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A217" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B217" t="s">
+        <v>47</v>
+      </c>
+      <c r="C217" t="s">
+        <v>20</v>
+      </c>
+      <c r="D217" t="s">
+        <v>24</v>
+      </c>
+      <c r="E217" t="s">
+        <v>193</v>
+      </c>
+      <c r="G217" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A218" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B218" t="s">
+        <v>47</v>
+      </c>
+      <c r="C218" t="s">
+        <v>20</v>
+      </c>
+      <c r="D218" t="s">
+        <v>24</v>
+      </c>
+      <c r="G218" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A219" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B219" t="s">
+        <v>47</v>
+      </c>
+      <c r="C219" t="s">
+        <v>20</v>
+      </c>
+      <c r="D219" t="s">
+        <v>24</v>
+      </c>
+      <c r="G219" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A220" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B220" t="s">
+        <v>47</v>
+      </c>
+      <c r="C220" t="s">
+        <v>20</v>
+      </c>
+      <c r="D220" t="s">
+        <v>24</v>
+      </c>
+      <c r="G220" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A221" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B221" t="s">
+        <v>47</v>
+      </c>
+      <c r="C221" t="s">
+        <v>20</v>
+      </c>
+      <c r="D221" t="s">
+        <v>24</v>
+      </c>
+      <c r="E221" t="s">
+        <v>193</v>
+      </c>
+      <c r="G221" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A222" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B222" t="s">
+        <v>47</v>
+      </c>
+      <c r="C222" t="s">
+        <v>20</v>
+      </c>
+      <c r="D222" t="s">
+        <v>24</v>
+      </c>
+      <c r="E222" t="s">
+        <v>195</v>
+      </c>
+      <c r="G222" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A223" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B223" t="s">
+        <v>47</v>
+      </c>
+      <c r="C223" t="s">
+        <v>20</v>
+      </c>
+      <c r="D223" t="s">
+        <v>24</v>
+      </c>
+      <c r="E223" t="s">
+        <v>195</v>
+      </c>
+      <c r="G223" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A224" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B224" t="s">
+        <v>47</v>
+      </c>
+      <c r="C224" t="s">
+        <v>20</v>
+      </c>
+      <c r="D224" t="s">
+        <v>24</v>
+      </c>
+      <c r="E224" t="s">
+        <v>196</v>
+      </c>
+      <c r="G224" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A225" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B225" t="s">
+        <v>47</v>
+      </c>
+      <c r="C225" t="s">
+        <v>20</v>
+      </c>
+      <c r="D225" t="s">
+        <v>24</v>
+      </c>
+      <c r="E225" t="s">
+        <v>196</v>
+      </c>
+      <c r="G225" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A226" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B226" t="s">
+        <v>47</v>
+      </c>
+      <c r="C226" t="s">
+        <v>20</v>
+      </c>
+      <c r="D226" t="s">
+        <v>24</v>
+      </c>
+      <c r="E226" t="s">
+        <v>197</v>
+      </c>
+      <c r="G226" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A227" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B227" t="s">
+        <v>47</v>
+      </c>
+      <c r="C227" t="s">
+        <v>20</v>
+      </c>
+      <c r="D227" t="s">
+        <v>24</v>
+      </c>
+      <c r="E227" t="s">
+        <v>197</v>
+      </c>
+      <c r="G227" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A228" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B228" t="s">
+        <v>47</v>
+      </c>
+      <c r="C228" t="s">
+        <v>20</v>
+      </c>
+      <c r="D228" t="s">
+        <v>24</v>
+      </c>
+      <c r="E228" t="s">
+        <v>198</v>
+      </c>
+      <c r="G228" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A229" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B229" t="s">
+        <v>47</v>
+      </c>
+      <c r="C229" t="s">
+        <v>20</v>
+      </c>
+      <c r="D229" t="s">
+        <v>24</v>
+      </c>
+      <c r="E229" t="s">
+        <v>198</v>
+      </c>
+      <c r="G229" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A230" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B230" t="s">
+        <v>47</v>
+      </c>
+      <c r="C230" t="s">
+        <v>20</v>
+      </c>
+      <c r="D230" t="s">
+        <v>24</v>
+      </c>
+      <c r="E230" t="s">
+        <v>199</v>
+      </c>
+      <c r="G230" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A231" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B231" t="s">
+        <v>47</v>
+      </c>
+      <c r="C231" t="s">
+        <v>20</v>
+      </c>
+      <c r="D231" t="s">
+        <v>24</v>
+      </c>
+      <c r="E231" t="s">
+        <v>199</v>
+      </c>
+      <c r="G231" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A232" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B232" t="s">
+        <v>47</v>
+      </c>
+      <c r="C232" t="s">
+        <v>20</v>
+      </c>
+      <c r="D232" t="s">
+        <v>64</v>
+      </c>
+      <c r="G232" t="s">
+        <v>56</v>
+      </c>
+      <c r="I232" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A233" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B233" t="s">
+        <v>47</v>
+      </c>
+      <c r="C233" t="s">
+        <v>20</v>
+      </c>
+      <c r="D233" t="s">
+        <v>64</v>
+      </c>
+      <c r="G233" t="s">
+        <v>58</v>
+      </c>
+      <c r="I233" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A234" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B234" t="s">
+        <v>47</v>
+      </c>
+      <c r="C234" t="s">
+        <v>20</v>
+      </c>
+      <c r="D234" t="s">
+        <v>64</v>
+      </c>
+      <c r="G234" t="s">
+        <v>33</v>
+      </c>
+      <c r="I234" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A235" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B235" t="s">
+        <v>47</v>
+      </c>
+      <c r="C235" t="s">
+        <v>20</v>
+      </c>
+      <c r="D235" t="s">
+        <v>64</v>
+      </c>
+      <c r="G235" t="s">
+        <v>102</v>
+      </c>
+      <c r="I235" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A236" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B236" t="s">
+        <v>47</v>
+      </c>
+      <c r="C236" t="s">
+        <v>20</v>
+      </c>
+      <c r="D236" t="s">
+        <v>64</v>
+      </c>
+      <c r="E236" t="s">
+        <v>202</v>
+      </c>
+      <c r="G236" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A237" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B237" t="s">
+        <v>47</v>
+      </c>
+      <c r="C237" t="s">
+        <v>20</v>
+      </c>
+      <c r="D237" t="s">
+        <v>64</v>
+      </c>
+      <c r="E237" t="s">
+        <v>202</v>
+      </c>
+      <c r="G237" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A238" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B238" t="s">
+        <v>47</v>
+      </c>
+      <c r="C238" t="s">
+        <v>20</v>
+      </c>
+      <c r="D238" t="s">
+        <v>64</v>
+      </c>
+      <c r="E238" t="s">
+        <v>203</v>
+      </c>
+      <c r="G238" t="s">
+        <v>56</v>
+      </c>
+      <c r="I238" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A239" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B239" t="s">
+        <v>47</v>
+      </c>
+      <c r="C239" t="s">
+        <v>20</v>
+      </c>
+      <c r="D239" t="s">
+        <v>64</v>
+      </c>
+      <c r="E239" t="s">
+        <v>203</v>
+      </c>
+      <c r="G239" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A240" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B240" t="s">
+        <v>47</v>
+      </c>
+      <c r="C240" t="s">
+        <v>20</v>
+      </c>
+      <c r="D240" t="s">
+        <v>64</v>
+      </c>
+      <c r="E240" t="s">
+        <v>204</v>
+      </c>
+      <c r="G240" t="s">
+        <v>58</v>
+      </c>
+      <c r="I240" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A241" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B241" t="s">
+        <v>47</v>
+      </c>
+      <c r="C241" t="s">
+        <v>20</v>
+      </c>
+      <c r="D241" t="s">
+        <v>64</v>
+      </c>
+      <c r="E241" t="s">
+        <v>204</v>
+      </c>
+      <c r="G241" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A242" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B242" t="s">
+        <v>47</v>
+      </c>
+      <c r="C242" t="s">
+        <v>20</v>
+      </c>
+      <c r="D242" t="s">
+        <v>102</v>
+      </c>
+      <c r="G242" t="s">
+        <v>41</v>
+      </c>
+      <c r="I242" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A243" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B243" t="s">
+        <v>47</v>
+      </c>
+      <c r="C243" t="s">
+        <v>20</v>
+      </c>
+      <c r="D243" t="s">
+        <v>102</v>
+      </c>
+      <c r="G243" t="s">
+        <v>108</v>
+      </c>
+      <c r="I243" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A244" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B244" t="s">
+        <v>47</v>
+      </c>
+      <c r="C244" t="s">
+        <v>20</v>
+      </c>
+      <c r="D244" t="s">
+        <v>102</v>
+      </c>
+      <c r="G244" t="s">
+        <v>35</v>
+      </c>
+      <c r="I244" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A245" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B245" t="s">
+        <v>47</v>
+      </c>
+      <c r="C245" t="s">
+        <v>20</v>
+      </c>
+      <c r="D245" t="s">
+        <v>102</v>
+      </c>
+      <c r="G245" t="s">
+        <v>56</v>
+      </c>
+      <c r="I245" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A246" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B246" t="s">
+        <v>47</v>
+      </c>
+      <c r="C246" t="s">
+        <v>20</v>
+      </c>
+      <c r="D246" t="s">
+        <v>102</v>
+      </c>
+      <c r="E246" t="s">
+        <v>208</v>
+      </c>
+      <c r="G246" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A247" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B247" t="s">
+        <v>47</v>
+      </c>
+      <c r="C247" t="s">
+        <v>20</v>
+      </c>
+      <c r="D247" t="s">
+        <v>102</v>
+      </c>
+      <c r="E247" t="s">
+        <v>208</v>
+      </c>
+      <c r="G247" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A248" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B248" t="s">
+        <v>47</v>
+      </c>
+      <c r="C248" t="s">
+        <v>20</v>
+      </c>
+      <c r="D248" t="s">
+        <v>102</v>
+      </c>
+      <c r="E248" t="s">
+        <v>210</v>
+      </c>
+      <c r="G248" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A249" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B249" t="s">
+        <v>47</v>
+      </c>
+      <c r="C249" t="s">
+        <v>20</v>
+      </c>
+      <c r="D249" t="s">
+        <v>102</v>
+      </c>
+      <c r="E249" t="s">
+        <v>210</v>
+      </c>
+      <c r="G249" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A250" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B250" t="s">
+        <v>47</v>
+      </c>
+      <c r="C250" t="s">
+        <v>20</v>
+      </c>
+      <c r="D250" t="s">
+        <v>102</v>
+      </c>
+      <c r="E250" t="s">
+        <v>154</v>
+      </c>
+      <c r="G250" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A251" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B251" t="s">
+        <v>47</v>
+      </c>
+      <c r="C251" t="s">
+        <v>20</v>
+      </c>
+      <c r="D251" t="s">
+        <v>102</v>
+      </c>
+      <c r="E251" t="s">
+        <v>154</v>
+      </c>
+      <c r="G251" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A252" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B252" t="s">
+        <v>47</v>
+      </c>
+      <c r="C252" t="s">
+        <v>20</v>
+      </c>
+      <c r="D252" t="s">
+        <v>102</v>
+      </c>
+      <c r="E252" t="s">
+        <v>209</v>
+      </c>
+      <c r="G252" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A253" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B253" t="s">
+        <v>47</v>
+      </c>
+      <c r="C253" t="s">
+        <v>20</v>
+      </c>
+      <c r="D253" t="s">
+        <v>77</v>
+      </c>
+      <c r="G253" t="s">
+        <v>71</v>
+      </c>
+      <c r="I253" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A254" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B254" t="s">
+        <v>47</v>
+      </c>
+      <c r="C254" t="s">
+        <v>20</v>
+      </c>
+      <c r="D254" t="s">
+        <v>77</v>
+      </c>
+      <c r="G254" t="s">
+        <v>58</v>
+      </c>
+      <c r="I254" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A255" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B255" t="s">
+        <v>47</v>
+      </c>
+      <c r="C255" t="s">
+        <v>20</v>
+      </c>
+      <c r="D255" t="s">
+        <v>77</v>
+      </c>
+      <c r="G255" t="s">
+        <v>57</v>
+      </c>
+      <c r="I255" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A256" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B256" t="s">
+        <v>47</v>
+      </c>
+      <c r="C256" t="s">
+        <v>20</v>
+      </c>
+      <c r="D256" t="s">
+        <v>77</v>
+      </c>
+      <c r="E256" t="s">
+        <v>211</v>
+      </c>
+      <c r="G256" t="s">
+        <v>45</v>
+      </c>
+      <c r="I256" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A257" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B257" t="s">
+        <v>47</v>
+      </c>
+      <c r="C257" t="s">
+        <v>20</v>
+      </c>
+      <c r="D257" t="s">
+        <v>77</v>
+      </c>
+      <c r="E257" t="s">
+        <v>211</v>
+      </c>
+      <c r="G257" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A258" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B258" t="s">
+        <v>47</v>
+      </c>
+      <c r="C258" t="s">
+        <v>20</v>
+      </c>
+      <c r="D258" t="s">
+        <v>77</v>
+      </c>
+      <c r="E258" t="s">
+        <v>212</v>
+      </c>
+      <c r="G258" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A259" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B259" t="s">
+        <v>47</v>
+      </c>
+      <c r="C259" t="s">
+        <v>20</v>
+      </c>
+      <c r="D259" t="s">
+        <v>77</v>
+      </c>
+      <c r="E259" t="s">
+        <v>212</v>
+      </c>
+      <c r="G259" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A260" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B260" t="s">
+        <v>47</v>
+      </c>
+      <c r="C260" t="s">
+        <v>20</v>
+      </c>
+      <c r="D260" t="s">
+        <v>77</v>
+      </c>
+      <c r="E260" t="s">
+        <v>213</v>
+      </c>
+      <c r="G260" t="s">
+        <v>13</v>
+      </c>
+      <c r="I260" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A261" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B261" t="s">
+        <v>47</v>
+      </c>
+      <c r="C261" t="s">
+        <v>20</v>
+      </c>
+      <c r="D261" t="s">
+        <v>77</v>
+      </c>
+      <c r="E261" t="s">
+        <v>213</v>
+      </c>
+      <c r="G261" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A262" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B262" t="s">
+        <v>47</v>
+      </c>
+      <c r="C262" t="s">
+        <v>20</v>
+      </c>
+      <c r="D262" t="s">
+        <v>77</v>
+      </c>
+      <c r="E262" t="s">
+        <v>214</v>
+      </c>
+      <c r="G262" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A263" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B263" t="s">
+        <v>47</v>
+      </c>
+      <c r="C263" t="s">
+        <v>20</v>
+      </c>
+      <c r="D263" t="s">
+        <v>77</v>
+      </c>
+      <c r="E263" t="s">
+        <v>214</v>
+      </c>
+      <c r="G263" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A264" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B264" t="s">
+        <v>47</v>
+      </c>
+      <c r="C264" t="s">
+        <v>20</v>
+      </c>
+      <c r="D264" t="s">
+        <v>77</v>
+      </c>
+      <c r="E264" t="s">
+        <v>215</v>
+      </c>
+      <c r="G264" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A265" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B265" t="s">
+        <v>47</v>
+      </c>
+      <c r="C265" t="s">
+        <v>20</v>
+      </c>
+      <c r="D265" t="s">
+        <v>77</v>
+      </c>
+      <c r="E265" t="s">
+        <v>215</v>
+      </c>
+      <c r="G265" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A266" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B266" t="s">
+        <v>47</v>
+      </c>
+      <c r="C266" t="s">
+        <v>20</v>
+      </c>
+      <c r="D266" t="s">
+        <v>77</v>
+      </c>
+      <c r="E266" t="s">
+        <v>218</v>
+      </c>
+      <c r="G266" t="s">
+        <v>41</v>
+      </c>
+      <c r="I266" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A267" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B267" t="s">
+        <v>47</v>
+      </c>
+      <c r="C267" t="s">
+        <v>20</v>
+      </c>
+      <c r="D267" t="s">
+        <v>77</v>
+      </c>
+      <c r="G267" t="s">
+        <v>56</v>
+      </c>
+      <c r="I267" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A268" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B268" t="s">
+        <v>47</v>
+      </c>
+      <c r="C268" t="s">
+        <v>20</v>
+      </c>
+      <c r="D268" t="s">
+        <v>77</v>
+      </c>
+      <c r="G268" t="s">
+        <v>102</v>
+      </c>
+      <c r="I268" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A269" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B269" t="s">
+        <v>47</v>
+      </c>
+      <c r="C269" t="s">
+        <v>20</v>
+      </c>
+      <c r="D269" t="s">
+        <v>79</v>
+      </c>
+      <c r="G269" t="s">
+        <v>38</v>
+      </c>
+      <c r="I269" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A270" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B270" t="s">
+        <v>47</v>
+      </c>
+      <c r="C270" t="s">
+        <v>20</v>
+      </c>
+      <c r="D270" t="s">
+        <v>79</v>
+      </c>
+      <c r="G270" t="s">
+        <v>3</v>
+      </c>
+      <c r="I270" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A271" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B271" t="s">
+        <v>47</v>
+      </c>
+      <c r="C271" t="s">
+        <v>20</v>
+      </c>
+      <c r="D271" t="s">
+        <v>79</v>
+      </c>
+      <c r="G271" t="s">
+        <v>58</v>
+      </c>
+      <c r="I271" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A272" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B272" t="s">
+        <v>47</v>
+      </c>
+      <c r="C272" t="s">
+        <v>20</v>
+      </c>
+      <c r="D272" t="s">
+        <v>79</v>
+      </c>
+      <c r="E272" t="s">
+        <v>153</v>
+      </c>
+      <c r="G272" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A273" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B273" t="s">
+        <v>47</v>
+      </c>
+      <c r="C273" t="s">
+        <v>20</v>
+      </c>
+      <c r="D273" t="s">
+        <v>35</v>
+      </c>
+      <c r="E273" t="s">
+        <v>221</v>
+      </c>
+      <c r="G273" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A274" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B274" t="s">
+        <v>47</v>
+      </c>
+      <c r="C274" t="s">
+        <v>20</v>
+      </c>
+      <c r="D274" t="s">
+        <v>35</v>
+      </c>
+      <c r="E274" t="s">
+        <v>221</v>
+      </c>
+      <c r="G274" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A275" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B275" t="s">
+        <v>47</v>
+      </c>
+      <c r="C275" t="s">
+        <v>20</v>
+      </c>
+      <c r="D275" t="s">
+        <v>35</v>
+      </c>
+      <c r="E275" t="s">
+        <v>221</v>
+      </c>
+      <c r="G275" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A276" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B276" t="s">
+        <v>47</v>
+      </c>
+      <c r="C276" t="s">
+        <v>20</v>
+      </c>
+      <c r="D276" t="s">
+        <v>35</v>
+      </c>
+      <c r="E276" t="s">
+        <v>222</v>
+      </c>
+      <c r="G276" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A277" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B277" t="s">
+        <v>47</v>
+      </c>
+      <c r="C277" t="s">
+        <v>20</v>
+      </c>
+      <c r="D277" t="s">
+        <v>35</v>
+      </c>
+      <c r="E277" t="s">
+        <v>222</v>
+      </c>
+      <c r="G277" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A278" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B278" t="s">
+        <v>47</v>
+      </c>
+      <c r="C278" t="s">
+        <v>20</v>
+      </c>
+      <c r="D278" t="s">
+        <v>35</v>
+      </c>
+      <c r="E278" t="s">
+        <v>36</v>
+      </c>
+      <c r="G278" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A279" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B279" t="s">
+        <v>47</v>
+      </c>
+      <c r="C279" t="s">
+        <v>20</v>
+      </c>
+      <c r="D279" t="s">
+        <v>35</v>
+      </c>
+      <c r="E279" t="s">
+        <v>36</v>
+      </c>
+      <c r="G279" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A280" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B280" t="s">
+        <v>47</v>
+      </c>
+      <c r="C280" t="s">
+        <v>20</v>
+      </c>
+      <c r="D280" t="s">
+        <v>35</v>
+      </c>
+      <c r="E280" t="s">
+        <v>223</v>
+      </c>
+      <c r="G280" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A281" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B281" t="s">
+        <v>47</v>
+      </c>
+      <c r="C281" t="s">
+        <v>20</v>
+      </c>
+      <c r="D281" t="s">
+        <v>35</v>
+      </c>
+      <c r="E281" t="s">
+        <v>223</v>
+      </c>
+      <c r="G281" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A282" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B282" t="s">
+        <v>47</v>
+      </c>
+      <c r="C282" t="s">
+        <v>20</v>
+      </c>
+      <c r="D282" t="s">
+        <v>45</v>
+      </c>
+      <c r="G282" t="s">
+        <v>3</v>
+      </c>
+      <c r="I282" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A283" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B283" t="s">
+        <v>47</v>
+      </c>
+      <c r="C283" t="s">
+        <v>20</v>
+      </c>
+      <c r="D283" t="s">
+        <v>45</v>
+      </c>
+      <c r="G283" t="s">
+        <v>46</v>
+      </c>
+      <c r="I283" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A284" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B284" t="s">
+        <v>47</v>
+      </c>
+      <c r="C284" t="s">
+        <v>20</v>
+      </c>
+      <c r="D284" t="s">
+        <v>45</v>
+      </c>
+      <c r="G284" t="s">
+        <v>3</v>
+      </c>
+      <c r="I284" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A285" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B285" t="s">
+        <v>47</v>
+      </c>
+      <c r="C285" t="s">
+        <v>20</v>
+      </c>
+      <c r="D285" t="s">
+        <v>45</v>
+      </c>
+      <c r="G285" t="s">
+        <v>35</v>
+      </c>
+      <c r="I285" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A286" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B286" t="s">
+        <v>47</v>
+      </c>
+      <c r="C286" t="s">
+        <v>20</v>
+      </c>
+      <c r="D286" t="s">
+        <v>45</v>
+      </c>
+      <c r="E286" t="s">
+        <v>78</v>
+      </c>
+      <c r="G286" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A287" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B287" t="s">
+        <v>47</v>
+      </c>
+      <c r="C287" t="s">
+        <v>20</v>
+      </c>
+      <c r="D287" t="s">
+        <v>45</v>
+      </c>
+      <c r="E287" t="s">
+        <v>78</v>
+      </c>
+      <c r="G287" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A288" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B288" t="s">
+        <v>47</v>
+      </c>
+      <c r="C288" t="s">
+        <v>20</v>
+      </c>
+      <c r="D288" t="s">
+        <v>45</v>
+      </c>
+      <c r="E288" t="s">
+        <v>78</v>
+      </c>
+      <c r="G288" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A289" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B289" t="s">
+        <v>47</v>
+      </c>
+      <c r="C289" t="s">
+        <v>20</v>
+      </c>
+      <c r="D289" t="s">
+        <v>45</v>
+      </c>
+      <c r="E289" t="s">
+        <v>226</v>
+      </c>
+      <c r="G289" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A290" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B290" t="s">
+        <v>47</v>
+      </c>
+      <c r="C290" t="s">
+        <v>20</v>
+      </c>
+      <c r="D290" t="s">
+        <v>45</v>
+      </c>
+      <c r="E290" t="s">
+        <v>226</v>
+      </c>
+      <c r="G290" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A291" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B291" t="s">
+        <v>47</v>
+      </c>
+      <c r="C291" t="s">
+        <v>20</v>
+      </c>
+      <c r="D291" t="s">
+        <v>45</v>
+      </c>
+      <c r="E291" t="s">
+        <v>226</v>
+      </c>
+      <c r="G291" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A292" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B292" t="s">
+        <v>47</v>
+      </c>
+      <c r="C292" t="s">
+        <v>20</v>
+      </c>
+      <c r="D292" t="s">
+        <v>45</v>
+      </c>
+      <c r="E292" t="s">
+        <v>227</v>
+      </c>
+      <c r="G292" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A293" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B293" t="s">
+        <v>47</v>
+      </c>
+      <c r="C293" t="s">
+        <v>20</v>
+      </c>
+      <c r="D293" t="s">
+        <v>45</v>
+      </c>
+      <c r="E293" t="s">
+        <v>227</v>
+      </c>
+      <c r="G293" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A294" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B294" t="s">
+        <v>47</v>
+      </c>
+      <c r="C294" t="s">
+        <v>20</v>
+      </c>
+      <c r="D294" t="s">
+        <v>45</v>
+      </c>
+      <c r="E294" t="s">
+        <v>227</v>
+      </c>
+      <c r="G294" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A295" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B295" t="s">
+        <v>47</v>
+      </c>
+      <c r="C295" t="s">
+        <v>20</v>
+      </c>
+      <c r="D295" t="s">
+        <v>45</v>
+      </c>
+      <c r="E295" t="s">
+        <v>228</v>
+      </c>
+      <c r="G295" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A296" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B296" t="s">
+        <v>47</v>
+      </c>
+      <c r="C296" t="s">
+        <v>20</v>
+      </c>
+      <c r="D296" t="s">
+        <v>45</v>
+      </c>
+      <c r="E296" t="s">
+        <v>228</v>
+      </c>
+      <c r="G296" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A297" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B297" t="s">
+        <v>47</v>
+      </c>
+      <c r="C297" t="s">
+        <v>20</v>
+      </c>
+      <c r="D297" t="s">
+        <v>45</v>
+      </c>
+      <c r="E297" t="s">
+        <v>228</v>
+      </c>
+      <c r="G297" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A298" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B298" t="s">
+        <v>47</v>
+      </c>
+      <c r="C298" t="s">
+        <v>20</v>
+      </c>
+      <c r="D298" t="s">
+        <v>60</v>
+      </c>
+      <c r="E298" t="s">
+        <v>229</v>
+      </c>
+      <c r="G298" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A299" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B299" t="s">
+        <v>47</v>
+      </c>
+      <c r="C299" t="s">
+        <v>20</v>
+      </c>
+      <c r="D299" t="s">
+        <v>60</v>
+      </c>
+      <c r="E299" t="s">
+        <v>229</v>
+      </c>
+      <c r="G299" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A300" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B300" t="s">
+        <v>47</v>
+      </c>
+      <c r="C300" t="s">
+        <v>20</v>
+      </c>
+      <c r="D300" t="s">
+        <v>60</v>
+      </c>
+      <c r="E300" t="s">
+        <v>230</v>
+      </c>
+      <c r="G300" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A301" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B301" t="s">
+        <v>47</v>
+      </c>
+      <c r="C301" t="s">
+        <v>20</v>
+      </c>
+      <c r="D301" t="s">
+        <v>60</v>
+      </c>
+      <c r="E301" t="s">
+        <v>230</v>
+      </c>
+      <c r="G301" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A302" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B302" t="s">
+        <v>47</v>
+      </c>
+      <c r="C302" t="s">
+        <v>20</v>
+      </c>
+      <c r="D302" t="s">
+        <v>60</v>
+      </c>
+      <c r="E302" t="s">
+        <v>231</v>
+      </c>
+      <c r="G302" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A303" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B303" t="s">
+        <v>47</v>
+      </c>
+      <c r="C303" t="s">
+        <v>20</v>
+      </c>
+      <c r="D303" t="s">
+        <v>60</v>
+      </c>
+      <c r="E303" t="s">
+        <v>231</v>
+      </c>
+      <c r="G303" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A304" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B304" t="s">
+        <v>47</v>
+      </c>
+      <c r="C304" t="s">
+        <v>20</v>
+      </c>
+      <c r="D304" t="s">
+        <v>60</v>
+      </c>
+      <c r="E304" t="s">
+        <v>232</v>
+      </c>
+      <c r="G304" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A305" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B305" t="s">
+        <v>47</v>
+      </c>
+      <c r="C305" t="s">
+        <v>20</v>
+      </c>
+      <c r="D305" t="s">
+        <v>60</v>
+      </c>
+      <c r="E305" t="s">
+        <v>232</v>
+      </c>
+      <c r="G305" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A306" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B306" t="s">
+        <v>47</v>
+      </c>
+      <c r="C306" t="s">
+        <v>20</v>
+      </c>
+      <c r="D306" t="s">
+        <v>60</v>
+      </c>
+      <c r="E306" t="s">
+        <v>233</v>
+      </c>
+      <c r="G306" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A307" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B307" t="s">
+        <v>47</v>
+      </c>
+      <c r="C307" t="s">
+        <v>20</v>
+      </c>
+      <c r="D307" t="s">
+        <v>60</v>
+      </c>
+      <c r="E307" t="s">
+        <v>233</v>
+      </c>
+      <c r="G307" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A308" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B308" t="s">
+        <v>47</v>
+      </c>
+      <c r="C308" t="s">
+        <v>20</v>
+      </c>
+      <c r="D308" t="s">
+        <v>60</v>
+      </c>
+      <c r="E308" t="s">
+        <v>234</v>
+      </c>
+      <c r="G308" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A309" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B309" t="s">
+        <v>47</v>
+      </c>
+      <c r="C309" t="s">
+        <v>20</v>
+      </c>
+      <c r="D309" t="s">
+        <v>60</v>
+      </c>
+      <c r="E309" t="s">
+        <v>234</v>
+      </c>
+      <c r="G309" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A310" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B310" t="s">
+        <v>47</v>
+      </c>
+      <c r="C310" t="s">
+        <v>20</v>
+      </c>
+      <c r="D310" t="s">
+        <v>60</v>
+      </c>
+      <c r="E310" t="s">
+        <v>235</v>
+      </c>
+      <c r="G310" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A311" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B311" t="s">
+        <v>47</v>
+      </c>
+      <c r="C311" t="s">
+        <v>20</v>
+      </c>
+      <c r="D311" t="s">
+        <v>60</v>
+      </c>
+      <c r="E311" t="s">
+        <v>235</v>
+      </c>
+      <c r="G311" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A312" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B312" t="s">
+        <v>47</v>
+      </c>
+      <c r="C312" t="s">
+        <v>20</v>
+      </c>
+      <c r="D312" t="s">
+        <v>46</v>
+      </c>
+      <c r="G312" t="s">
+        <v>57</v>
+      </c>
+      <c r="I312" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A313" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B313" t="s">
+        <v>47</v>
+      </c>
+      <c r="C313" t="s">
+        <v>20</v>
+      </c>
+      <c r="D313" t="s">
+        <v>46</v>
+      </c>
+      <c r="G313" t="s">
+        <v>58</v>
+      </c>
+      <c r="I313" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A314" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B314" t="s">
+        <v>47</v>
+      </c>
+      <c r="C314" t="s">
+        <v>20</v>
+      </c>
+      <c r="D314" t="s">
+        <v>46</v>
+      </c>
+      <c r="G314" t="s">
+        <v>3</v>
+      </c>
+      <c r="I314" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A315" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B315" t="s">
+        <v>47</v>
+      </c>
+      <c r="C315" t="s">
+        <v>20</v>
+      </c>
+      <c r="D315" t="s">
+        <v>46</v>
+      </c>
+      <c r="E315" t="s">
+        <v>237</v>
+      </c>
+      <c r="G315" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A316" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B316" t="s">
+        <v>47</v>
+      </c>
+      <c r="C316" t="s">
+        <v>20</v>
+      </c>
+      <c r="D316" t="s">
+        <v>46</v>
+      </c>
+      <c r="E316" t="s">
+        <v>237</v>
+      </c>
+      <c r="G316" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A317" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B317" t="s">
+        <v>47</v>
+      </c>
+      <c r="C317" t="s">
+        <v>20</v>
+      </c>
+      <c r="D317" t="s">
+        <v>46</v>
+      </c>
+      <c r="E317" t="s">
+        <v>236</v>
+      </c>
+      <c r="G317" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A318" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B318" t="s">
+        <v>47</v>
+      </c>
+      <c r="C318" t="s">
+        <v>20</v>
+      </c>
+      <c r="D318" t="s">
+        <v>46</v>
+      </c>
+      <c r="E318" t="s">
+        <v>236</v>
+      </c>
+      <c r="G318" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A319" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B319" t="s">
+        <v>47</v>
+      </c>
+      <c r="C319" t="s">
+        <v>20</v>
+      </c>
+      <c r="D319" t="s">
+        <v>46</v>
+      </c>
+      <c r="E319" t="s">
+        <v>69</v>
+      </c>
+      <c r="G319" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A320" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B320" t="s">
+        <v>47</v>
+      </c>
+      <c r="C320" t="s">
+        <v>20</v>
+      </c>
+      <c r="D320" t="s">
+        <v>46</v>
+      </c>
+      <c r="E320" t="s">
+        <v>69</v>
+      </c>
+      <c r="G320" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A321" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B321" t="s">
+        <v>47</v>
+      </c>
+      <c r="C321" t="s">
+        <v>20</v>
+      </c>
+      <c r="D321" t="s">
+        <v>46</v>
+      </c>
+      <c r="E321" t="s">
+        <v>238</v>
+      </c>
+      <c r="G321" t="s">
+        <v>71</v>
+      </c>
+      <c r="I321" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A322" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B322" t="s">
+        <v>47</v>
+      </c>
+      <c r="C322" t="s">
+        <v>20</v>
+      </c>
+      <c r="D322" t="s">
+        <v>46</v>
+      </c>
+      <c r="G322" t="s">
+        <v>13</v>
+      </c>
+      <c r="I322" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A323" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B323" t="s">
+        <v>47</v>
+      </c>
+      <c r="C323" t="s">
+        <v>20</v>
+      </c>
+      <c r="D323" t="s">
+        <v>14</v>
+      </c>
+      <c r="E323" t="s">
+        <v>241</v>
+      </c>
+      <c r="G323" t="s">
+        <v>56</v>
+      </c>
+      <c r="I323" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A324" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B324" t="s">
+        <v>47</v>
+      </c>
+      <c r="C324" t="s">
+        <v>20</v>
+      </c>
+      <c r="D324" t="s">
+        <v>14</v>
+      </c>
+      <c r="G324" t="s">
+        <v>41</v>
+      </c>
+      <c r="I324" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A325" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B325" t="s">
+        <v>47</v>
+      </c>
+      <c r="C325" t="s">
+        <v>20</v>
+      </c>
+      <c r="D325" t="s">
+        <v>14</v>
+      </c>
+      <c r="G325" t="s">
+        <v>60</v>
+      </c>
+      <c r="I325" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A326" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B326" t="s">
+        <v>47</v>
+      </c>
+      <c r="C326" t="s">
+        <v>20</v>
+      </c>
+      <c r="D326" t="s">
+        <v>14</v>
+      </c>
+      <c r="E326" t="s">
+        <v>240</v>
+      </c>
+      <c r="G326" t="s">
+        <v>56</v>
+      </c>
+      <c r="I326" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A327" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B327" t="s">
+        <v>47</v>
+      </c>
+      <c r="C327" t="s">
+        <v>20</v>
+      </c>
+      <c r="D327" t="s">
+        <v>14</v>
+      </c>
+      <c r="E327" t="s">
+        <v>242</v>
+      </c>
+      <c r="G327" t="s">
+        <v>194</v>
+      </c>
+      <c r="I327" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A328" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B328" t="s">
+        <v>47</v>
+      </c>
+      <c r="C328" t="s">
+        <v>20</v>
+      </c>
+      <c r="D328" t="s">
+        <v>14</v>
+      </c>
+      <c r="E328" t="s">
+        <v>244</v>
+      </c>
+      <c r="G328" t="s">
+        <v>33</v>
+      </c>
+      <c r="I328" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A329" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B329" t="s">
+        <v>47</v>
+      </c>
+      <c r="C329" t="s">
+        <v>20</v>
+      </c>
+      <c r="D329" t="s">
+        <v>14</v>
+      </c>
+      <c r="E329" t="s">
+        <v>240</v>
+      </c>
+      <c r="G329" t="s">
+        <v>108</v>
+      </c>
+      <c r="I329" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A330" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B330" t="s">
+        <v>47</v>
+      </c>
+      <c r="C330" t="s">
+        <v>20</v>
+      </c>
+      <c r="D330" t="s">
+        <v>14</v>
+      </c>
+      <c r="E330" t="s">
+        <v>240</v>
+      </c>
+      <c r="G330" t="s">
+        <v>41</v>
+      </c>
+      <c r="I330" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A331" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B331" t="s">
+        <v>47</v>
+      </c>
+      <c r="C331" t="s">
+        <v>20</v>
+      </c>
+      <c r="D331" t="s">
+        <v>14</v>
+      </c>
+      <c r="E331" t="s">
+        <v>246</v>
+      </c>
+      <c r="G331" t="s">
+        <v>56</v>
+      </c>
+      <c r="I331" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A332" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B332" t="s">
+        <v>47</v>
+      </c>
+      <c r="C332" t="s">
+        <v>20</v>
+      </c>
+      <c r="D332" t="s">
+        <v>14</v>
+      </c>
+      <c r="E332" t="s">
+        <v>246</v>
+      </c>
+      <c r="G332" t="s">
+        <v>58</v>
+      </c>
+      <c r="I332" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A333" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B333" t="s">
+        <v>47</v>
+      </c>
+      <c r="C333" t="s">
+        <v>20</v>
+      </c>
+      <c r="D333" t="s">
+        <v>14</v>
+      </c>
+      <c r="E333" t="s">
+        <v>248</v>
+      </c>
+      <c r="G333" t="s">
+        <v>3</v>
+      </c>
+      <c r="I333" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A334" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B334" t="s">
+        <v>47</v>
+      </c>
+      <c r="C334" t="s">
+        <v>20</v>
+      </c>
+      <c r="D334" t="s">
+        <v>14</v>
+      </c>
+      <c r="E334" t="s">
+        <v>248</v>
+      </c>
+      <c r="G334" t="s">
+        <v>93</v>
+      </c>
+      <c r="I334" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A335" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B335" t="s">
+        <v>47</v>
+      </c>
+      <c r="C335" t="s">
+        <v>20</v>
+      </c>
+      <c r="D335" t="s">
+        <v>14</v>
+      </c>
+      <c r="E335" t="s">
+        <v>251</v>
+      </c>
+      <c r="G335" t="s">
+        <v>56</v>
+      </c>
+      <c r="I335" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A336" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B336" t="s">
+        <v>47</v>
+      </c>
+      <c r="C336" t="s">
+        <v>20</v>
+      </c>
+      <c r="D336" t="s">
+        <v>14</v>
+      </c>
+      <c r="E336" t="s">
+        <v>246</v>
+      </c>
+      <c r="G336" t="s">
+        <v>33</v>
+      </c>
+      <c r="I336" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A337" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B337" t="s">
+        <v>47</v>
+      </c>
+      <c r="C337" t="s">
+        <v>20</v>
+      </c>
+      <c r="D337" t="s">
+        <v>120</v>
+      </c>
+      <c r="E337" t="s">
+        <v>254</v>
+      </c>
+      <c r="G337" t="s">
+        <v>77</v>
+      </c>
+      <c r="I337" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A338" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B338" t="s">
+        <v>47</v>
+      </c>
+      <c r="C338" t="s">
+        <v>20</v>
+      </c>
+      <c r="D338" t="s">
+        <v>120</v>
+      </c>
+      <c r="E338" t="s">
+        <v>256</v>
+      </c>
+      <c r="G338" t="s">
+        <v>24</v>
+      </c>
+      <c r="I338" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A339" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B339" t="s">
+        <v>47</v>
+      </c>
+      <c r="C339" t="s">
+        <v>20</v>
+      </c>
+      <c r="D339" t="s">
+        <v>120</v>
+      </c>
+      <c r="E339" t="s">
+        <v>258</v>
+      </c>
+      <c r="G339" t="s">
+        <v>56</v>
+      </c>
+      <c r="I339" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A340" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B340" t="s">
+        <v>47</v>
+      </c>
+      <c r="C340" t="s">
+        <v>20</v>
+      </c>
+      <c r="D340" t="s">
+        <v>120</v>
+      </c>
+      <c r="E340" t="s">
+        <v>260</v>
+      </c>
+      <c r="G340" t="s">
+        <v>79</v>
+      </c>
+      <c r="I340" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A341" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B341" t="s">
+        <v>47</v>
+      </c>
+      <c r="C341" t="s">
+        <v>20</v>
+      </c>
+      <c r="D341" t="s">
+        <v>120</v>
+      </c>
+      <c r="E341" t="s">
+        <v>254</v>
+      </c>
+      <c r="G341" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A342" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B342" t="s">
+        <v>47</v>
+      </c>
+      <c r="C342" t="s">
+        <v>20</v>
+      </c>
+      <c r="D342" t="s">
+        <v>120</v>
+      </c>
+      <c r="E342" t="s">
+        <v>262</v>
+      </c>
+      <c r="G342" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A343" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B343" t="s">
+        <v>47</v>
+      </c>
+      <c r="C343" t="s">
+        <v>20</v>
+      </c>
+      <c r="D343" t="s">
+        <v>120</v>
+      </c>
+      <c r="E343" t="s">
+        <v>262</v>
+      </c>
+      <c r="G343" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A344" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B344" t="s">
+        <v>47</v>
+      </c>
+      <c r="C344" t="s">
+        <v>20</v>
+      </c>
+      <c r="D344" t="s">
+        <v>120</v>
+      </c>
+      <c r="E344" t="s">
+        <v>260</v>
+      </c>
+      <c r="G344" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A345" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B345" t="s">
+        <v>47</v>
+      </c>
+      <c r="C345" t="s">
+        <v>20</v>
+      </c>
+      <c r="D345" t="s">
+        <v>120</v>
+      </c>
+      <c r="E345" t="s">
+        <v>263</v>
+      </c>
+      <c r="G345" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A346" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B346" t="s">
+        <v>47</v>
+      </c>
+      <c r="C346" t="s">
+        <v>20</v>
+      </c>
+      <c r="D346" t="s">
+        <v>120</v>
+      </c>
+      <c r="E346" t="s">
+        <v>263</v>
+      </c>
+      <c r="G346" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A347" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B347" t="s">
+        <v>47</v>
+      </c>
+      <c r="C347" t="s">
+        <v>20</v>
+      </c>
+      <c r="D347" t="s">
+        <v>120</v>
+      </c>
+      <c r="E347" t="s">
+        <v>258</v>
+      </c>
+      <c r="G347" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A348" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B348" t="s">
+        <v>47</v>
+      </c>
+      <c r="C348" t="s">
+        <v>20</v>
+      </c>
+      <c r="D348" t="s">
+        <v>120</v>
+      </c>
+      <c r="E348" t="s">
+        <v>258</v>
+      </c>
+      <c r="G348" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A349" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B349" t="s">
+        <v>47</v>
+      </c>
+      <c r="C349" t="s">
+        <v>20</v>
+      </c>
+      <c r="D349" t="s">
+        <v>41</v>
+      </c>
+      <c r="E349" t="s">
+        <v>80</v>
+      </c>
+      <c r="G349" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A350" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B350" t="s">
+        <v>47</v>
+      </c>
+      <c r="C350" t="s">
+        <v>20</v>
+      </c>
+      <c r="D350" t="s">
+        <v>41</v>
+      </c>
+      <c r="E350" t="s">
+        <v>42</v>
+      </c>
+      <c r="G350" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A351" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B351" t="s">
+        <v>47</v>
+      </c>
+      <c r="C351" t="s">
+        <v>20</v>
+      </c>
+      <c r="D351" t="s">
+        <v>41</v>
+      </c>
+      <c r="E351" t="s">
+        <v>264</v>
+      </c>
+      <c r="G351" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A352" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B352" t="s">
+        <v>47</v>
+      </c>
+      <c r="C352" t="s">
+        <v>20</v>
+      </c>
+      <c r="D352" t="s">
+        <v>41</v>
+      </c>
+      <c r="E352" t="s">
+        <v>265</v>
+      </c>
+      <c r="G352" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A353" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B353" t="s">
+        <v>47</v>
+      </c>
+      <c r="C353" t="s">
+        <v>20</v>
+      </c>
+      <c r="D353" t="s">
+        <v>44</v>
+      </c>
+      <c r="G353" t="s">
+        <v>41</v>
+      </c>
+      <c r="I353" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A354" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B354" t="s">
+        <v>47</v>
+      </c>
+      <c r="C354" t="s">
+        <v>20</v>
+      </c>
+      <c r="D354" t="s">
+        <v>44</v>
+      </c>
+      <c r="G354" t="s">
+        <v>56</v>
+      </c>
+      <c r="I354" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A355" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B355" t="s">
+        <v>47</v>
+      </c>
+      <c r="C355" t="s">
+        <v>20</v>
+      </c>
+      <c r="D355" t="s">
+        <v>44</v>
+      </c>
+      <c r="G355" t="s">
+        <v>58</v>
+      </c>
+      <c r="I355" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A356" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B356" t="s">
+        <v>47</v>
+      </c>
+      <c r="C356" t="s">
+        <v>20</v>
+      </c>
+      <c r="D356" t="s">
+        <v>44</v>
+      </c>
+      <c r="G356" t="s">
+        <v>3</v>
+      </c>
+      <c r="I356" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A357" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B357" t="s">
+        <v>47</v>
+      </c>
+      <c r="C357" t="s">
+        <v>20</v>
+      </c>
+      <c r="D357" t="s">
+        <v>44</v>
+      </c>
+      <c r="E357" t="s">
+        <v>269</v>
+      </c>
+      <c r="G357" t="s">
+        <v>13</v>
+      </c>
+      <c r="I357" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A358" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B358" t="s">
+        <v>47</v>
+      </c>
+      <c r="C358" t="s">
+        <v>20</v>
+      </c>
+      <c r="D358" t="s">
+        <v>44</v>
+      </c>
+      <c r="E358" t="s">
+        <v>269</v>
+      </c>
+      <c r="G358" t="s">
+        <v>29</v>
+      </c>
+      <c r="I358" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A359" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B359" t="s">
+        <v>47</v>
+      </c>
+      <c r="C359" t="s">
+        <v>20</v>
+      </c>
+      <c r="D359" t="s">
+        <v>44</v>
+      </c>
+      <c r="E359" t="s">
+        <v>270</v>
+      </c>
+      <c r="G359" t="s">
+        <v>38</v>
+      </c>
+      <c r="I359" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A360" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B360" t="s">
+        <v>47</v>
+      </c>
+      <c r="C360" t="s">
+        <v>20</v>
+      </c>
+      <c r="D360" t="s">
+        <v>44</v>
+      </c>
+      <c r="E360" t="s">
+        <v>270</v>
+      </c>
+      <c r="G360" t="s">
+        <v>56</v>
+      </c>
+      <c r="I360" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A361" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B361" t="s">
+        <v>47</v>
+      </c>
+      <c r="C361" t="s">
+        <v>20</v>
+      </c>
+      <c r="D361" t="s">
+        <v>44</v>
+      </c>
+      <c r="E361" t="s">
+        <v>271</v>
+      </c>
+      <c r="G361" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A362" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B362" t="s">
+        <v>47</v>
+      </c>
+      <c r="C362" t="s">
+        <v>20</v>
+      </c>
+      <c r="D362" t="s">
+        <v>44</v>
+      </c>
+      <c r="E362" t="s">
+        <v>271</v>
+      </c>
+      <c r="G362" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A363" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B363" t="s">
+        <v>47</v>
+      </c>
+      <c r="C363" t="s">
+        <v>20</v>
+      </c>
+      <c r="D363" t="s">
+        <v>44</v>
+      </c>
+      <c r="E363" t="s">
+        <v>272</v>
+      </c>
+      <c r="G363" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A364" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B364" t="s">
+        <v>47</v>
+      </c>
+      <c r="C364" t="s">
+        <v>20</v>
+      </c>
+      <c r="D364" t="s">
+        <v>44</v>
+      </c>
+      <c r="E364" t="s">
+        <v>272</v>
+      </c>
+      <c r="G364" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A365" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B365" t="s">
+        <v>47</v>
+      </c>
+      <c r="C365" t="s">
+        <v>20</v>
+      </c>
+      <c r="D365" t="s">
+        <v>44</v>
+      </c>
+      <c r="E365" t="s">
+        <v>273</v>
+      </c>
+      <c r="G365" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A366" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B366" t="s">
+        <v>47</v>
+      </c>
+      <c r="C366" t="s">
+        <v>20</v>
+      </c>
+      <c r="D366" t="s">
+        <v>44</v>
+      </c>
+      <c r="E366" t="s">
+        <v>273</v>
+      </c>
+      <c r="G366" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A367" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B367" t="s">
+        <v>47</v>
+      </c>
+      <c r="C367" t="s">
+        <v>20</v>
+      </c>
+      <c r="D367" t="s">
+        <v>44</v>
+      </c>
+      <c r="E367" t="s">
+        <v>274</v>
+      </c>
+      <c r="G367" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A368" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B368" t="s">
+        <v>47</v>
+      </c>
+      <c r="C368" t="s">
+        <v>20</v>
+      </c>
+      <c r="D368" t="s">
+        <v>44</v>
+      </c>
+      <c r="E368" t="s">
+        <v>274</v>
+      </c>
+      <c r="G368" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A369" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B369" t="s">
+        <v>47</v>
+      </c>
+      <c r="C369" t="s">
+        <v>20</v>
+      </c>
+      <c r="D369" t="s">
+        <v>65</v>
+      </c>
+      <c r="G369" t="s">
+        <v>3</v>
+      </c>
+      <c r="I369" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A370" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B370" t="s">
+        <v>47</v>
+      </c>
+      <c r="C370" t="s">
+        <v>20</v>
+      </c>
+      <c r="D370" t="s">
+        <v>65</v>
+      </c>
+      <c r="G370" t="s">
+        <v>79</v>
+      </c>
+      <c r="I370" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A371" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B371" t="s">
+        <v>47</v>
+      </c>
+      <c r="C371" t="s">
+        <v>20</v>
+      </c>
+      <c r="D371" t="s">
+        <v>65</v>
+      </c>
+      <c r="G371" t="s">
+        <v>35</v>
+      </c>
+      <c r="I371" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A372" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B372" t="s">
+        <v>47</v>
+      </c>
+      <c r="C372" t="s">
+        <v>20</v>
+      </c>
+      <c r="D372" t="s">
+        <v>65</v>
+      </c>
+      <c r="E372" t="s">
+        <v>278</v>
+      </c>
+      <c r="G372" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A373" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B373" t="s">
+        <v>47</v>
+      </c>
+      <c r="C373" t="s">
+        <v>20</v>
+      </c>
+      <c r="D373" t="s">
+        <v>65</v>
+      </c>
+      <c r="E373" t="s">
+        <v>279</v>
+      </c>
+      <c r="G373" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A374" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B374" t="s">
+        <v>47</v>
+      </c>
+      <c r="C374" t="s">
+        <v>20</v>
+      </c>
+      <c r="D374" t="s">
+        <v>65</v>
+      </c>
+      <c r="E374" t="s">
+        <v>280</v>
+      </c>
+      <c r="G374" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/proposed_trades.xlsx
+++ b/docs/proposed_trades.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\mlbchat\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54B0C81-2255-4019-9AC8-02BF58313F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBAF7DC-D0E9-4AC4-932B-8F9C1DDA7249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="525" windowWidth="26535" windowHeight="14985" xr2:uid="{F042A249-47C6-4134-B927-1CE0688B40C2}"/>
+    <workbookView xWindow="750" yWindow="1620" windowWidth="26535" windowHeight="13890" activeTab="1" xr2:uid="{F042A249-47C6-4134-B927-1CE0688B40C2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="V1" sheetId="1" r:id="rId1"/>
+    <sheet name="V2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1932" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2461" uniqueCount="386">
   <si>
     <t>Player</t>
   </si>
@@ -877,6 +878,321 @@
   </si>
   <si>
     <t>Mauricio Dubon</t>
+  </si>
+  <si>
+    <t>Josh Bell</t>
+  </si>
+  <si>
+    <t>Brooks Lee, Austin Martin</t>
+  </si>
+  <si>
+    <t>Cole Young, Tyler Locklear</t>
+  </si>
+  <si>
+    <t>Mick Abel, Orion Kerkering</t>
+  </si>
+  <si>
+    <t>Hurston Waldrep, AJ Smith-Shawver</t>
+  </si>
+  <si>
+    <t>Paul Dejong</t>
+  </si>
+  <si>
+    <t>Nick Nastrini, Nick Frasso</t>
+  </si>
+  <si>
+    <t>Paul Dejong, Trevor Williams</t>
+  </si>
+  <si>
+    <t>Spencer Arrighetti, Bryan King</t>
+  </si>
+  <si>
+    <t>Reynaldo Lopez, Hurston Waldrep</t>
+  </si>
+  <si>
+    <t>Jesse Chavez, AJ Smith-Shawver</t>
+  </si>
+  <si>
+    <t>Bryce Elder, Hurston Waldrep</t>
+  </si>
+  <si>
+    <t>Justin Steele</t>
+  </si>
+  <si>
+    <t>Reynaldo Lopez, Dylan Dodd</t>
+  </si>
+  <si>
+    <t>Logan Gilbert</t>
+  </si>
+  <si>
+    <t>Pierce Johnson, AJ Smith-Shawver</t>
+  </si>
+  <si>
+    <t>Sandy Alcantara</t>
+  </si>
+  <si>
+    <t>Everson Pereira, Will Warren, Clayton Beeter</t>
+  </si>
+  <si>
+    <t>Emerson Hancock, Dominic Canzone</t>
+  </si>
+  <si>
+    <t>Jesus Sanchez</t>
+  </si>
+  <si>
+    <t>Jackson Merrill, Ryan Bergert</t>
+  </si>
+  <si>
+    <t>Edward Cabrera, Jesus Sanchez</t>
+  </si>
+  <si>
+    <t>Jordan Wicks</t>
+  </si>
+  <si>
+    <t>AJ Smith-Shawver</t>
+  </si>
+  <si>
+    <t>Sandy Alcantara, Jesus Sanchez</t>
+  </si>
+  <si>
+    <t>Edumndo Sosa, Mick Abel, Orion Kerkering</t>
+  </si>
+  <si>
+    <t>Brandon Marsh, Johan Rojas, Cal Stevenson</t>
+  </si>
+  <si>
+    <t>Garrett Stubbs, Edmundo Sosa, Max Lazar</t>
+  </si>
+  <si>
+    <t>Colin Holderman, Isiah Kiner-Falefa</t>
+  </si>
+  <si>
+    <t>Edmundo Sosa, Orion Kerkering</t>
+  </si>
+  <si>
+    <t>Athletics</t>
+  </si>
+  <si>
+    <t>Brent Rooker</t>
+  </si>
+  <si>
+    <t>Brandon Marsh, Max Lazar</t>
+  </si>
+  <si>
+    <t>Garrett Stubbs, Johan Rojas</t>
+  </si>
+  <si>
+    <t>Aaron Civale</t>
+  </si>
+  <si>
+    <t>Brett Baty, Sean Manaes</t>
+  </si>
+  <si>
+    <t>Fernando Tatis</t>
+  </si>
+  <si>
+    <t>Mark Vientos, Jesse Winker</t>
+  </si>
+  <si>
+    <t>Jesse Winker</t>
+  </si>
+  <si>
+    <t>Josh Rojas</t>
+  </si>
+  <si>
+    <t>William Contreras</t>
+  </si>
+  <si>
+    <t>Freddy Peralta</t>
+  </si>
+  <si>
+    <t>Sean Manaes</t>
+  </si>
+  <si>
+    <t>Garrett Mitchell</t>
+  </si>
+  <si>
+    <t>Logan O'Hoppe</t>
+  </si>
+  <si>
+    <t>Kevin Alcantera, Ben Brown</t>
+  </si>
+  <si>
+    <t>Framber Valdez</t>
+  </si>
+  <si>
+    <t>Ian Happ, Carson Kelly, Matt Shaw</t>
+  </si>
+  <si>
+    <t>Owen Caissie, Jameson Taillon</t>
+  </si>
+  <si>
+    <t>Bobby Miller</t>
+  </si>
+  <si>
+    <t>Kevin Alcantera, Ben Brown, Carson Kelly</t>
+  </si>
+  <si>
+    <t>Miles Mikolas</t>
+  </si>
+  <si>
+    <t>Pete Fairbanks</t>
+  </si>
+  <si>
+    <t>Steven Matz</t>
+  </si>
+  <si>
+    <t>Christopher Morel</t>
+  </si>
+  <si>
+    <t>Phil Maton</t>
+  </si>
+  <si>
+    <t>Matthew Liberatore, Phil Maton</t>
+  </si>
+  <si>
+    <t>Miles Mikolas, Gordon Graceffo</t>
+  </si>
+  <si>
+    <t>Michael King</t>
+  </si>
+  <si>
+    <t>Miles Mikolas, Matthew Liberatore, Thomas Saggese</t>
+  </si>
+  <si>
+    <t>Phil Maton, Zach Thompson</t>
+  </si>
+  <si>
+    <t>Emmanuel Clase</t>
+  </si>
+  <si>
+    <t>Emilio Pagan</t>
+  </si>
+  <si>
+    <t>Wade Miley</t>
+  </si>
+  <si>
+    <t>Dominic Canzone</t>
+  </si>
+  <si>
+    <t>Stuart Fairchild</t>
+  </si>
+  <si>
+    <t>Gavin Sheets</t>
+  </si>
+  <si>
+    <t>Wilyer Abreu</t>
+  </si>
+  <si>
+    <t>Will Brennan</t>
+  </si>
+  <si>
+    <t>David Bednar, Colin Holderman</t>
+  </si>
+  <si>
+    <t>AJ Smith-Shawver, Hurston Waldrep</t>
+  </si>
+  <si>
+    <t>Austin Martin, Brooks Lee</t>
+  </si>
+  <si>
+    <t>Hunter Brown, Jacob Melton</t>
+  </si>
+  <si>
+    <t>Jackson Merrill, Randy Vasquez</t>
+  </si>
+  <si>
+    <t>Brandon Woodruff</t>
+  </si>
+  <si>
+    <t>Eric Haase</t>
+  </si>
+  <si>
+    <t>Jake Bauers</t>
+  </si>
+  <si>
+    <t>Mike Yastrzemski, Tyler Rogers</t>
+  </si>
+  <si>
+    <t>Jeimer Candelario, Kyle Finnegan</t>
+  </si>
+  <si>
+    <t>Tyler Rogers</t>
+  </si>
+  <si>
+    <t>Grant Anderson</t>
+  </si>
+  <si>
+    <t>Trevor Larnach, Griffin Jax</t>
+  </si>
+  <si>
+    <t>Taylor Saucedo</t>
+  </si>
+  <si>
+    <t>Matt Festa</t>
+  </si>
+  <si>
+    <t>Nick Nastrini, Michael Grove, Andy Pages</t>
+  </si>
+  <si>
+    <t>Jack Dreyer, Justin Wrobleski</t>
+  </si>
+  <si>
+    <t>Paul Sewald</t>
+  </si>
+  <si>
+    <t>Nick Little, Zach Penrod</t>
+  </si>
+  <si>
+    <t>Bobby Miller, Nick Nastrini, Landon Knack</t>
+  </si>
+  <si>
+    <t>Michael Grove, Nick Frasso, Any Pages</t>
+  </si>
+  <si>
+    <t>Gavin Stone, Jack Dreyer</t>
+  </si>
+  <si>
+    <t>Jake Cronenworth, Brandon Lockridge</t>
+  </si>
+  <si>
+    <t>Giancarlo Stanton</t>
+  </si>
+  <si>
+    <t>Aroldis Chapman</t>
+  </si>
+  <si>
+    <t>Jackson Jobe, Reese Olson</t>
+  </si>
+  <si>
+    <t>Antonio Senzatela</t>
+  </si>
+  <si>
+    <t>Pete Crow-Armstrong, Ben Brown</t>
+  </si>
+  <si>
+    <t>Cade Horton, Kevin Alcantara</t>
+  </si>
+  <si>
+    <t>Joe Ryan, Bailey Ober</t>
+  </si>
+  <si>
+    <t>Casey Scmhitt</t>
+  </si>
+  <si>
+    <t>James McCann</t>
+  </si>
+  <si>
+    <t>Connor Wong</t>
+  </si>
+  <si>
+    <t>Robert Gasser</t>
+  </si>
+  <si>
+    <t>Tyler Locklear</t>
+  </si>
+  <si>
+    <t>Drake Baldwin</t>
   </si>
 </sst>
 </file>
@@ -1246,9 +1562,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE40E7F-D733-4BF4-9C71-3154C0A12103}">
   <dimension ref="A1:K374"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A365" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9108,4 +9424,2054 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D22690-A56F-4AD2-9D2F-AA137369CE8C}">
+  <dimension ref="A1:K88"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A89" sqref="A89"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>45852</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>281</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>45852</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>45852</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>45852</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>45852</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>286</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>45852</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>290</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>291</v>
+      </c>
+      <c r="G9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>292</v>
+      </c>
+      <c r="G10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>294</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>296</v>
+      </c>
+      <c r="G12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" t="s">
+        <v>297</v>
+      </c>
+      <c r="G13" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" t="s">
+        <v>300</v>
+      </c>
+      <c r="G15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" t="s">
+        <v>302</v>
+      </c>
+      <c r="G16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I16" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" t="s">
+        <v>305</v>
+      </c>
+      <c r="G17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>306</v>
+      </c>
+      <c r="G18" t="s">
+        <v>58</v>
+      </c>
+      <c r="I18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>307</v>
+      </c>
+      <c r="G19" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>308</v>
+      </c>
+      <c r="G20" t="s">
+        <v>58</v>
+      </c>
+      <c r="I20" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>310</v>
+      </c>
+      <c r="G21" t="s">
+        <v>311</v>
+      </c>
+      <c r="I21" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>313</v>
+      </c>
+      <c r="G22" t="s">
+        <v>56</v>
+      </c>
+      <c r="I22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s">
+        <v>314</v>
+      </c>
+      <c r="G23" t="s">
+        <v>35</v>
+      </c>
+      <c r="I23" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" t="s">
+        <v>316</v>
+      </c>
+      <c r="G24" t="s">
+        <v>38</v>
+      </c>
+      <c r="I24" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" t="s">
+        <v>318</v>
+      </c>
+      <c r="G25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" t="s">
+        <v>316</v>
+      </c>
+      <c r="G26" t="s">
+        <v>35</v>
+      </c>
+      <c r="I26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" t="s">
+        <v>319</v>
+      </c>
+      <c r="G27" t="s">
+        <v>35</v>
+      </c>
+      <c r="I27" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" t="s">
+        <v>316</v>
+      </c>
+      <c r="G28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" t="s">
+        <v>318</v>
+      </c>
+      <c r="G29" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" t="s">
+        <v>323</v>
+      </c>
+      <c r="G30" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" t="s">
+        <v>316</v>
+      </c>
+      <c r="G31" t="s">
+        <v>120</v>
+      </c>
+      <c r="I31" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" t="s">
+        <v>319</v>
+      </c>
+      <c r="G32" t="s">
+        <v>120</v>
+      </c>
+      <c r="I32" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" t="s">
+        <v>91</v>
+      </c>
+      <c r="G33" t="s">
+        <v>120</v>
+      </c>
+      <c r="I33" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" t="s">
+        <v>326</v>
+      </c>
+      <c r="G34" t="s">
+        <v>65</v>
+      </c>
+      <c r="I34" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" t="s">
+        <v>328</v>
+      </c>
+      <c r="G35" t="s">
+        <v>29</v>
+      </c>
+      <c r="I35" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" t="s">
+        <v>329</v>
+      </c>
+      <c r="G36" t="s">
+        <v>65</v>
+      </c>
+      <c r="I36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" t="s">
+        <v>329</v>
+      </c>
+      <c r="G37" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" t="s">
+        <v>331</v>
+      </c>
+      <c r="G38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" t="s">
+        <v>332</v>
+      </c>
+      <c r="G39" t="s">
+        <v>77</v>
+      </c>
+      <c r="I39" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" t="s">
+        <v>334</v>
+      </c>
+      <c r="G40" t="s">
+        <v>57</v>
+      </c>
+      <c r="I40" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" t="s">
+        <v>336</v>
+      </c>
+      <c r="G41" t="s">
+        <v>77</v>
+      </c>
+      <c r="I41" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" t="s">
+        <v>337</v>
+      </c>
+      <c r="G42" t="s">
+        <v>38</v>
+      </c>
+      <c r="I42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43" t="s">
+        <v>338</v>
+      </c>
+      <c r="G43" t="s">
+        <v>38</v>
+      </c>
+      <c r="I43" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" t="s">
+        <v>340</v>
+      </c>
+      <c r="G44" t="s">
+        <v>79</v>
+      </c>
+      <c r="I44" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" t="s">
+        <v>341</v>
+      </c>
+      <c r="G45" t="s">
+        <v>79</v>
+      </c>
+      <c r="I45" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" t="s">
+        <v>93</v>
+      </c>
+      <c r="E46" t="s">
+        <v>343</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="I46" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" t="s">
+        <v>93</v>
+      </c>
+      <c r="E47" t="s">
+        <v>344</v>
+      </c>
+      <c r="G47" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" t="s">
+        <v>93</v>
+      </c>
+      <c r="E48" t="s">
+        <v>229</v>
+      </c>
+      <c r="G48" t="s">
+        <v>31</v>
+      </c>
+      <c r="I48" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" t="s">
+        <v>93</v>
+      </c>
+      <c r="E49" t="s">
+        <v>229</v>
+      </c>
+      <c r="G49" t="s">
+        <v>22</v>
+      </c>
+      <c r="I49" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B50" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" t="s">
+        <v>93</v>
+      </c>
+      <c r="E50" t="s">
+        <v>344</v>
+      </c>
+      <c r="G50" t="s">
+        <v>38</v>
+      </c>
+      <c r="I50" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" t="s">
+        <v>93</v>
+      </c>
+      <c r="E51" t="s">
+        <v>343</v>
+      </c>
+      <c r="G51" t="s">
+        <v>119</v>
+      </c>
+      <c r="I51" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B52" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" t="s">
+        <v>93</v>
+      </c>
+      <c r="E52" t="s">
+        <v>344</v>
+      </c>
+      <c r="G52" t="s">
+        <v>79</v>
+      </c>
+      <c r="I52" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B53" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" t="s">
+        <v>58</v>
+      </c>
+      <c r="E53" t="s">
+        <v>350</v>
+      </c>
+      <c r="G53" t="s">
+        <v>22</v>
+      </c>
+      <c r="I53" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B54" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" t="s">
+        <v>58</v>
+      </c>
+      <c r="E54" t="s">
+        <v>132</v>
+      </c>
+      <c r="G54" t="s">
+        <v>31</v>
+      </c>
+      <c r="I54" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B55" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" t="s">
+        <v>58</v>
+      </c>
+      <c r="E55" t="s">
+        <v>149</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="I55" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B56" t="s">
+        <v>47</v>
+      </c>
+      <c r="C56" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" t="s">
+        <v>58</v>
+      </c>
+      <c r="E56" t="s">
+        <v>51</v>
+      </c>
+      <c r="G56" t="s">
+        <v>65</v>
+      </c>
+      <c r="I56" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B57" t="s">
+        <v>47</v>
+      </c>
+      <c r="C57" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" t="s">
+        <v>58</v>
+      </c>
+      <c r="E57" t="s">
+        <v>132</v>
+      </c>
+      <c r="G57" t="s">
+        <v>38</v>
+      </c>
+      <c r="I57" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B58" t="s">
+        <v>47</v>
+      </c>
+      <c r="C58" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" t="s">
+        <v>29</v>
+      </c>
+      <c r="E58" t="s">
+        <v>355</v>
+      </c>
+      <c r="G58" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B59" t="s">
+        <v>47</v>
+      </c>
+      <c r="C59" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" t="s">
+        <v>29</v>
+      </c>
+      <c r="E59" t="s">
+        <v>356</v>
+      </c>
+      <c r="G59" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B60" t="s">
+        <v>47</v>
+      </c>
+      <c r="C60" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" t="s">
+        <v>29</v>
+      </c>
+      <c r="E60" t="s">
+        <v>357</v>
+      </c>
+      <c r="G60" t="s">
+        <v>3</v>
+      </c>
+      <c r="I60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B61" t="s">
+        <v>47</v>
+      </c>
+      <c r="C61" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" t="s">
+        <v>29</v>
+      </c>
+      <c r="E61" t="s">
+        <v>355</v>
+      </c>
+      <c r="G61" t="s">
+        <v>38</v>
+      </c>
+      <c r="I61" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B62" t="s">
+        <v>47</v>
+      </c>
+      <c r="C62" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" t="s">
+        <v>29</v>
+      </c>
+      <c r="E62" t="s">
+        <v>356</v>
+      </c>
+      <c r="G62" t="s">
+        <v>57</v>
+      </c>
+      <c r="I62" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B63" t="s">
+        <v>47</v>
+      </c>
+      <c r="C63" t="s">
+        <v>20</v>
+      </c>
+      <c r="D63" t="s">
+        <v>29</v>
+      </c>
+      <c r="E63" t="s">
+        <v>357</v>
+      </c>
+      <c r="G63" t="s">
+        <v>31</v>
+      </c>
+      <c r="I63" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B64" t="s">
+        <v>47</v>
+      </c>
+      <c r="C64" t="s">
+        <v>20</v>
+      </c>
+      <c r="D64" t="s">
+        <v>67</v>
+      </c>
+      <c r="E64" t="s">
+        <v>358</v>
+      </c>
+      <c r="G64" t="s">
+        <v>3</v>
+      </c>
+      <c r="I64" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B65" t="s">
+        <v>47</v>
+      </c>
+      <c r="C65" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65" t="s">
+        <v>67</v>
+      </c>
+      <c r="E65" t="s">
+        <v>360</v>
+      </c>
+      <c r="G65" t="s">
+        <v>29</v>
+      </c>
+      <c r="I65" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B66" t="s">
+        <v>47</v>
+      </c>
+      <c r="C66" t="s">
+        <v>20</v>
+      </c>
+      <c r="D66" t="s">
+        <v>67</v>
+      </c>
+      <c r="E66" t="s">
+        <v>358</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="I66" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B67" t="s">
+        <v>47</v>
+      </c>
+      <c r="C67" t="s">
+        <v>20</v>
+      </c>
+      <c r="D67" t="s">
+        <v>67</v>
+      </c>
+      <c r="E67" t="s">
+        <v>360</v>
+      </c>
+      <c r="G67" t="s">
+        <v>14</v>
+      </c>
+      <c r="I67" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B68" t="s">
+        <v>47</v>
+      </c>
+      <c r="C68" t="s">
+        <v>20</v>
+      </c>
+      <c r="D68" t="s">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>360</v>
+      </c>
+      <c r="G68" t="s">
+        <v>79</v>
+      </c>
+      <c r="I68" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B69" t="s">
+        <v>47</v>
+      </c>
+      <c r="C69" t="s">
+        <v>20</v>
+      </c>
+      <c r="D69" t="s">
+        <v>22</v>
+      </c>
+      <c r="E69" t="s">
+        <v>365</v>
+      </c>
+      <c r="G69" t="s">
+        <v>79</v>
+      </c>
+      <c r="I69" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B70" t="s">
+        <v>47</v>
+      </c>
+      <c r="C70" t="s">
+        <v>20</v>
+      </c>
+      <c r="D70" t="s">
+        <v>22</v>
+      </c>
+      <c r="E70" t="s">
+        <v>366</v>
+      </c>
+      <c r="G70" t="s">
+        <v>14</v>
+      </c>
+      <c r="I70" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B71" t="s">
+        <v>47</v>
+      </c>
+      <c r="C71" t="s">
+        <v>20</v>
+      </c>
+      <c r="D71" t="s">
+        <v>22</v>
+      </c>
+      <c r="E71" t="s">
+        <v>368</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="I71" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B72" t="s">
+        <v>47</v>
+      </c>
+      <c r="C72" t="s">
+        <v>20</v>
+      </c>
+      <c r="D72" t="s">
+        <v>22</v>
+      </c>
+      <c r="E72" t="s">
+        <v>369</v>
+      </c>
+      <c r="G72" t="s">
+        <v>65</v>
+      </c>
+      <c r="I72" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B73" t="s">
+        <v>47</v>
+      </c>
+      <c r="C73" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" t="s">
+        <v>22</v>
+      </c>
+      <c r="E73" t="s">
+        <v>370</v>
+      </c>
+      <c r="G73" t="s">
+        <v>58</v>
+      </c>
+      <c r="I73" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B74" t="s">
+        <v>47</v>
+      </c>
+      <c r="C74" t="s">
+        <v>20</v>
+      </c>
+      <c r="D74" t="s">
+        <v>22</v>
+      </c>
+      <c r="E74" t="s">
+        <v>371</v>
+      </c>
+      <c r="G74" t="s">
+        <v>108</v>
+      </c>
+      <c r="I74" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B75" t="s">
+        <v>47</v>
+      </c>
+      <c r="C75" t="s">
+        <v>20</v>
+      </c>
+      <c r="D75" t="s">
+        <v>38</v>
+      </c>
+      <c r="E75" t="s">
+        <v>372</v>
+      </c>
+      <c r="G75" t="s">
+        <v>64</v>
+      </c>
+      <c r="I75" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B76" t="s">
+        <v>47</v>
+      </c>
+      <c r="C76" t="s">
+        <v>20</v>
+      </c>
+      <c r="D76" t="s">
+        <v>38</v>
+      </c>
+      <c r="E76" t="s">
+        <v>347</v>
+      </c>
+      <c r="G76" t="s">
+        <v>119</v>
+      </c>
+      <c r="I76" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B77" t="s">
+        <v>47</v>
+      </c>
+      <c r="C77" t="s">
+        <v>20</v>
+      </c>
+      <c r="D77" t="s">
+        <v>108</v>
+      </c>
+      <c r="E77" t="s">
+        <v>179</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B78" t="s">
+        <v>47</v>
+      </c>
+      <c r="C78" t="s">
+        <v>20</v>
+      </c>
+      <c r="D78" t="s">
+        <v>108</v>
+      </c>
+      <c r="E78" t="s">
+        <v>178</v>
+      </c>
+      <c r="G78" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B79" t="s">
+        <v>47</v>
+      </c>
+      <c r="C79" t="s">
+        <v>20</v>
+      </c>
+      <c r="D79" t="s">
+        <v>108</v>
+      </c>
+      <c r="E79" t="s">
+        <v>376</v>
+      </c>
+      <c r="G79" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B80" t="s">
+        <v>47</v>
+      </c>
+      <c r="C80" t="s">
+        <v>20</v>
+      </c>
+      <c r="D80" t="s">
+        <v>108</v>
+      </c>
+      <c r="E80" t="s">
+        <v>179</v>
+      </c>
+      <c r="G80" t="s">
+        <v>57</v>
+      </c>
+      <c r="I80" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B81" t="s">
+        <v>47</v>
+      </c>
+      <c r="C81" t="s">
+        <v>20</v>
+      </c>
+      <c r="D81" t="s">
+        <v>108</v>
+      </c>
+      <c r="E81" t="s">
+        <v>178</v>
+      </c>
+      <c r="G81" t="s">
+        <v>57</v>
+      </c>
+      <c r="I81" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B82" t="s">
+        <v>47</v>
+      </c>
+      <c r="C82" t="s">
+        <v>20</v>
+      </c>
+      <c r="D82" t="s">
+        <v>108</v>
+      </c>
+      <c r="E82" t="s">
+        <v>376</v>
+      </c>
+      <c r="G82" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B83" t="s">
+        <v>47</v>
+      </c>
+      <c r="C83" t="s">
+        <v>20</v>
+      </c>
+      <c r="D83" t="s">
+        <v>171</v>
+      </c>
+      <c r="E83" t="s">
+        <v>172</v>
+      </c>
+      <c r="G83" t="s">
+        <v>45</v>
+      </c>
+      <c r="I83" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B84" t="s">
+        <v>47</v>
+      </c>
+      <c r="C84" t="s">
+        <v>20</v>
+      </c>
+      <c r="D84" t="s">
+        <v>171</v>
+      </c>
+      <c r="E84" t="s">
+        <v>173</v>
+      </c>
+      <c r="G84" t="s">
+        <v>67</v>
+      </c>
+      <c r="I84" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B85" t="s">
+        <v>47</v>
+      </c>
+      <c r="C85" t="s">
+        <v>20</v>
+      </c>
+      <c r="D85" t="s">
+        <v>171</v>
+      </c>
+      <c r="E85" t="s">
+        <v>381</v>
+      </c>
+      <c r="G85" t="s">
+        <v>119</v>
+      </c>
+      <c r="I85" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B86" t="s">
+        <v>47</v>
+      </c>
+      <c r="C86" t="s">
+        <v>20</v>
+      </c>
+      <c r="D86" t="s">
+        <v>171</v>
+      </c>
+      <c r="E86" t="s">
+        <v>172</v>
+      </c>
+      <c r="G86" t="s">
+        <v>29</v>
+      </c>
+      <c r="I86" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B87" t="s">
+        <v>47</v>
+      </c>
+      <c r="C87" t="s">
+        <v>20</v>
+      </c>
+      <c r="D87" t="s">
+        <v>171</v>
+      </c>
+      <c r="E87" t="s">
+        <v>173</v>
+      </c>
+      <c r="G87" t="s">
+        <v>14</v>
+      </c>
+      <c r="I87" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B88" t="s">
+        <v>47</v>
+      </c>
+      <c r="C88" t="s">
+        <v>20</v>
+      </c>
+      <c r="D88" t="s">
+        <v>171</v>
+      </c>
+      <c r="E88" t="s">
+        <v>381</v>
+      </c>
+      <c r="G88" t="s">
+        <v>31</v>
+      </c>
+      <c r="I88" t="s">
+        <v>385</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/proposed_trades.xlsx
+++ b/docs/proposed_trades.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\mlbchat\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\mcp\mlbchat\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBAF7DC-D0E9-4AC4-932B-8F9C1DDA7249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9F6327-E5AB-429A-A630-90AE57FE2EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="1620" windowWidth="26535" windowHeight="13890" activeTab="1" xr2:uid="{F042A249-47C6-4134-B927-1CE0688B40C2}"/>
+    <workbookView xWindow="86" yWindow="1020" windowWidth="32614" windowHeight="15969" activeTab="1" xr2:uid="{F042A249-47C6-4134-B927-1CE0688B40C2}"/>
   </bookViews>
   <sheets>
     <sheet name="V1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2461" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2988" uniqueCount="463">
   <si>
     <t>Player</t>
   </si>
@@ -1193,6 +1193,237 @@
   </si>
   <si>
     <t>Drake Baldwin</t>
+  </si>
+  <si>
+    <t>Garrett Whitlock, Kutter Crwford, Marcelo Mayer</t>
+  </si>
+  <si>
+    <t>Brian Reynolds</t>
+  </si>
+  <si>
+    <t>Garret Whitlock, Jarren Duran</t>
+  </si>
+  <si>
+    <t>Triston Casas, Kutter Crawford</t>
+  </si>
+  <si>
+    <t>Josh Winckowski, Wilyer Abreu</t>
+  </si>
+  <si>
+    <t>Jorge Mateo</t>
+  </si>
+  <si>
+    <t>Louis Varland</t>
+  </si>
+  <si>
+    <t>Mason Montgomery</t>
+  </si>
+  <si>
+    <t>Ramon Ureas</t>
+  </si>
+  <si>
+    <t>Albert Suarez</t>
+  </si>
+  <si>
+    <t>Ben Brown</t>
+  </si>
+  <si>
+    <t>Ryan Bergert</t>
+  </si>
+  <si>
+    <t>Sawyer Gipson-Long</t>
+  </si>
+  <si>
+    <t>Oswald Peraza, Luke Weaver, Everson Pereira</t>
+  </si>
+  <si>
+    <t>Otto Lopez, Cal Quantrill, Andrew Nardi</t>
+  </si>
+  <si>
+    <t>Brice Turang, DL Hall, Grant Anderson</t>
+  </si>
+  <si>
+    <t>Oswald Peraza, Everson Pereira, Clayton Beeter</t>
+  </si>
+  <si>
+    <t>Dylan Cease, Jake Cronenworth</t>
+  </si>
+  <si>
+    <t>Oswald Peraza, Luke Weaver, Will Warren</t>
+  </si>
+  <si>
+    <t>Michael King, Luis Campusano</t>
+  </si>
+  <si>
+    <t>Alejandro Kirk</t>
+  </si>
+  <si>
+    <t>JP Sears</t>
+  </si>
+  <si>
+    <t>Steven Kwan</t>
+  </si>
+  <si>
+    <t>Ken Waldichuk</t>
+  </si>
+  <si>
+    <t>Jeff Hoffman</t>
+  </si>
+  <si>
+    <t>Yariel Rodriguez</t>
+  </si>
+  <si>
+    <t>Jonathan Aranda</t>
+  </si>
+  <si>
+    <t>Luis Ureas</t>
+  </si>
+  <si>
+    <t>Matt Wallner</t>
+  </si>
+  <si>
+    <t>Trevor Stephan</t>
+  </si>
+  <si>
+    <t>Jakob Junis</t>
+  </si>
+  <si>
+    <t>Jarred Kelenic</t>
+  </si>
+  <si>
+    <t>Ben Lively</t>
+  </si>
+  <si>
+    <t>Pete Crow-Armstrong</t>
+  </si>
+  <si>
+    <t>Jake Meyers</t>
+  </si>
+  <si>
+    <t>Evan Carter, Jack Leiter</t>
+  </si>
+  <si>
+    <t>Andrew Benintendi</t>
+  </si>
+  <si>
+    <t>Michael A. Taylor</t>
+  </si>
+  <si>
+    <t>Ryan Bergert, Jackson Merrill</t>
+  </si>
+  <si>
+    <t>Danny Coulombe</t>
+  </si>
+  <si>
+    <t>Miguel Amaya</t>
+  </si>
+  <si>
+    <t>Chris Paddack</t>
+  </si>
+  <si>
+    <t>Jake Rogers</t>
+  </si>
+  <si>
+    <t>Seth Lugo, Michael Wacha</t>
+  </si>
+  <si>
+    <t>Andy Pages</t>
+  </si>
+  <si>
+    <t>Tyler Anderson</t>
+  </si>
+  <si>
+    <t>Austin Martin</t>
+  </si>
+  <si>
+    <t>Hunter Strickland</t>
+  </si>
+  <si>
+    <t>Devin Sweet</t>
+  </si>
+  <si>
+    <t>AJ Smith-Shawver, Dylan Dodd</t>
+  </si>
+  <si>
+    <t>Justyn-Henry Malloy, Swayer Gipson-Long</t>
+  </si>
+  <si>
+    <t>Tyler Mattison, Will Vest</t>
+  </si>
+  <si>
+    <t>Tim Herrin, Cade Smith</t>
+  </si>
+  <si>
+    <t>Will Brennan, Daniel Schneemann</t>
+  </si>
+  <si>
+    <t>Matt Vierling, Justyn-Henry Malloy</t>
+  </si>
+  <si>
+    <t>Teoscar Hernandez</t>
+  </si>
+  <si>
+    <t>Zach McKinstry</t>
+  </si>
+  <si>
+    <t>Kyle Hendricks</t>
+  </si>
+  <si>
+    <t>Justyn-Henry Malloy</t>
+  </si>
+  <si>
+    <t>Ezequiel Duran, Caleb Boushley</t>
+  </si>
+  <si>
+    <t>Josh Smith, Jacob Latz</t>
+  </si>
+  <si>
+    <t>Luis Severino</t>
+  </si>
+  <si>
+    <t>Dane Dunning, Justin Foscue</t>
+  </si>
+  <si>
+    <t>Luis Urias</t>
+  </si>
+  <si>
+    <t>Ezequiel Duran, Caleb Boushley, Justin Foscue</t>
+  </si>
+  <si>
+    <t>Dane Dunning, Josh Smith</t>
+  </si>
+  <si>
+    <t>Josiah Gray</t>
+  </si>
+  <si>
+    <t>Jacob Latz</t>
+  </si>
+  <si>
+    <t>Chas McCormick</t>
+  </si>
+  <si>
+    <t>Matt Brash, Dylan Moore</t>
+  </si>
+  <si>
+    <t>Andres Munoz</t>
+  </si>
+  <si>
+    <t>Nico Hoerner</t>
+  </si>
+  <si>
+    <t>Jack Leiter</t>
+  </si>
+  <si>
+    <t>Cade Horton</t>
+  </si>
+  <si>
+    <t>Marco Raya</t>
+  </si>
+  <si>
+    <t>Robert Gasser, Jacob Misiorowski</t>
+  </si>
+  <si>
+    <t>Richard Fitts</t>
   </si>
 </sst>
 </file>
@@ -1264,9 +1495,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1304,7 +1535,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1410,7 +1641,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1552,7 +1783,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1567,21 +1798,21 @@
       <selection pane="bottomLeft" activeCell="A31" sqref="A31:C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.15234375" customWidth="1"/>
+    <col min="2" max="2" width="27.3046875" customWidth="1"/>
+    <col min="3" max="3" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.53515625" customWidth="1"/>
     <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.69140625" customWidth="1"/>
+    <col min="7" max="7" width="20.84375" customWidth="1"/>
+    <col min="8" max="8" width="9.84375" customWidth="1"/>
     <col min="9" max="9" width="40" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -1616,7 +1847,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>45848</v>
       </c>
@@ -1637,7 +1868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>45848</v>
       </c>
@@ -1658,7 +1889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>45848</v>
       </c>
@@ -1679,7 +1910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>45848</v>
       </c>
@@ -1700,7 +1931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>45848</v>
       </c>
@@ -1727,7 +1958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>45848</v>
       </c>
@@ -1754,7 +1985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>45848</v>
       </c>
@@ -1781,7 +2012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>45848</v>
       </c>
@@ -1802,7 +2033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>45848</v>
       </c>
@@ -1823,7 +2054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>45848</v>
       </c>
@@ -1847,7 +2078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>45848</v>
       </c>
@@ -1871,7 +2102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>45848</v>
       </c>
@@ -1895,7 +2126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>45848</v>
       </c>
@@ -1922,7 +2153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>45848</v>
       </c>
@@ -1949,7 +2180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>45848</v>
       </c>
@@ -1976,7 +2207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>45848</v>
       </c>
@@ -2003,7 +2234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>45848</v>
       </c>
@@ -2024,7 +2255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>45848</v>
       </c>
@@ -2045,7 +2276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>45848</v>
       </c>
@@ -2066,7 +2297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>45848</v>
       </c>
@@ -2087,7 +2318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>45848</v>
       </c>
@@ -2108,7 +2339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>45848</v>
       </c>
@@ -2129,7 +2360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>45848</v>
       </c>
@@ -2156,7 +2387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>45848</v>
       </c>
@@ -2180,7 +2411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>45848</v>
       </c>
@@ -2204,7 +2435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>45848</v>
       </c>
@@ -2231,7 +2462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>45848</v>
       </c>
@@ -2255,7 +2486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>45848</v>
       </c>
@@ -2279,7 +2510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>45848</v>
       </c>
@@ -2303,7 +2534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>45848</v>
       </c>
@@ -2327,7 +2558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>45848</v>
       </c>
@@ -2351,7 +2582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>45848</v>
       </c>
@@ -2375,7 +2606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>45848</v>
       </c>
@@ -2396,7 +2627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
         <v>45848</v>
       </c>
@@ -2417,7 +2648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36" s="2">
         <v>45848</v>
       </c>
@@ -2441,7 +2672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37" s="2">
         <v>45848</v>
       </c>
@@ -2465,7 +2696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38" s="2">
         <v>45848</v>
       </c>
@@ -2489,7 +2720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39" s="2">
         <v>45848</v>
       </c>
@@ -2513,7 +2744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A40" s="2">
         <v>45848</v>
       </c>
@@ -2537,7 +2768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A41" s="2">
         <v>45848</v>
       </c>
@@ -2561,7 +2792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A42" s="2">
         <v>45848</v>
       </c>
@@ -2585,7 +2816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A43" s="2">
         <v>45848</v>
       </c>
@@ -2609,7 +2840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A44" s="2">
         <v>45848</v>
       </c>
@@ -2633,7 +2864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A45" s="2">
         <v>45848</v>
       </c>
@@ -2657,7 +2888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A46" s="2">
         <v>45848</v>
       </c>
@@ -2677,7 +2908,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A47" s="2">
         <v>45848</v>
       </c>
@@ -2697,7 +2928,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A48" s="2">
         <v>45848</v>
       </c>
@@ -2717,7 +2948,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A49" s="2">
         <v>45848</v>
       </c>
@@ -2740,7 +2971,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A50" s="2">
         <v>45848</v>
       </c>
@@ -2760,7 +2991,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A51" s="2">
         <v>45848</v>
       </c>
@@ -2783,7 +3014,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A52" s="2">
         <v>45848</v>
       </c>
@@ -2803,7 +3034,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A53" s="2">
         <v>45848</v>
       </c>
@@ -2820,7 +3051,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A54" s="2">
         <v>45848</v>
       </c>
@@ -2840,7 +3071,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A55" s="2">
         <v>45848</v>
       </c>
@@ -2860,7 +3091,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A56" s="2">
         <v>45848</v>
       </c>
@@ -2880,7 +3111,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A57" s="2">
         <v>45848</v>
       </c>
@@ -2900,7 +3131,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A58" s="2">
         <v>45848</v>
       </c>
@@ -2920,7 +3151,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A59" s="2">
         <v>45848</v>
       </c>
@@ -2940,7 +3171,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A60" s="2">
         <v>45848</v>
       </c>
@@ -2960,7 +3191,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A61" s="2">
         <v>45848</v>
       </c>
@@ -2980,7 +3211,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A62" s="2">
         <v>45849</v>
       </c>
@@ -3000,7 +3231,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A63" s="2">
         <v>45849</v>
       </c>
@@ -3020,7 +3251,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A64" s="2">
         <v>45849</v>
       </c>
@@ -3040,7 +3271,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A65" s="2">
         <v>45849</v>
       </c>
@@ -3063,7 +3294,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A66" s="2">
         <v>45849</v>
       </c>
@@ -3086,7 +3317,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A67" s="2">
         <v>45849</v>
       </c>
@@ -3109,7 +3340,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A68" s="2">
         <v>45849</v>
       </c>
@@ -3132,7 +3363,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A69" s="2">
         <v>45849</v>
       </c>
@@ -3155,7 +3386,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A70" s="2">
         <v>45849</v>
       </c>
@@ -3178,7 +3409,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A71" s="2">
         <v>45849</v>
       </c>
@@ -3201,7 +3432,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A72" s="2">
         <v>45849</v>
       </c>
@@ -3221,7 +3452,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A73" s="2">
         <v>45849</v>
       </c>
@@ -3244,7 +3475,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A74" s="2">
         <v>45849</v>
       </c>
@@ -3264,7 +3495,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A75" s="2">
         <v>45849</v>
       </c>
@@ -3284,7 +3515,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A76" s="2">
         <v>45849</v>
       </c>
@@ -3304,7 +3535,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A77" s="2">
         <v>45849</v>
       </c>
@@ -3324,7 +3555,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A78" s="2">
         <v>45849</v>
       </c>
@@ -3344,7 +3575,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A79" s="2">
         <v>45849</v>
       </c>
@@ -3367,7 +3598,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A80" s="2">
         <v>45849</v>
       </c>
@@ -3387,7 +3618,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A81" s="2">
         <v>45849</v>
       </c>
@@ -3407,7 +3638,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A82" s="2">
         <v>45849</v>
       </c>
@@ -3427,7 +3658,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A83" s="2">
         <v>45849</v>
       </c>
@@ -3447,7 +3678,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A84" s="2">
         <v>45849</v>
       </c>
@@ -3470,7 +3701,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A85" s="2">
         <v>45849</v>
       </c>
@@ -3490,7 +3721,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A86" s="2">
         <v>45849</v>
       </c>
@@ -3510,7 +3741,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A87" s="2">
         <v>45849</v>
       </c>
@@ -3530,7 +3761,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A88" s="2">
         <v>45849</v>
       </c>
@@ -3550,7 +3781,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A89" s="2">
         <v>45849</v>
       </c>
@@ -3570,7 +3801,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A90" s="2">
         <v>45849</v>
       </c>
@@ -3590,7 +3821,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A91" s="2">
         <v>45849</v>
       </c>
@@ -3610,7 +3841,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A92" s="2">
         <v>45849</v>
       </c>
@@ -3630,7 +3861,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A93" s="2">
         <v>45849</v>
       </c>
@@ -3647,7 +3878,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A94" s="2">
         <v>45849</v>
       </c>
@@ -3670,7 +3901,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A95" s="2">
         <v>45849</v>
       </c>
@@ -3693,7 +3924,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A96" s="2">
         <v>45849</v>
       </c>
@@ -3713,7 +3944,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A97" s="2">
         <v>45849</v>
       </c>
@@ -3733,7 +3964,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A98" s="2">
         <v>45849</v>
       </c>
@@ -3753,7 +3984,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A99" s="2">
         <v>45849</v>
       </c>
@@ -3776,7 +4007,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A100" s="2">
         <v>45849</v>
       </c>
@@ -3799,7 +4030,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A101" s="2">
         <v>45849</v>
       </c>
@@ -3822,7 +4053,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A102" s="2">
         <v>45849</v>
       </c>
@@ -3845,7 +4076,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A103" s="2">
         <v>45849</v>
       </c>
@@ -3868,7 +4099,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A104" s="2">
         <v>45849</v>
       </c>
@@ -3891,7 +4122,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A105" s="2">
         <v>45849</v>
       </c>
@@ -3911,7 +4142,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A106" s="2">
         <v>45849</v>
       </c>
@@ -3931,7 +4162,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A107" s="2">
         <v>45849</v>
       </c>
@@ -3951,7 +4182,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A108" s="2">
         <v>45849</v>
       </c>
@@ -3974,7 +4205,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A109" s="2">
         <v>45849</v>
       </c>
@@ -3997,7 +4228,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A110" s="2">
         <v>45849</v>
       </c>
@@ -4017,7 +4248,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A111" s="2">
         <v>45849</v>
       </c>
@@ -4037,7 +4268,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A112" s="2">
         <v>45849</v>
       </c>
@@ -4057,7 +4288,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A113" s="2">
         <v>45849</v>
       </c>
@@ -4077,7 +4308,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A114" s="2">
         <v>45849</v>
       </c>
@@ -4097,7 +4328,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A115" s="2">
         <v>45849</v>
       </c>
@@ -4117,7 +4348,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A116" s="2">
         <v>45849</v>
       </c>
@@ -4137,7 +4368,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A117" s="2">
         <v>45849</v>
       </c>
@@ -4157,7 +4388,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A118" s="2">
         <v>45849</v>
       </c>
@@ -4177,7 +4408,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A119" s="2">
         <v>45849</v>
       </c>
@@ -4197,7 +4428,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A120" s="2">
         <v>45849</v>
       </c>
@@ -4217,7 +4448,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A121" s="2">
         <v>45849</v>
       </c>
@@ -4240,7 +4471,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A122" s="2">
         <v>45849</v>
       </c>
@@ -4260,7 +4491,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A123" s="2">
         <v>45849</v>
       </c>
@@ -4283,7 +4514,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A124" s="2">
         <v>45849</v>
       </c>
@@ -4303,7 +4534,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A125" s="2">
         <v>45849</v>
       </c>
@@ -4323,7 +4554,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A126" s="2">
         <v>45849</v>
       </c>
@@ -4343,7 +4574,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A127" s="2">
         <v>45849</v>
       </c>
@@ -4363,7 +4594,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A128" s="2">
         <v>45849</v>
       </c>
@@ -4383,7 +4614,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A129" s="2">
         <v>45849</v>
       </c>
@@ -4400,7 +4631,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A130" s="2">
         <v>45849</v>
       </c>
@@ -4423,7 +4654,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A131" s="2">
         <v>45849</v>
       </c>
@@ -4446,7 +4677,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A132" s="2">
         <v>45849</v>
       </c>
@@ -4469,7 +4700,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A133" s="2">
         <v>45849</v>
       </c>
@@ -4492,7 +4723,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A134" s="2">
         <v>45849</v>
       </c>
@@ -4515,7 +4746,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A135" s="2">
         <v>45849</v>
       </c>
@@ -4535,7 +4766,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A136" s="2">
         <v>45849</v>
       </c>
@@ -4555,7 +4786,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A137" s="2">
         <v>45849</v>
       </c>
@@ -4575,7 +4806,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A138" s="2">
         <v>45849</v>
       </c>
@@ -4595,7 +4826,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A139" s="2">
         <v>45849</v>
       </c>
@@ -4618,7 +4849,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A140" s="2">
         <v>45849</v>
       </c>
@@ -4641,7 +4872,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A141" s="2">
         <v>45849</v>
       </c>
@@ -4664,7 +4895,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A142" s="2">
         <v>45849</v>
       </c>
@@ -4684,7 +4915,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A143" s="2">
         <v>45849</v>
       </c>
@@ -4704,7 +4935,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A144" s="2">
         <v>45849</v>
       </c>
@@ -4724,7 +4955,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A145" s="2">
         <v>45849</v>
       </c>
@@ -4747,7 +4978,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A146" s="2">
         <v>45849</v>
       </c>
@@ -4770,7 +5001,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A147" s="2">
         <v>45849</v>
       </c>
@@ -4793,7 +5024,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A148" s="2">
         <v>45849</v>
       </c>
@@ -4813,7 +5044,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A149" s="2">
         <v>45849</v>
       </c>
@@ -4836,7 +5067,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A150" s="2">
         <v>45849</v>
       </c>
@@ -4856,7 +5087,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A151" s="2">
         <v>45849</v>
       </c>
@@ -4876,7 +5107,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A152" s="2">
         <v>45849</v>
       </c>
@@ -4899,7 +5130,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A153" s="2">
         <v>45849</v>
       </c>
@@ -4922,7 +5153,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A154" s="2">
         <v>45849</v>
       </c>
@@ -4945,7 +5176,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A155" s="2">
         <v>45849</v>
       </c>
@@ -4965,7 +5196,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A156" s="2">
         <v>45849</v>
       </c>
@@ -4985,7 +5216,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A157" s="2">
         <v>45849</v>
       </c>
@@ -5005,7 +5236,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A158" s="2">
         <v>45849</v>
       </c>
@@ -5028,7 +5259,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A159" s="2">
         <v>45849</v>
       </c>
@@ -5051,7 +5282,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A160" s="2">
         <v>45849</v>
       </c>
@@ -5071,7 +5302,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A161" s="2">
         <v>45849</v>
       </c>
@@ -5091,7 +5322,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A162" s="2">
         <v>45849</v>
       </c>
@@ -5111,7 +5342,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A163" s="2">
         <v>45849</v>
       </c>
@@ -5131,7 +5362,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A164" s="2">
         <v>45849</v>
       </c>
@@ -5151,7 +5382,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A165" s="2">
         <v>45849</v>
       </c>
@@ -5171,7 +5402,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A166" s="2">
         <v>45849</v>
       </c>
@@ -5191,7 +5422,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A167" s="2">
         <v>45849</v>
       </c>
@@ -5211,7 +5442,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A168" s="2">
         <v>45849</v>
       </c>
@@ -5231,7 +5462,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A169" s="2">
         <v>45849</v>
       </c>
@@ -5251,7 +5482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A170" s="2">
         <v>45849</v>
       </c>
@@ -5271,7 +5502,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A171" s="2">
         <v>45849</v>
       </c>
@@ -5291,7 +5522,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A172" s="2">
         <v>45849</v>
       </c>
@@ -5311,7 +5542,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A173" s="2">
         <v>45849</v>
       </c>
@@ -5331,7 +5562,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A174" s="2">
         <v>45849</v>
       </c>
@@ -5351,7 +5582,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A175" s="2">
         <v>45849</v>
       </c>
@@ -5371,7 +5602,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A176" s="2">
         <v>45849</v>
       </c>
@@ -5391,7 +5622,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A177" s="2">
         <v>45849</v>
       </c>
@@ -5411,7 +5642,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A178" s="2">
         <v>45849</v>
       </c>
@@ -5431,7 +5662,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A179" s="2">
         <v>45849</v>
       </c>
@@ -5451,7 +5682,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A180" s="2">
         <v>45849</v>
       </c>
@@ -5471,7 +5702,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A181" s="2">
         <v>45849</v>
       </c>
@@ -5491,7 +5722,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A182" s="2">
         <v>45849</v>
       </c>
@@ -5511,7 +5742,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A183" s="2">
         <v>45849</v>
       </c>
@@ -5531,7 +5762,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A184" s="2">
         <v>45849</v>
       </c>
@@ -5551,7 +5782,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A185" s="2">
         <v>45849</v>
       </c>
@@ -5571,7 +5802,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A186" s="2">
         <v>45849</v>
       </c>
@@ -5591,7 +5822,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A187" s="2">
         <v>45849</v>
       </c>
@@ -5611,7 +5842,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A188" s="2">
         <v>45849</v>
       </c>
@@ -5631,7 +5862,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A189" s="2">
         <v>45849</v>
       </c>
@@ -5651,7 +5882,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A190" s="2">
         <v>45849</v>
       </c>
@@ -5671,7 +5902,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A191" s="2">
         <v>45849</v>
       </c>
@@ -5691,7 +5922,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A192" s="2">
         <v>45849</v>
       </c>
@@ -5711,7 +5942,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A193" s="2">
         <v>45850</v>
       </c>
@@ -5731,7 +5962,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A194" s="2">
         <v>45850</v>
       </c>
@@ -5751,7 +5982,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A195" s="2">
         <v>45850</v>
       </c>
@@ -5771,7 +6002,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A196" s="2">
         <v>45850</v>
       </c>
@@ -5791,7 +6022,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A197" s="2">
         <v>45850</v>
       </c>
@@ -5811,7 +6042,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A198" s="2">
         <v>45850</v>
       </c>
@@ -5831,7 +6062,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A199" s="2">
         <v>45850</v>
       </c>
@@ -5851,7 +6082,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A200" s="2">
         <v>45850</v>
       </c>
@@ -5871,7 +6102,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A201" s="2">
         <v>45850</v>
       </c>
@@ -5891,7 +6122,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A202" s="2">
         <v>45850</v>
       </c>
@@ -5911,7 +6142,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A203" s="2">
         <v>45850</v>
       </c>
@@ -5931,7 +6162,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A204" s="2">
         <v>45850</v>
       </c>
@@ -5951,7 +6182,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A205" s="2">
         <v>45850</v>
       </c>
@@ -5971,7 +6202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A206" s="2">
         <v>45850</v>
       </c>
@@ -5991,7 +6222,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A207" s="2">
         <v>45850</v>
       </c>
@@ -6011,7 +6242,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A208" s="2">
         <v>45850</v>
       </c>
@@ -6031,7 +6262,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A209" s="2">
         <v>45850</v>
       </c>
@@ -6051,7 +6282,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A210" s="2">
         <v>45850</v>
       </c>
@@ -6071,7 +6302,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A211" s="2">
         <v>45850</v>
       </c>
@@ -6091,7 +6322,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A212" s="2">
         <v>45850</v>
       </c>
@@ -6111,7 +6342,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A213" s="2">
         <v>45850</v>
       </c>
@@ -6131,7 +6362,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A214" s="2">
         <v>45850</v>
       </c>
@@ -6151,7 +6382,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A215" s="2">
         <v>45850</v>
       </c>
@@ -6171,7 +6402,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A216" s="2">
         <v>45850</v>
       </c>
@@ -6191,7 +6422,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A217" s="2">
         <v>45850</v>
       </c>
@@ -6211,7 +6442,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A218" s="2">
         <v>45850</v>
       </c>
@@ -6228,7 +6459,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A219" s="2">
         <v>45850</v>
       </c>
@@ -6245,7 +6476,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A220" s="2">
         <v>45850</v>
       </c>
@@ -6262,7 +6493,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A221" s="2">
         <v>45850</v>
       </c>
@@ -6282,7 +6513,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A222" s="2">
         <v>45850</v>
       </c>
@@ -6302,7 +6533,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A223" s="2">
         <v>45850</v>
       </c>
@@ -6322,7 +6553,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A224" s="2">
         <v>45850</v>
       </c>
@@ -6342,7 +6573,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A225" s="2">
         <v>45850</v>
       </c>
@@ -6362,7 +6593,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A226" s="2">
         <v>45850</v>
       </c>
@@ -6382,7 +6613,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A227" s="2">
         <v>45850</v>
       </c>
@@ -6402,7 +6633,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A228" s="2">
         <v>45850</v>
       </c>
@@ -6422,7 +6653,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A229" s="2">
         <v>45850</v>
       </c>
@@ -6442,7 +6673,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A230" s="2">
         <v>45850</v>
       </c>
@@ -6462,7 +6693,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A231" s="2">
         <v>45850</v>
       </c>
@@ -6482,7 +6713,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A232" s="2">
         <v>45850</v>
       </c>
@@ -6502,7 +6733,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A233" s="2">
         <v>45850</v>
       </c>
@@ -6522,7 +6753,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A234" s="2">
         <v>45850</v>
       </c>
@@ -6542,7 +6773,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A235" s="2">
         <v>45850</v>
       </c>
@@ -6562,7 +6793,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A236" s="2">
         <v>45850</v>
       </c>
@@ -6582,7 +6813,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A237" s="2">
         <v>45850</v>
       </c>
@@ -6602,7 +6833,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A238" s="2">
         <v>45850</v>
       </c>
@@ -6625,7 +6856,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A239" s="2">
         <v>45850</v>
       </c>
@@ -6645,7 +6876,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A240" s="2">
         <v>45850</v>
       </c>
@@ -6668,7 +6899,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A241" s="2">
         <v>45850</v>
       </c>
@@ -6688,7 +6919,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A242" s="2">
         <v>45850</v>
       </c>
@@ -6708,7 +6939,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A243" s="2">
         <v>45850</v>
       </c>
@@ -6728,7 +6959,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A244" s="2">
         <v>45850</v>
       </c>
@@ -6748,7 +6979,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A245" s="2">
         <v>45850</v>
       </c>
@@ -6768,7 +6999,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A246" s="2">
         <v>45850</v>
       </c>
@@ -6788,7 +7019,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A247" s="2">
         <v>45850</v>
       </c>
@@ -6808,7 +7039,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A248" s="2">
         <v>45850</v>
       </c>
@@ -6828,7 +7059,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A249" s="2">
         <v>45850</v>
       </c>
@@ -6848,7 +7079,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A250" s="2">
         <v>45850</v>
       </c>
@@ -6868,7 +7099,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A251" s="2">
         <v>45850</v>
       </c>
@@ -6888,7 +7119,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A252" s="2">
         <v>45850</v>
       </c>
@@ -6908,7 +7139,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A253" s="2">
         <v>45850</v>
       </c>
@@ -6928,7 +7159,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A254" s="2">
         <v>45850</v>
       </c>
@@ -6948,7 +7179,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A255" s="2">
         <v>45850</v>
       </c>
@@ -6968,7 +7199,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A256" s="2">
         <v>45850</v>
       </c>
@@ -6991,7 +7222,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A257" s="2">
         <v>45850</v>
       </c>
@@ -7011,7 +7242,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A258" s="2">
         <v>45850</v>
       </c>
@@ -7031,7 +7262,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A259" s="2">
         <v>45850</v>
       </c>
@@ -7051,7 +7282,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A260" s="2">
         <v>45850</v>
       </c>
@@ -7074,7 +7305,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A261" s="2">
         <v>45850</v>
       </c>
@@ -7094,7 +7325,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A262" s="2">
         <v>45850</v>
       </c>
@@ -7114,7 +7345,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A263" s="2">
         <v>45850</v>
       </c>
@@ -7134,7 +7365,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A264" s="2">
         <v>45850</v>
       </c>
@@ -7154,7 +7385,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A265" s="2">
         <v>45850</v>
       </c>
@@ -7174,7 +7405,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A266" s="2">
         <v>45850</v>
       </c>
@@ -7197,7 +7428,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A267" s="2">
         <v>45850</v>
       </c>
@@ -7217,7 +7448,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A268" s="2">
         <v>45850</v>
       </c>
@@ -7237,7 +7468,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A269" s="2">
         <v>45850</v>
       </c>
@@ -7257,7 +7488,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A270" s="2">
         <v>45850</v>
       </c>
@@ -7277,7 +7508,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A271" s="2">
         <v>45850</v>
       </c>
@@ -7297,7 +7528,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A272" s="2">
         <v>45850</v>
       </c>
@@ -7317,7 +7548,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A273" s="2">
         <v>45850</v>
       </c>
@@ -7337,7 +7568,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A274" s="2">
         <v>45850</v>
       </c>
@@ -7357,7 +7588,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A275" s="2">
         <v>45850</v>
       </c>
@@ -7377,7 +7608,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A276" s="2">
         <v>45850</v>
       </c>
@@ -7397,7 +7628,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A277" s="2">
         <v>45850</v>
       </c>
@@ -7417,7 +7648,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A278" s="2">
         <v>45850</v>
       </c>
@@ -7437,7 +7668,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A279" s="2">
         <v>45850</v>
       </c>
@@ -7457,7 +7688,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A280" s="2">
         <v>45850</v>
       </c>
@@ -7477,7 +7708,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A281" s="2">
         <v>45850</v>
       </c>
@@ -7497,7 +7728,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A282" s="2">
         <v>45850</v>
       </c>
@@ -7517,7 +7748,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A283" s="2">
         <v>45850</v>
       </c>
@@ -7537,7 +7768,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A284" s="2">
         <v>45850</v>
       </c>
@@ -7557,7 +7788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A285" s="2">
         <v>45850</v>
       </c>
@@ -7577,7 +7808,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A286" s="2">
         <v>45850</v>
       </c>
@@ -7597,7 +7828,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A287" s="2">
         <v>45850</v>
       </c>
@@ -7617,7 +7848,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A288" s="2">
         <v>45850</v>
       </c>
@@ -7637,7 +7868,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A289" s="2">
         <v>45850</v>
       </c>
@@ -7657,7 +7888,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A290" s="2">
         <v>45850</v>
       </c>
@@ -7677,7 +7908,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A291" s="2">
         <v>45850</v>
       </c>
@@ -7697,7 +7928,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A292" s="2">
         <v>45850</v>
       </c>
@@ -7717,7 +7948,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A293" s="2">
         <v>45850</v>
       </c>
@@ -7737,7 +7968,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A294" s="2">
         <v>45850</v>
       </c>
@@ -7757,7 +7988,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A295" s="2">
         <v>45850</v>
       </c>
@@ -7777,7 +8008,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A296" s="2">
         <v>45850</v>
       </c>
@@ -7797,7 +8028,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A297" s="2">
         <v>45850</v>
       </c>
@@ -7817,7 +8048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A298" s="2">
         <v>45850</v>
       </c>
@@ -7837,7 +8068,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A299" s="2">
         <v>45850</v>
       </c>
@@ -7857,7 +8088,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A300" s="2">
         <v>45850</v>
       </c>
@@ -7877,7 +8108,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A301" s="2">
         <v>45850</v>
       </c>
@@ -7897,7 +8128,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A302" s="2">
         <v>45850</v>
       </c>
@@ -7917,7 +8148,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A303" s="2">
         <v>45850</v>
       </c>
@@ -7937,7 +8168,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A304" s="2">
         <v>45850</v>
       </c>
@@ -7957,7 +8188,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A305" s="2">
         <v>45850</v>
       </c>
@@ -7977,7 +8208,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A306" s="2">
         <v>45850</v>
       </c>
@@ -7997,7 +8228,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A307" s="2">
         <v>45850</v>
       </c>
@@ -8017,7 +8248,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A308" s="2">
         <v>45850</v>
       </c>
@@ -8037,7 +8268,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A309" s="2">
         <v>45850</v>
       </c>
@@ -8057,7 +8288,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A310" s="2">
         <v>45850</v>
       </c>
@@ -8077,7 +8308,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A311" s="2">
         <v>45850</v>
       </c>
@@ -8097,7 +8328,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A312" s="2">
         <v>45850</v>
       </c>
@@ -8117,7 +8348,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A313" s="2">
         <v>45850</v>
       </c>
@@ -8137,7 +8368,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A314" s="2">
         <v>45850</v>
       </c>
@@ -8157,7 +8388,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A315" s="2">
         <v>45850</v>
       </c>
@@ -8177,7 +8408,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A316" s="2">
         <v>45850</v>
       </c>
@@ -8197,7 +8428,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A317" s="2">
         <v>45850</v>
       </c>
@@ -8217,7 +8448,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A318" s="2">
         <v>45850</v>
       </c>
@@ -8237,7 +8468,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A319" s="2">
         <v>45850</v>
       </c>
@@ -8257,7 +8488,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A320" s="2">
         <v>45850</v>
       </c>
@@ -8277,7 +8508,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A321" s="2">
         <v>45850</v>
       </c>
@@ -8300,7 +8531,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A322" s="2">
         <v>45850</v>
       </c>
@@ -8320,7 +8551,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A323" s="2">
         <v>45850</v>
       </c>
@@ -8343,7 +8574,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A324" s="2">
         <v>45850</v>
       </c>
@@ -8363,7 +8594,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A325" s="2">
         <v>45850</v>
       </c>
@@ -8383,7 +8614,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A326" s="2">
         <v>45850</v>
       </c>
@@ -8406,7 +8637,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A327" s="2">
         <v>45850</v>
       </c>
@@ -8429,7 +8660,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A328" s="2">
         <v>45850</v>
       </c>
@@ -8452,7 +8683,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A329" s="2">
         <v>45850</v>
       </c>
@@ -8475,7 +8706,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A330" s="2">
         <v>45850</v>
       </c>
@@ -8498,7 +8729,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A331" s="2">
         <v>45850</v>
       </c>
@@ -8521,7 +8752,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A332" s="2">
         <v>45850</v>
       </c>
@@ -8544,7 +8775,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A333" s="2">
         <v>45850</v>
       </c>
@@ -8567,7 +8798,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A334" s="2">
         <v>45850</v>
       </c>
@@ -8590,7 +8821,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A335" s="2">
         <v>45850</v>
       </c>
@@ -8613,7 +8844,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A336" s="2">
         <v>45850</v>
       </c>
@@ -8636,7 +8867,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A337" s="2">
         <v>45850</v>
       </c>
@@ -8659,7 +8890,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A338" s="2">
         <v>45850</v>
       </c>
@@ -8682,7 +8913,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A339" s="2">
         <v>45850</v>
       </c>
@@ -8705,7 +8936,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A340" s="2">
         <v>45850</v>
       </c>
@@ -8728,7 +8959,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A341" s="2">
         <v>45850</v>
       </c>
@@ -8748,7 +8979,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A342" s="2">
         <v>45850</v>
       </c>
@@ -8768,7 +8999,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A343" s="2">
         <v>45850</v>
       </c>
@@ -8788,7 +9019,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A344" s="2">
         <v>45850</v>
       </c>
@@ -8808,7 +9039,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A345" s="2">
         <v>45850</v>
       </c>
@@ -8828,7 +9059,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A346" s="2">
         <v>45850</v>
       </c>
@@ -8848,7 +9079,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A347" s="2">
         <v>45850</v>
       </c>
@@ -8868,7 +9099,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A348" s="2">
         <v>45850</v>
       </c>
@@ -8888,7 +9119,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A349" s="2">
         <v>45850</v>
       </c>
@@ -8908,7 +9139,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A350" s="2">
         <v>45850</v>
       </c>
@@ -8928,7 +9159,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A351" s="2">
         <v>45850</v>
       </c>
@@ -8948,7 +9179,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A352" s="2">
         <v>45850</v>
       </c>
@@ -8968,7 +9199,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A353" s="2">
         <v>45850</v>
       </c>
@@ -8988,7 +9219,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A354" s="2">
         <v>45850</v>
       </c>
@@ -9008,7 +9239,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A355" s="2">
         <v>45850</v>
       </c>
@@ -9028,7 +9259,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A356" s="2">
         <v>45850</v>
       </c>
@@ -9048,7 +9279,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A357" s="2">
         <v>45850</v>
       </c>
@@ -9071,7 +9302,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A358" s="2">
         <v>45850</v>
       </c>
@@ -9094,7 +9325,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A359" s="2">
         <v>45850</v>
       </c>
@@ -9117,7 +9348,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A360" s="2">
         <v>45850</v>
       </c>
@@ -9140,7 +9371,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A361" s="2">
         <v>45850</v>
       </c>
@@ -9160,7 +9391,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A362" s="2">
         <v>45850</v>
       </c>
@@ -9180,7 +9411,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A363" s="2">
         <v>45850</v>
       </c>
@@ -9200,7 +9431,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A364" s="2">
         <v>45850</v>
       </c>
@@ -9220,7 +9451,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A365" s="2">
         <v>45850</v>
       </c>
@@ -9240,7 +9471,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A366" s="2">
         <v>45850</v>
       </c>
@@ -9260,7 +9491,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A367" s="2">
         <v>45850</v>
       </c>
@@ -9280,7 +9511,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A368" s="2">
         <v>45850</v>
       </c>
@@ -9300,7 +9531,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A369" s="2">
         <v>45850</v>
       </c>
@@ -9320,7 +9551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A370" s="2">
         <v>45850</v>
       </c>
@@ -9340,7 +9571,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A371" s="2">
         <v>45850</v>
       </c>
@@ -9360,7 +9591,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A372" s="2">
         <v>45850</v>
       </c>
@@ -9380,7 +9611,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A373" s="2">
         <v>45850</v>
       </c>
@@ -9400,7 +9631,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A374" s="2">
         <v>45850</v>
       </c>
@@ -9428,26 +9659,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D22690-A56F-4AD2-9D2F-AA137369CE8C}">
-  <dimension ref="A1:K88"/>
+  <dimension ref="A1:K177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A89" sqref="A89"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.69140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.3828125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.3828125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.69140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="41.53515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -9482,7 +9713,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>45852</v>
       </c>
@@ -9505,7 +9736,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>45852</v>
       </c>
@@ -9528,7 +9759,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>45852</v>
       </c>
@@ -9551,7 +9782,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>45852</v>
       </c>
@@ -9574,7 +9805,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>45852</v>
       </c>
@@ -9597,7 +9828,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>45852</v>
       </c>
@@ -9620,7 +9851,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>45853</v>
       </c>
@@ -9643,7 +9874,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>45853</v>
       </c>
@@ -9666,7 +9897,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>45853</v>
       </c>
@@ -9689,7 +9920,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>45853</v>
       </c>
@@ -9712,7 +9943,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>45853</v>
       </c>
@@ -9735,7 +9966,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>45853</v>
       </c>
@@ -9758,7 +9989,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>45853</v>
       </c>
@@ -9781,7 +10012,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>45853</v>
       </c>
@@ -9804,7 +10035,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>45853</v>
       </c>
@@ -9827,7 +10058,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>45853</v>
       </c>
@@ -9850,7 +10081,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>45853</v>
       </c>
@@ -9873,7 +10104,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>45853</v>
       </c>
@@ -9896,7 +10127,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>45853</v>
       </c>
@@ -9919,7 +10150,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>45853</v>
       </c>
@@ -9942,7 +10173,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>45853</v>
       </c>
@@ -9965,7 +10196,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>45853</v>
       </c>
@@ -9988,7 +10219,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>45853</v>
       </c>
@@ -10011,7 +10242,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>45853</v>
       </c>
@@ -10034,7 +10265,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>45853</v>
       </c>
@@ -10057,7 +10288,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>45853</v>
       </c>
@@ -10080,7 +10311,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>45853</v>
       </c>
@@ -10103,7 +10334,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>45853</v>
       </c>
@@ -10126,7 +10357,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>45853</v>
       </c>
@@ -10149,7 +10380,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>45853</v>
       </c>
@@ -10172,7 +10403,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>45853</v>
       </c>
@@ -10195,7 +10426,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>45853</v>
       </c>
@@ -10218,7 +10449,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>45853</v>
       </c>
@@ -10241,7 +10472,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
         <v>45853</v>
       </c>
@@ -10264,7 +10495,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="2">
         <v>45853</v>
       </c>
@@ -10287,7 +10518,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" s="2">
         <v>45853</v>
       </c>
@@ -10310,7 +10541,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" s="2">
         <v>45853</v>
       </c>
@@ -10333,7 +10564,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" s="2">
         <v>45853</v>
       </c>
@@ -10356,7 +10587,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40" s="2">
         <v>45853</v>
       </c>
@@ -10379,7 +10610,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41" s="2">
         <v>45853</v>
       </c>
@@ -10402,7 +10633,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42" s="2">
         <v>45853</v>
       </c>
@@ -10425,7 +10656,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43" s="2">
         <v>45853</v>
       </c>
@@ -10448,7 +10679,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44" s="2">
         <v>45853</v>
       </c>
@@ -10471,7 +10702,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A45" s="2">
         <v>45853</v>
       </c>
@@ -10494,7 +10725,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A46" s="2">
         <v>45853</v>
       </c>
@@ -10517,7 +10748,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A47" s="2">
         <v>45853</v>
       </c>
@@ -10540,7 +10771,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A48" s="2">
         <v>45853</v>
       </c>
@@ -10563,7 +10794,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A49" s="2">
         <v>45853</v>
       </c>
@@ -10586,7 +10817,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A50" s="2">
         <v>45853</v>
       </c>
@@ -10609,7 +10840,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A51" s="2">
         <v>45853</v>
       </c>
@@ -10632,7 +10863,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A52" s="2">
         <v>45853</v>
       </c>
@@ -10655,7 +10886,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A53" s="2">
         <v>45853</v>
       </c>
@@ -10678,7 +10909,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A54" s="2">
         <v>45853</v>
       </c>
@@ -10701,7 +10932,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A55" s="2">
         <v>45853</v>
       </c>
@@ -10724,7 +10955,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A56" s="2">
         <v>45853</v>
       </c>
@@ -10747,7 +10978,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A57" s="2">
         <v>45853</v>
       </c>
@@ -10770,7 +11001,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A58" s="2">
         <v>45853</v>
       </c>
@@ -10793,7 +11024,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A59" s="2">
         <v>45853</v>
       </c>
@@ -10813,7 +11044,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A60" s="2">
         <v>45853</v>
       </c>
@@ -10836,7 +11067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A61" s="2">
         <v>45853</v>
       </c>
@@ -10859,7 +11090,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A62" s="2">
         <v>45853</v>
       </c>
@@ -10882,7 +11113,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A63" s="2">
         <v>45853</v>
       </c>
@@ -10905,7 +11136,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A64" s="2">
         <v>45853</v>
       </c>
@@ -10928,7 +11159,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A65" s="2">
         <v>45853</v>
       </c>
@@ -10951,7 +11182,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A66" s="2">
         <v>45853</v>
       </c>
@@ -10974,7 +11205,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A67" s="2">
         <v>45853</v>
       </c>
@@ -10997,7 +11228,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A68" s="2">
         <v>45853</v>
       </c>
@@ -11020,7 +11251,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A69" s="2">
         <v>45853</v>
       </c>
@@ -11043,7 +11274,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A70" s="2">
         <v>45853</v>
       </c>
@@ -11066,7 +11297,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A71" s="2">
         <v>45853</v>
       </c>
@@ -11089,7 +11320,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A72" s="2">
         <v>45853</v>
       </c>
@@ -11112,7 +11343,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A73" s="2">
         <v>45853</v>
       </c>
@@ -11135,7 +11366,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A74" s="2">
         <v>45853</v>
       </c>
@@ -11158,7 +11389,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A75" s="2">
         <v>45853</v>
       </c>
@@ -11181,7 +11412,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A76" s="2">
         <v>45853</v>
       </c>
@@ -11204,7 +11435,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A77" s="2">
         <v>45853</v>
       </c>
@@ -11227,7 +11458,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A78" s="2">
         <v>45853</v>
       </c>
@@ -11247,7 +11478,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A79" s="2">
         <v>45853</v>
       </c>
@@ -11267,7 +11498,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A80" s="2">
         <v>45853</v>
       </c>
@@ -11290,7 +11521,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A81" s="2">
         <v>45853</v>
       </c>
@@ -11313,7 +11544,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A82" s="2">
         <v>45853</v>
       </c>
@@ -11333,7 +11564,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A83" s="2">
         <v>45853</v>
       </c>
@@ -11356,7 +11587,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A84" s="2">
         <v>45853</v>
       </c>
@@ -11379,7 +11610,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A85" s="2">
         <v>45853</v>
       </c>
@@ -11402,7 +11633,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A86" s="2">
         <v>45853</v>
       </c>
@@ -11425,7 +11656,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A87" s="2">
         <v>45853</v>
       </c>
@@ -11448,7 +11679,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A88" s="2">
         <v>45853</v>
       </c>
@@ -11469,6 +11700,2032 @@
       </c>
       <c r="I88" t="s">
         <v>385</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A89" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B89" t="s">
+        <v>47</v>
+      </c>
+      <c r="C89" t="s">
+        <v>20</v>
+      </c>
+      <c r="D89" t="s">
+        <v>119</v>
+      </c>
+      <c r="E89" t="s">
+        <v>191</v>
+      </c>
+      <c r="G89" t="s">
+        <v>58</v>
+      </c>
+      <c r="I89" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A90" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B90" t="s">
+        <v>47</v>
+      </c>
+      <c r="C90" t="s">
+        <v>20</v>
+      </c>
+      <c r="D90" t="s">
+        <v>119</v>
+      </c>
+      <c r="E90" t="s">
+        <v>386</v>
+      </c>
+      <c r="G90" t="s">
+        <v>79</v>
+      </c>
+      <c r="I90" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A91" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B91" t="s">
+        <v>47</v>
+      </c>
+      <c r="C91" t="s">
+        <v>20</v>
+      </c>
+      <c r="D91" t="s">
+        <v>119</v>
+      </c>
+      <c r="G91" t="s">
+        <v>79</v>
+      </c>
+      <c r="I91" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A92" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B92" t="s">
+        <v>47</v>
+      </c>
+      <c r="C92" t="s">
+        <v>20</v>
+      </c>
+      <c r="D92" t="s">
+        <v>119</v>
+      </c>
+      <c r="G92" t="s">
+        <v>58</v>
+      </c>
+      <c r="I92" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A93" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B93" t="s">
+        <v>47</v>
+      </c>
+      <c r="C93" t="s">
+        <v>20</v>
+      </c>
+      <c r="D93" t="s">
+        <v>119</v>
+      </c>
+      <c r="G93" t="s">
+        <v>58</v>
+      </c>
+      <c r="I93" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A94" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B94" t="s">
+        <v>47</v>
+      </c>
+      <c r="C94" t="s">
+        <v>20</v>
+      </c>
+      <c r="D94" t="s">
+        <v>119</v>
+      </c>
+      <c r="E94" t="s">
+        <v>388</v>
+      </c>
+      <c r="G94" t="s">
+        <v>38</v>
+      </c>
+      <c r="I94" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A95" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B95" t="s">
+        <v>47</v>
+      </c>
+      <c r="C95" t="s">
+        <v>20</v>
+      </c>
+      <c r="D95" t="s">
+        <v>119</v>
+      </c>
+      <c r="E95" t="s">
+        <v>389</v>
+      </c>
+      <c r="G95" t="s">
+        <v>35</v>
+      </c>
+      <c r="I95" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A96" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B96" t="s">
+        <v>47</v>
+      </c>
+      <c r="C96" t="s">
+        <v>20</v>
+      </c>
+      <c r="D96" t="s">
+        <v>119</v>
+      </c>
+      <c r="E96" t="s">
+        <v>390</v>
+      </c>
+      <c r="G96" t="s">
+        <v>120</v>
+      </c>
+      <c r="I96" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A97" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B97" t="s">
+        <v>47</v>
+      </c>
+      <c r="C97" t="s">
+        <v>20</v>
+      </c>
+      <c r="D97" t="s">
+        <v>24</v>
+      </c>
+      <c r="E97" t="s">
+        <v>391</v>
+      </c>
+      <c r="G97" t="s">
+        <v>45</v>
+      </c>
+      <c r="I97" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A98" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B98" t="s">
+        <v>47</v>
+      </c>
+      <c r="C98" t="s">
+        <v>20</v>
+      </c>
+      <c r="D98" t="s">
+        <v>24</v>
+      </c>
+      <c r="E98" t="s">
+        <v>196</v>
+      </c>
+      <c r="G98" t="s">
+        <v>77</v>
+      </c>
+      <c r="I98" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A99" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B99" t="s">
+        <v>47</v>
+      </c>
+      <c r="C99" t="s">
+        <v>20</v>
+      </c>
+      <c r="D99" t="s">
+        <v>24</v>
+      </c>
+      <c r="E99" t="s">
+        <v>394</v>
+      </c>
+      <c r="G99" t="s">
+        <v>14</v>
+      </c>
+      <c r="I99" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A100" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B100" t="s">
+        <v>47</v>
+      </c>
+      <c r="C100" t="s">
+        <v>20</v>
+      </c>
+      <c r="D100" t="s">
+        <v>24</v>
+      </c>
+      <c r="E100" t="s">
+        <v>395</v>
+      </c>
+      <c r="G100" t="s">
+        <v>31</v>
+      </c>
+      <c r="I100" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A101" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B101" t="s">
+        <v>47</v>
+      </c>
+      <c r="C101" t="s">
+        <v>20</v>
+      </c>
+      <c r="D101" t="s">
+        <v>24</v>
+      </c>
+      <c r="E101" t="s">
+        <v>391</v>
+      </c>
+      <c r="G101" t="s">
+        <v>57</v>
+      </c>
+      <c r="I101" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A102" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B102" t="s">
+        <v>47</v>
+      </c>
+      <c r="C102" t="s">
+        <v>20</v>
+      </c>
+      <c r="D102" t="s">
+        <v>24</v>
+      </c>
+      <c r="E102" t="s">
+        <v>196</v>
+      </c>
+      <c r="G102" t="s">
+        <v>38</v>
+      </c>
+      <c r="I102" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A103" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B103" t="s">
+        <v>47</v>
+      </c>
+      <c r="C103" t="s">
+        <v>20</v>
+      </c>
+      <c r="D103" t="s">
+        <v>24</v>
+      </c>
+      <c r="E103" t="s">
+        <v>394</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="I103" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A104" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B104" t="s">
+        <v>47</v>
+      </c>
+      <c r="C104" t="s">
+        <v>20</v>
+      </c>
+      <c r="D104" t="s">
+        <v>64</v>
+      </c>
+      <c r="E104" t="s">
+        <v>399</v>
+      </c>
+      <c r="G104" t="s">
+        <v>56</v>
+      </c>
+      <c r="I104" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A105" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B105" t="s">
+        <v>47</v>
+      </c>
+      <c r="C105" t="s">
+        <v>20</v>
+      </c>
+      <c r="D105" t="s">
+        <v>64</v>
+      </c>
+      <c r="E105" t="s">
+        <v>399</v>
+      </c>
+      <c r="G105" t="s">
+        <v>29</v>
+      </c>
+      <c r="I105" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A106" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B106" t="s">
+        <v>47</v>
+      </c>
+      <c r="C106" t="s">
+        <v>20</v>
+      </c>
+      <c r="D106" t="s">
+        <v>64</v>
+      </c>
+      <c r="E106" t="s">
+        <v>402</v>
+      </c>
+      <c r="G106" t="s">
+        <v>38</v>
+      </c>
+      <c r="I106" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A107" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B107" t="s">
+        <v>47</v>
+      </c>
+      <c r="C107" t="s">
+        <v>20</v>
+      </c>
+      <c r="D107" t="s">
+        <v>64</v>
+      </c>
+      <c r="E107" t="s">
+        <v>404</v>
+      </c>
+      <c r="G107" t="s">
+        <v>38</v>
+      </c>
+      <c r="I107" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A108" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B108" t="s">
+        <v>47</v>
+      </c>
+      <c r="C108" t="s">
+        <v>20</v>
+      </c>
+      <c r="D108" t="s">
+        <v>102</v>
+      </c>
+      <c r="E108" t="s">
+        <v>406</v>
+      </c>
+      <c r="G108" t="s">
+        <v>311</v>
+      </c>
+      <c r="I108" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A109" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B109" t="s">
+        <v>47</v>
+      </c>
+      <c r="C109" t="s">
+        <v>20</v>
+      </c>
+      <c r="D109" t="s">
+        <v>102</v>
+      </c>
+      <c r="E109" t="s">
+        <v>208</v>
+      </c>
+      <c r="G109" t="s">
+        <v>79</v>
+      </c>
+      <c r="I109" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A110" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B110" t="s">
+        <v>47</v>
+      </c>
+      <c r="C110" t="s">
+        <v>20</v>
+      </c>
+      <c r="D110" t="s">
+        <v>102</v>
+      </c>
+      <c r="E110" t="s">
+        <v>410</v>
+      </c>
+      <c r="G110" t="s">
+        <v>311</v>
+      </c>
+      <c r="I110" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A111" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B111" t="s">
+        <v>47</v>
+      </c>
+      <c r="C111" t="s">
+        <v>20</v>
+      </c>
+      <c r="D111" t="s">
+        <v>102</v>
+      </c>
+      <c r="E111" t="s">
+        <v>411</v>
+      </c>
+      <c r="G111" t="s">
+        <v>38</v>
+      </c>
+      <c r="I111" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A112" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B112" t="s">
+        <v>47</v>
+      </c>
+      <c r="C112" t="s">
+        <v>20</v>
+      </c>
+      <c r="D112" t="s">
+        <v>102</v>
+      </c>
+      <c r="E112" t="s">
+        <v>406</v>
+      </c>
+      <c r="G112" t="s">
+        <v>29</v>
+      </c>
+      <c r="I112" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A113" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B113" t="s">
+        <v>47</v>
+      </c>
+      <c r="C113" t="s">
+        <v>20</v>
+      </c>
+      <c r="D113" t="s">
+        <v>102</v>
+      </c>
+      <c r="E113" t="s">
+        <v>208</v>
+      </c>
+      <c r="G113" t="s">
+        <v>57</v>
+      </c>
+      <c r="I113" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A114" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B114" t="s">
+        <v>47</v>
+      </c>
+      <c r="C114" t="s">
+        <v>20</v>
+      </c>
+      <c r="D114" t="s">
+        <v>77</v>
+      </c>
+      <c r="E114" t="s">
+        <v>214</v>
+      </c>
+      <c r="G114" t="s">
+        <v>311</v>
+      </c>
+      <c r="I114" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A115" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B115" t="s">
+        <v>47</v>
+      </c>
+      <c r="C115" t="s">
+        <v>20</v>
+      </c>
+      <c r="D115" t="s">
+        <v>77</v>
+      </c>
+      <c r="E115" t="s">
+        <v>211</v>
+      </c>
+      <c r="G115" t="s">
+        <v>35</v>
+      </c>
+      <c r="I115" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A116" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B116" t="s">
+        <v>47</v>
+      </c>
+      <c r="C116" t="s">
+        <v>20</v>
+      </c>
+      <c r="D116" t="s">
+        <v>77</v>
+      </c>
+      <c r="E116" t="s">
+        <v>412</v>
+      </c>
+      <c r="G116" t="s">
+        <v>311</v>
+      </c>
+      <c r="I116" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A117" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B117" t="s">
+        <v>47</v>
+      </c>
+      <c r="C117" t="s">
+        <v>20</v>
+      </c>
+      <c r="D117" t="s">
+        <v>77</v>
+      </c>
+      <c r="E117" t="s">
+        <v>412</v>
+      </c>
+      <c r="G117" t="s">
+        <v>45</v>
+      </c>
+      <c r="I117" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A118" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B118" t="s">
+        <v>47</v>
+      </c>
+      <c r="C118" t="s">
+        <v>20</v>
+      </c>
+      <c r="D118" t="s">
+        <v>77</v>
+      </c>
+      <c r="E118" t="s">
+        <v>211</v>
+      </c>
+      <c r="G118" t="s">
+        <v>79</v>
+      </c>
+      <c r="I118" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A119" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B119" t="s">
+        <v>47</v>
+      </c>
+      <c r="C119" t="s">
+        <v>20</v>
+      </c>
+      <c r="D119" t="s">
+        <v>77</v>
+      </c>
+      <c r="E119" t="s">
+        <v>214</v>
+      </c>
+      <c r="G119" t="s">
+        <v>38</v>
+      </c>
+      <c r="I119" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A120" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B120" t="s">
+        <v>47</v>
+      </c>
+      <c r="C120" t="s">
+        <v>20</v>
+      </c>
+      <c r="D120" t="s">
+        <v>79</v>
+      </c>
+      <c r="E120" t="s">
+        <v>367</v>
+      </c>
+      <c r="G120" t="s">
+        <v>45</v>
+      </c>
+      <c r="I120" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A121" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B121" t="s">
+        <v>47</v>
+      </c>
+      <c r="C121" t="s">
+        <v>20</v>
+      </c>
+      <c r="D121" t="s">
+        <v>79</v>
+      </c>
+      <c r="E121" t="s">
+        <v>364</v>
+      </c>
+      <c r="G121" t="s">
+        <v>14</v>
+      </c>
+      <c r="I121" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A122" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B122" t="s">
+        <v>47</v>
+      </c>
+      <c r="C122" t="s">
+        <v>20</v>
+      </c>
+      <c r="D122" t="s">
+        <v>79</v>
+      </c>
+      <c r="E122" t="s">
+        <v>415</v>
+      </c>
+      <c r="G122" t="s">
+        <v>79</v>
+      </c>
+      <c r="I122" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A123" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B123" t="s">
+        <v>47</v>
+      </c>
+      <c r="C123" t="s">
+        <v>20</v>
+      </c>
+      <c r="D123" t="s">
+        <v>79</v>
+      </c>
+      <c r="E123" t="s">
+        <v>416</v>
+      </c>
+      <c r="G123" t="s">
+        <v>31</v>
+      </c>
+      <c r="I123" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A124" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B124" t="s">
+        <v>47</v>
+      </c>
+      <c r="C124" t="s">
+        <v>20</v>
+      </c>
+      <c r="D124" t="s">
+        <v>79</v>
+      </c>
+      <c r="E124" t="s">
+        <v>418</v>
+      </c>
+      <c r="G124" t="s">
+        <v>57</v>
+      </c>
+      <c r="I124" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A125" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B125" t="s">
+        <v>47</v>
+      </c>
+      <c r="C125" t="s">
+        <v>20</v>
+      </c>
+      <c r="D125" t="s">
+        <v>79</v>
+      </c>
+      <c r="E125" t="s">
+        <v>415</v>
+      </c>
+      <c r="G125" t="s">
+        <v>65</v>
+      </c>
+      <c r="I125" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A126" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B126" t="s">
+        <v>47</v>
+      </c>
+      <c r="C126" t="s">
+        <v>20</v>
+      </c>
+      <c r="D126" t="s">
+        <v>35</v>
+      </c>
+      <c r="E126" t="s">
+        <v>131</v>
+      </c>
+      <c r="G126" t="s">
+        <v>44</v>
+      </c>
+      <c r="I126" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A127" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B127" t="s">
+        <v>47</v>
+      </c>
+      <c r="C127" t="s">
+        <v>20</v>
+      </c>
+      <c r="D127" t="s">
+        <v>35</v>
+      </c>
+      <c r="E127" t="s">
+        <v>422</v>
+      </c>
+      <c r="G127" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A128" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B128" t="s">
+        <v>47</v>
+      </c>
+      <c r="C128" t="s">
+        <v>20</v>
+      </c>
+      <c r="D128" t="s">
+        <v>35</v>
+      </c>
+      <c r="E128" t="s">
+        <v>315</v>
+      </c>
+      <c r="G128" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A129" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B129" t="s">
+        <v>47</v>
+      </c>
+      <c r="C129" t="s">
+        <v>20</v>
+      </c>
+      <c r="D129" t="s">
+        <v>35</v>
+      </c>
+      <c r="E129" t="s">
+        <v>423</v>
+      </c>
+      <c r="G129" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A130" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B130" t="s">
+        <v>47</v>
+      </c>
+      <c r="C130" t="s">
+        <v>20</v>
+      </c>
+      <c r="D130" t="s">
+        <v>35</v>
+      </c>
+      <c r="E130" t="s">
+        <v>423</v>
+      </c>
+      <c r="G130" t="s">
+        <v>22</v>
+      </c>
+      <c r="I130" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A131" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B131" t="s">
+        <v>47</v>
+      </c>
+      <c r="C131" t="s">
+        <v>20</v>
+      </c>
+      <c r="D131" t="s">
+        <v>35</v>
+      </c>
+      <c r="E131" t="s">
+        <v>422</v>
+      </c>
+      <c r="G131" t="s">
+        <v>31</v>
+      </c>
+      <c r="I131" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A132" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B132" t="s">
+        <v>47</v>
+      </c>
+      <c r="C132" t="s">
+        <v>20</v>
+      </c>
+      <c r="D132" t="s">
+        <v>35</v>
+      </c>
+      <c r="E132" t="s">
+        <v>423</v>
+      </c>
+      <c r="G132" t="s">
+        <v>38</v>
+      </c>
+      <c r="I132" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A133" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B133" t="s">
+        <v>47</v>
+      </c>
+      <c r="C133" t="s">
+        <v>20</v>
+      </c>
+      <c r="D133" t="s">
+        <v>45</v>
+      </c>
+      <c r="E133" t="s">
+        <v>425</v>
+      </c>
+      <c r="G133" t="s">
+        <v>120</v>
+      </c>
+      <c r="I133" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A134" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B134" t="s">
+        <v>47</v>
+      </c>
+      <c r="C134" t="s">
+        <v>20</v>
+      </c>
+      <c r="D134" t="s">
+        <v>45</v>
+      </c>
+      <c r="E134" t="s">
+        <v>427</v>
+      </c>
+      <c r="G134" t="s">
+        <v>33</v>
+      </c>
+      <c r="I134" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A135" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B135" t="s">
+        <v>47</v>
+      </c>
+      <c r="C135" t="s">
+        <v>20</v>
+      </c>
+      <c r="D135" t="s">
+        <v>45</v>
+      </c>
+      <c r="E135" t="s">
+        <v>228</v>
+      </c>
+      <c r="G135" t="s">
+        <v>29</v>
+      </c>
+      <c r="I135" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A136" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B136" t="s">
+        <v>47</v>
+      </c>
+      <c r="C136" t="s">
+        <v>20</v>
+      </c>
+      <c r="D136" t="s">
+        <v>45</v>
+      </c>
+      <c r="E136" t="s">
+        <v>425</v>
+      </c>
+      <c r="G136" t="s">
+        <v>57</v>
+      </c>
+      <c r="I136" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A137" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B137" t="s">
+        <v>47</v>
+      </c>
+      <c r="C137" t="s">
+        <v>20</v>
+      </c>
+      <c r="D137" t="s">
+        <v>45</v>
+      </c>
+      <c r="E137" t="s">
+        <v>427</v>
+      </c>
+      <c r="G137" t="s">
+        <v>46</v>
+      </c>
+      <c r="I137" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A138" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B138" t="s">
+        <v>47</v>
+      </c>
+      <c r="C138" t="s">
+        <v>20</v>
+      </c>
+      <c r="D138" t="s">
+        <v>60</v>
+      </c>
+      <c r="E138" t="s">
+        <v>429</v>
+      </c>
+      <c r="G138" t="s">
+        <v>57</v>
+      </c>
+      <c r="I138" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A139" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B139" t="s">
+        <v>47</v>
+      </c>
+      <c r="C139" t="s">
+        <v>20</v>
+      </c>
+      <c r="D139" t="s">
+        <v>60</v>
+      </c>
+      <c r="E139" t="s">
+        <v>234</v>
+      </c>
+      <c r="G139" t="s">
+        <v>22</v>
+      </c>
+      <c r="I139" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A140" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B140" t="s">
+        <v>47</v>
+      </c>
+      <c r="C140" t="s">
+        <v>20</v>
+      </c>
+      <c r="D140" t="s">
+        <v>60</v>
+      </c>
+      <c r="E140" t="s">
+        <v>232</v>
+      </c>
+      <c r="G140" t="s">
+        <v>31</v>
+      </c>
+      <c r="I140" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A141" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B141" t="s">
+        <v>47</v>
+      </c>
+      <c r="C141" t="s">
+        <v>20</v>
+      </c>
+      <c r="D141" t="s">
+        <v>120</v>
+      </c>
+      <c r="E141" t="s">
+        <v>431</v>
+      </c>
+      <c r="G141" t="s">
+        <v>45</v>
+      </c>
+      <c r="I141" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A142" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B142" t="s">
+        <v>47</v>
+      </c>
+      <c r="C142" t="s">
+        <v>20</v>
+      </c>
+      <c r="D142" t="s">
+        <v>120</v>
+      </c>
+      <c r="E142" t="s">
+        <v>433</v>
+      </c>
+      <c r="G142" t="s">
+        <v>13</v>
+      </c>
+      <c r="I142" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A143" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B143" t="s">
+        <v>47</v>
+      </c>
+      <c r="C143" t="s">
+        <v>20</v>
+      </c>
+      <c r="D143" t="s">
+        <v>120</v>
+      </c>
+      <c r="E143" t="s">
+        <v>85</v>
+      </c>
+      <c r="G143" t="s">
+        <v>14</v>
+      </c>
+      <c r="I143" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A144" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B144" t="s">
+        <v>47</v>
+      </c>
+      <c r="C144" t="s">
+        <v>20</v>
+      </c>
+      <c r="D144" t="s">
+        <v>120</v>
+      </c>
+      <c r="E144" t="s">
+        <v>433</v>
+      </c>
+      <c r="G144" t="s">
+        <v>31</v>
+      </c>
+      <c r="I144" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A145" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B145" t="s">
+        <v>47</v>
+      </c>
+      <c r="C145" t="s">
+        <v>20</v>
+      </c>
+      <c r="D145" t="s">
+        <v>120</v>
+      </c>
+      <c r="E145" t="s">
+        <v>431</v>
+      </c>
+      <c r="G145" t="s">
+        <v>46</v>
+      </c>
+      <c r="I145" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A146" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B146" t="s">
+        <v>47</v>
+      </c>
+      <c r="C146" t="s">
+        <v>20</v>
+      </c>
+      <c r="D146" t="s">
+        <v>120</v>
+      </c>
+      <c r="E146" t="s">
+        <v>85</v>
+      </c>
+      <c r="G146" t="s">
+        <v>46</v>
+      </c>
+      <c r="I146" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A147" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B147" t="s">
+        <v>47</v>
+      </c>
+      <c r="C147" t="s">
+        <v>20</v>
+      </c>
+      <c r="D147" t="s">
+        <v>120</v>
+      </c>
+      <c r="E147" t="s">
+        <v>433</v>
+      </c>
+      <c r="G147" t="s">
+        <v>79</v>
+      </c>
+      <c r="I147" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A148" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B148" t="s">
+        <v>47</v>
+      </c>
+      <c r="C148" t="s">
+        <v>20</v>
+      </c>
+      <c r="D148" t="s">
+        <v>120</v>
+      </c>
+      <c r="E148" t="s">
+        <v>85</v>
+      </c>
+      <c r="G148" t="s">
+        <v>79</v>
+      </c>
+      <c r="I148" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A149" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B149" t="s">
+        <v>47</v>
+      </c>
+      <c r="C149" t="s">
+        <v>20</v>
+      </c>
+      <c r="D149" t="s">
+        <v>46</v>
+      </c>
+      <c r="E149" t="s">
+        <v>440</v>
+      </c>
+      <c r="G149" t="s">
+        <v>22</v>
+      </c>
+      <c r="I149" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A150" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B150" t="s">
+        <v>47</v>
+      </c>
+      <c r="C150" t="s">
+        <v>20</v>
+      </c>
+      <c r="D150" t="s">
+        <v>46</v>
+      </c>
+      <c r="E150" t="s">
+        <v>442</v>
+      </c>
+      <c r="G150" t="s">
+        <v>64</v>
+      </c>
+      <c r="I150" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A151" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B151" t="s">
+        <v>47</v>
+      </c>
+      <c r="C151" t="s">
+        <v>20</v>
+      </c>
+      <c r="D151" t="s">
+        <v>46</v>
+      </c>
+      <c r="G151" t="s">
+        <v>3</v>
+      </c>
+      <c r="I151" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A152" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B152" t="s">
+        <v>47</v>
+      </c>
+      <c r="C152" t="s">
+        <v>20</v>
+      </c>
+      <c r="D152" t="s">
+        <v>46</v>
+      </c>
+      <c r="E152" t="s">
+        <v>442</v>
+      </c>
+      <c r="G152" t="s">
+        <v>171</v>
+      </c>
+      <c r="I152" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A153" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B153" t="s">
+        <v>47</v>
+      </c>
+      <c r="C153" t="s">
+        <v>20</v>
+      </c>
+      <c r="D153" t="s">
+        <v>46</v>
+      </c>
+      <c r="E153" t="s">
+        <v>236</v>
+      </c>
+      <c r="G153" t="s">
+        <v>120</v>
+      </c>
+      <c r="I153" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A154" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B154" t="s">
+        <v>47</v>
+      </c>
+      <c r="C154" t="s">
+        <v>20</v>
+      </c>
+      <c r="D154" t="s">
+        <v>46</v>
+      </c>
+      <c r="E154" t="s">
+        <v>444</v>
+      </c>
+      <c r="G154" t="s">
+        <v>22</v>
+      </c>
+      <c r="I154" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A155" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B155" t="s">
+        <v>47</v>
+      </c>
+      <c r="C155" t="s">
+        <v>20</v>
+      </c>
+      <c r="D155" t="s">
+        <v>44</v>
+      </c>
+      <c r="E155" t="s">
+        <v>445</v>
+      </c>
+      <c r="G155" t="s">
+        <v>311</v>
+      </c>
+      <c r="I155" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A156" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B156" t="s">
+        <v>47</v>
+      </c>
+      <c r="C156" t="s">
+        <v>20</v>
+      </c>
+      <c r="D156" t="s">
+        <v>44</v>
+      </c>
+      <c r="E156" t="s">
+        <v>446</v>
+      </c>
+      <c r="G156" t="s">
+        <v>311</v>
+      </c>
+      <c r="I156" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A157" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B157" t="s">
+        <v>47</v>
+      </c>
+      <c r="C157" t="s">
+        <v>20</v>
+      </c>
+      <c r="D157" t="s">
+        <v>44</v>
+      </c>
+      <c r="E157" t="s">
+        <v>448</v>
+      </c>
+      <c r="G157" t="s">
+        <v>311</v>
+      </c>
+      <c r="I157" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A158" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B158" t="s">
+        <v>47</v>
+      </c>
+      <c r="C158" t="s">
+        <v>20</v>
+      </c>
+      <c r="D158" t="s">
+        <v>44</v>
+      </c>
+      <c r="E158" t="s">
+        <v>450</v>
+      </c>
+      <c r="G158" t="s">
+        <v>3</v>
+      </c>
+      <c r="I158" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A159" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B159" t="s">
+        <v>47</v>
+      </c>
+      <c r="C159" t="s">
+        <v>20</v>
+      </c>
+      <c r="D159" t="s">
+        <v>44</v>
+      </c>
+      <c r="E159" t="s">
+        <v>451</v>
+      </c>
+      <c r="G159" t="s">
+        <v>3</v>
+      </c>
+      <c r="I159" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A160" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B160" t="s">
+        <v>47</v>
+      </c>
+      <c r="C160" t="s">
+        <v>20</v>
+      </c>
+      <c r="D160" t="s">
+        <v>44</v>
+      </c>
+      <c r="E160" t="s">
+        <v>453</v>
+      </c>
+      <c r="G160" t="s">
+        <v>3</v>
+      </c>
+      <c r="I160" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A161" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B161" t="s">
+        <v>47</v>
+      </c>
+      <c r="C161" t="s">
+        <v>20</v>
+      </c>
+      <c r="D161" t="s">
+        <v>65</v>
+      </c>
+      <c r="E161" t="s">
+        <v>420</v>
+      </c>
+      <c r="G161" t="s">
+        <v>311</v>
+      </c>
+      <c r="I161" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A162" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B162" t="s">
+        <v>47</v>
+      </c>
+      <c r="C162" t="s">
+        <v>20</v>
+      </c>
+      <c r="D162" t="s">
+        <v>65</v>
+      </c>
+      <c r="E162" t="s">
+        <v>454</v>
+      </c>
+      <c r="G162" t="s">
+        <v>3</v>
+      </c>
+      <c r="I162" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A163" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B163" t="s">
+        <v>47</v>
+      </c>
+      <c r="C163" t="s">
+        <v>20</v>
+      </c>
+      <c r="D163" t="s">
+        <v>65</v>
+      </c>
+      <c r="E163" t="s">
+        <v>279</v>
+      </c>
+      <c r="G163" t="s">
+        <v>108</v>
+      </c>
+      <c r="I163" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A164" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B164" t="s">
+        <v>47</v>
+      </c>
+      <c r="C164" t="s">
+        <v>20</v>
+      </c>
+      <c r="D164" t="s">
+        <v>65</v>
+      </c>
+      <c r="E164" t="s">
+        <v>420</v>
+      </c>
+      <c r="G164" t="s">
+        <v>56</v>
+      </c>
+      <c r="I164" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A165" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B165" t="s">
+        <v>47</v>
+      </c>
+      <c r="C165" t="s">
+        <v>20</v>
+      </c>
+      <c r="D165" t="s">
+        <v>65</v>
+      </c>
+      <c r="E165" t="s">
+        <v>454</v>
+      </c>
+      <c r="G165" t="s">
+        <v>38</v>
+      </c>
+      <c r="I165" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A166" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B166" t="s">
+        <v>47</v>
+      </c>
+      <c r="C166" t="s">
+        <v>20</v>
+      </c>
+      <c r="D166" t="s">
+        <v>65</v>
+      </c>
+      <c r="E166" t="s">
+        <v>279</v>
+      </c>
+      <c r="G166" t="s">
+        <v>35</v>
+      </c>
+      <c r="I166" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A167" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B167" t="s">
+        <v>47</v>
+      </c>
+      <c r="C167" t="s">
+        <v>20</v>
+      </c>
+      <c r="D167" t="s">
+        <v>14</v>
+      </c>
+      <c r="E167" t="s">
+        <v>455</v>
+      </c>
+      <c r="G167" t="s">
+        <v>171</v>
+      </c>
+      <c r="I167" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A168" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B168" t="s">
+        <v>47</v>
+      </c>
+      <c r="C168" t="s">
+        <v>20</v>
+      </c>
+      <c r="D168" t="s">
+        <v>14</v>
+      </c>
+      <c r="E168" t="s">
+        <v>456</v>
+      </c>
+      <c r="G168" t="s">
+        <v>77</v>
+      </c>
+      <c r="I168" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A169" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B169" t="s">
+        <v>47</v>
+      </c>
+      <c r="C169" t="s">
+        <v>20</v>
+      </c>
+      <c r="D169" t="s">
+        <v>14</v>
+      </c>
+      <c r="E169" t="s">
+        <v>455</v>
+      </c>
+      <c r="G169" t="s">
+        <v>57</v>
+      </c>
+      <c r="I169" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A170" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B170" t="s">
+        <v>47</v>
+      </c>
+      <c r="C170" t="s">
+        <v>20</v>
+      </c>
+      <c r="D170" t="s">
+        <v>14</v>
+      </c>
+      <c r="E170" t="s">
+        <v>456</v>
+      </c>
+      <c r="G170" t="s">
+        <v>57</v>
+      </c>
+      <c r="I170" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A171" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B171" t="s">
+        <v>47</v>
+      </c>
+      <c r="C171" t="s">
+        <v>20</v>
+      </c>
+      <c r="D171" t="s">
+        <v>14</v>
+      </c>
+      <c r="E171" t="s">
+        <v>240</v>
+      </c>
+      <c r="G171" t="s">
+        <v>57</v>
+      </c>
+      <c r="I171" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A172" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B172" t="s">
+        <v>47</v>
+      </c>
+      <c r="C172" t="s">
+        <v>20</v>
+      </c>
+      <c r="D172" t="s">
+        <v>311</v>
+      </c>
+      <c r="E172" t="s">
+        <v>312</v>
+      </c>
+      <c r="G172" t="s">
+        <v>44</v>
+      </c>
+      <c r="I172" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A173" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B173" t="s">
+        <v>47</v>
+      </c>
+      <c r="C173" t="s">
+        <v>20</v>
+      </c>
+      <c r="D173" t="s">
+        <v>311</v>
+      </c>
+      <c r="E173" t="s">
+        <v>409</v>
+      </c>
+      <c r="G173" t="s">
+        <v>57</v>
+      </c>
+      <c r="I173" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A174" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B174" t="s">
+        <v>47</v>
+      </c>
+      <c r="C174" t="s">
+        <v>20</v>
+      </c>
+      <c r="D174" t="s">
+        <v>311</v>
+      </c>
+      <c r="E174" t="s">
+        <v>447</v>
+      </c>
+      <c r="G174" t="s">
+        <v>45</v>
+      </c>
+      <c r="I174" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A175" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B175" t="s">
+        <v>47</v>
+      </c>
+      <c r="C175" t="s">
+        <v>20</v>
+      </c>
+      <c r="D175" t="s">
+        <v>311</v>
+      </c>
+      <c r="E175" t="s">
+        <v>312</v>
+      </c>
+      <c r="G175" t="s">
+        <v>38</v>
+      </c>
+      <c r="I175" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A176" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B176" t="s">
+        <v>47</v>
+      </c>
+      <c r="C176" t="s">
+        <v>20</v>
+      </c>
+      <c r="D176" t="s">
+        <v>311</v>
+      </c>
+      <c r="E176" t="s">
+        <v>409</v>
+      </c>
+      <c r="G176" t="s">
+        <v>29</v>
+      </c>
+      <c r="I176" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A177" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B177" t="s">
+        <v>47</v>
+      </c>
+      <c r="C177" t="s">
+        <v>20</v>
+      </c>
+      <c r="D177" t="s">
+        <v>311</v>
+      </c>
+      <c r="E177" t="s">
+        <v>447</v>
+      </c>
+      <c r="G177" t="s">
+        <v>119</v>
+      </c>
+      <c r="I177" t="s">
+        <v>462</v>
       </c>
     </row>
   </sheetData>

--- a/docs/proposed_trades.xlsx
+++ b/docs/proposed_trades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\mcp\mlbchat\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9F6327-E5AB-429A-A630-90AE57FE2EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DE7783-2775-4517-85CC-B43B058AB00D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="86" yWindow="1020" windowWidth="32614" windowHeight="15969" activeTab="1" xr2:uid="{F042A249-47C6-4134-B927-1CE0688B40C2}"/>
   </bookViews>
@@ -1147,9 +1147,6 @@
     <t>Bobby Miller, Nick Nastrini, Landon Knack</t>
   </si>
   <si>
-    <t>Michael Grove, Nick Frasso, Any Pages</t>
-  </si>
-  <si>
     <t>Gavin Stone, Jack Dreyer</t>
   </si>
   <si>
@@ -1424,6 +1421,9 @@
   </si>
   <si>
     <t>Richard Fitts</t>
+  </si>
+  <si>
+    <t>Michael Grove, Nick Frasso, Andy Pages</t>
   </si>
 </sst>
 </file>
@@ -9662,8 +9662,8 @@
   <dimension ref="A1:K177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L74" sqref="L74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -11357,7 +11357,7 @@
         <v>22</v>
       </c>
       <c r="E73" t="s">
-        <v>370</v>
+        <v>462</v>
       </c>
       <c r="G73" t="s">
         <v>58</v>
@@ -11380,7 +11380,7 @@
         <v>22</v>
       </c>
       <c r="E74" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G74" t="s">
         <v>108</v>
@@ -11403,13 +11403,13 @@
         <v>38</v>
       </c>
       <c r="E75" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G75" t="s">
         <v>64</v>
       </c>
       <c r="I75" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.4">
@@ -11432,7 +11432,7 @@
         <v>119</v>
       </c>
       <c r="I76" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.4">
@@ -11455,7 +11455,7 @@
         <v>46</v>
       </c>
       <c r="I77" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.4">
@@ -11492,7 +11492,7 @@
         <v>108</v>
       </c>
       <c r="E79" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G79" t="s">
         <v>29</v>
@@ -11518,7 +11518,7 @@
         <v>57</v>
       </c>
       <c r="I80" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.4">
@@ -11541,7 +11541,7 @@
         <v>57</v>
       </c>
       <c r="I81" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.4">
@@ -11558,7 +11558,7 @@
         <v>108</v>
       </c>
       <c r="E82" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G82" t="s">
         <v>57</v>
@@ -11584,7 +11584,7 @@
         <v>45</v>
       </c>
       <c r="I83" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.4">
@@ -11607,7 +11607,7 @@
         <v>67</v>
       </c>
       <c r="I84" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.4">
@@ -11624,13 +11624,13 @@
         <v>171</v>
       </c>
       <c r="E85" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G85" t="s">
         <v>119</v>
       </c>
       <c r="I85" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.4">
@@ -11653,7 +11653,7 @@
         <v>29</v>
       </c>
       <c r="I86" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.4">
@@ -11676,7 +11676,7 @@
         <v>14</v>
       </c>
       <c r="I87" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.4">
@@ -11693,13 +11693,13 @@
         <v>171</v>
       </c>
       <c r="E88" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G88" t="s">
         <v>31</v>
       </c>
       <c r="I88" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.4">
@@ -11739,7 +11739,7 @@
         <v>119</v>
       </c>
       <c r="E90" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G90" t="s">
         <v>79</v>
@@ -11785,7 +11785,7 @@
         <v>58</v>
       </c>
       <c r="I92" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.4">
@@ -11822,7 +11822,7 @@
         <v>119</v>
       </c>
       <c r="E94" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G94" t="s">
         <v>38</v>
@@ -11845,7 +11845,7 @@
         <v>119</v>
       </c>
       <c r="E95" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G95" t="s">
         <v>35</v>
@@ -11868,7 +11868,7 @@
         <v>119</v>
       </c>
       <c r="E96" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G96" t="s">
         <v>120</v>
@@ -11891,13 +11891,13 @@
         <v>24</v>
       </c>
       <c r="E97" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G97" t="s">
         <v>45</v>
       </c>
       <c r="I97" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.4">
@@ -11920,7 +11920,7 @@
         <v>77</v>
       </c>
       <c r="I98" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.4">
@@ -11937,7 +11937,7 @@
         <v>24</v>
       </c>
       <c r="E99" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G99" t="s">
         <v>14</v>
@@ -11960,7 +11960,7 @@
         <v>24</v>
       </c>
       <c r="E100" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G100" t="s">
         <v>31</v>
@@ -11983,13 +11983,13 @@
         <v>24</v>
       </c>
       <c r="E101" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G101" t="s">
         <v>57</v>
       </c>
       <c r="I101" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.4">
@@ -12012,7 +12012,7 @@
         <v>38</v>
       </c>
       <c r="I102" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.4">
@@ -12029,13 +12029,13 @@
         <v>24</v>
       </c>
       <c r="E103" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G103" t="s">
         <v>46</v>
       </c>
       <c r="I103" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.4">
@@ -12052,13 +12052,13 @@
         <v>64</v>
       </c>
       <c r="E104" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G104" t="s">
         <v>56</v>
       </c>
       <c r="I104" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.4">
@@ -12075,13 +12075,13 @@
         <v>64</v>
       </c>
       <c r="E105" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G105" t="s">
         <v>29</v>
       </c>
       <c r="I105" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.4">
@@ -12098,13 +12098,13 @@
         <v>64</v>
       </c>
       <c r="E106" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G106" t="s">
         <v>38</v>
       </c>
       <c r="I106" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.4">
@@ -12121,13 +12121,13 @@
         <v>64</v>
       </c>
       <c r="E107" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G107" t="s">
         <v>38</v>
       </c>
       <c r="I107" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.4">
@@ -12144,13 +12144,13 @@
         <v>102</v>
       </c>
       <c r="E108" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G108" t="s">
         <v>311</v>
       </c>
       <c r="I108" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.4">
@@ -12173,7 +12173,7 @@
         <v>79</v>
       </c>
       <c r="I109" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.4">
@@ -12190,13 +12190,13 @@
         <v>102</v>
       </c>
       <c r="E110" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G110" t="s">
         <v>311</v>
       </c>
       <c r="I110" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.4">
@@ -12213,7 +12213,7 @@
         <v>102</v>
       </c>
       <c r="E111" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G111" t="s">
         <v>38</v>
@@ -12236,7 +12236,7 @@
         <v>102</v>
       </c>
       <c r="E112" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G112" t="s">
         <v>29</v>
@@ -12328,13 +12328,13 @@
         <v>77</v>
       </c>
       <c r="E116" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G116" t="s">
         <v>311</v>
       </c>
       <c r="I116" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.4">
@@ -12351,13 +12351,13 @@
         <v>77</v>
       </c>
       <c r="E117" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G117" t="s">
         <v>45</v>
       </c>
       <c r="I117" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.4">
@@ -12380,7 +12380,7 @@
         <v>79</v>
       </c>
       <c r="I118" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.4">
@@ -12426,7 +12426,7 @@
         <v>45</v>
       </c>
       <c r="I120" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.4">
@@ -12466,7 +12466,7 @@
         <v>79</v>
       </c>
       <c r="E122" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G122" t="s">
         <v>79</v>
@@ -12489,13 +12489,13 @@
         <v>79</v>
       </c>
       <c r="E123" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G123" t="s">
         <v>31</v>
       </c>
       <c r="I123" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.4">
@@ -12512,13 +12512,13 @@
         <v>79</v>
       </c>
       <c r="E124" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G124" t="s">
         <v>57</v>
       </c>
       <c r="I124" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.4">
@@ -12535,13 +12535,13 @@
         <v>79</v>
       </c>
       <c r="E125" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G125" t="s">
         <v>65</v>
       </c>
       <c r="I125" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.4">
@@ -12564,7 +12564,7 @@
         <v>44</v>
       </c>
       <c r="I126" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.4">
@@ -12581,7 +12581,7 @@
         <v>35</v>
       </c>
       <c r="E127" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G127" t="s">
         <v>13</v>
@@ -12621,7 +12621,7 @@
         <v>35</v>
       </c>
       <c r="E129" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G129" t="s">
         <v>45</v>
@@ -12641,7 +12641,7 @@
         <v>35</v>
       </c>
       <c r="E130" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G130" t="s">
         <v>22</v>
@@ -12664,7 +12664,7 @@
         <v>35</v>
       </c>
       <c r="E131" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G131" t="s">
         <v>31</v>
@@ -12687,13 +12687,13 @@
         <v>35</v>
       </c>
       <c r="E132" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G132" t="s">
         <v>38</v>
       </c>
       <c r="I132" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.4">
@@ -12710,7 +12710,7 @@
         <v>45</v>
       </c>
       <c r="E133" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G133" t="s">
         <v>120</v>
@@ -12733,7 +12733,7 @@
         <v>45</v>
       </c>
       <c r="E134" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G134" t="s">
         <v>33</v>
@@ -12779,13 +12779,13 @@
         <v>45</v>
       </c>
       <c r="E136" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G136" t="s">
         <v>57</v>
       </c>
       <c r="I136" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.4">
@@ -12802,13 +12802,13 @@
         <v>45</v>
       </c>
       <c r="E137" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G137" t="s">
         <v>46</v>
       </c>
       <c r="I137" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.4">
@@ -12825,13 +12825,13 @@
         <v>60</v>
       </c>
       <c r="E138" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G138" t="s">
         <v>57</v>
       </c>
       <c r="I138" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.4">
@@ -12854,7 +12854,7 @@
         <v>22</v>
       </c>
       <c r="I139" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.4">
@@ -12877,7 +12877,7 @@
         <v>31</v>
       </c>
       <c r="I140" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.4">
@@ -12894,13 +12894,13 @@
         <v>120</v>
       </c>
       <c r="E141" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G141" t="s">
         <v>45</v>
       </c>
       <c r="I141" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.4">
@@ -12917,13 +12917,13 @@
         <v>120</v>
       </c>
       <c r="E142" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G142" t="s">
         <v>13</v>
       </c>
       <c r="I142" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.4">
@@ -12946,7 +12946,7 @@
         <v>14</v>
       </c>
       <c r="I143" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.4">
@@ -12963,13 +12963,13 @@
         <v>120</v>
       </c>
       <c r="E144" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G144" t="s">
         <v>31</v>
       </c>
       <c r="I144" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.4">
@@ -12986,13 +12986,13 @@
         <v>120</v>
       </c>
       <c r="E145" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G145" t="s">
         <v>46</v>
       </c>
       <c r="I145" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.4">
@@ -13015,7 +13015,7 @@
         <v>46</v>
       </c>
       <c r="I146" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.4">
@@ -13032,13 +13032,13 @@
         <v>120</v>
       </c>
       <c r="E147" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G147" t="s">
         <v>79</v>
       </c>
       <c r="I147" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.4">
@@ -13061,7 +13061,7 @@
         <v>79</v>
       </c>
       <c r="I148" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.4">
@@ -13078,13 +13078,13 @@
         <v>46</v>
       </c>
       <c r="E149" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G149" t="s">
         <v>22</v>
       </c>
       <c r="I149" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.4">
@@ -13101,7 +13101,7 @@
         <v>46</v>
       </c>
       <c r="E150" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G150" t="s">
         <v>64</v>
@@ -13144,7 +13144,7 @@
         <v>46</v>
       </c>
       <c r="E152" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G152" t="s">
         <v>171</v>
@@ -13173,7 +13173,7 @@
         <v>120</v>
       </c>
       <c r="I153" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.4">
@@ -13190,7 +13190,7 @@
         <v>46</v>
       </c>
       <c r="E154" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G154" t="s">
         <v>22</v>
@@ -13213,7 +13213,7 @@
         <v>44</v>
       </c>
       <c r="E155" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G155" t="s">
         <v>311</v>
@@ -13236,13 +13236,13 @@
         <v>44</v>
       </c>
       <c r="E156" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G156" t="s">
         <v>311</v>
       </c>
       <c r="I156" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.4">
@@ -13259,13 +13259,13 @@
         <v>44</v>
       </c>
       <c r="E157" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G157" t="s">
         <v>311</v>
       </c>
       <c r="I157" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.4">
@@ -13282,7 +13282,7 @@
         <v>44</v>
       </c>
       <c r="E158" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G158" t="s">
         <v>3</v>
@@ -13305,13 +13305,13 @@
         <v>44</v>
       </c>
       <c r="E159" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G159" t="s">
         <v>3</v>
       </c>
       <c r="I159" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.4">
@@ -13328,7 +13328,7 @@
         <v>44</v>
       </c>
       <c r="E160" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G160" t="s">
         <v>3</v>
@@ -13351,7 +13351,7 @@
         <v>65</v>
       </c>
       <c r="E161" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G161" t="s">
         <v>311</v>
@@ -13374,7 +13374,7 @@
         <v>65</v>
       </c>
       <c r="E162" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G162" t="s">
         <v>3</v>
@@ -13420,7 +13420,7 @@
         <v>65</v>
       </c>
       <c r="E164" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G164" t="s">
         <v>56</v>
@@ -13443,7 +13443,7 @@
         <v>65</v>
       </c>
       <c r="E165" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G165" t="s">
         <v>38</v>
@@ -13489,7 +13489,7 @@
         <v>14</v>
       </c>
       <c r="E167" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G167" t="s">
         <v>171</v>
@@ -13512,7 +13512,7 @@
         <v>14</v>
       </c>
       <c r="E168" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G168" t="s">
         <v>77</v>
@@ -13535,7 +13535,7 @@
         <v>14</v>
       </c>
       <c r="E169" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G169" t="s">
         <v>57</v>
@@ -13558,7 +13558,7 @@
         <v>14</v>
       </c>
       <c r="E170" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G170" t="s">
         <v>57</v>
@@ -13587,7 +13587,7 @@
         <v>57</v>
       </c>
       <c r="I171" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.4">
@@ -13610,7 +13610,7 @@
         <v>44</v>
       </c>
       <c r="I172" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.4">
@@ -13627,13 +13627,13 @@
         <v>311</v>
       </c>
       <c r="E173" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G173" t="s">
         <v>57</v>
       </c>
       <c r="I173" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.4">
@@ -13650,13 +13650,13 @@
         <v>311</v>
       </c>
       <c r="E174" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G174" t="s">
         <v>45</v>
       </c>
       <c r="I174" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.4">
@@ -13679,7 +13679,7 @@
         <v>38</v>
       </c>
       <c r="I175" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.4">
@@ -13696,13 +13696,13 @@
         <v>311</v>
       </c>
       <c r="E176" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G176" t="s">
         <v>29</v>
       </c>
       <c r="I176" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.4">
@@ -13719,13 +13719,13 @@
         <v>311</v>
       </c>
       <c r="E177" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G177" t="s">
         <v>119</v>
       </c>
       <c r="I177" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
   </sheetData>
